--- a/Intermediate_data/random_list_interval.xlsx
+++ b/Intermediate_data/random_list_interval.xlsx
@@ -471,11 +471,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0:5:0</t>
+          <t>0:4:36</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -487,11 +487,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:6:54</t>
+          <t>0:8:12</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -503,11 +503,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:9:6</t>
+          <t>0:8:48</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -535,11 +535,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:11:18</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -551,11 +551,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0:12:12</t>
+          <t>0:16:12</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -567,11 +567,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0:12:48</t>
+          <t>0:16:36</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -583,11 +583,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0:15:12</t>
+          <t>0:17:0</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -615,11 +615,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0:25:54</t>
+          <t>0:23:30</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -631,11 +631,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0:26:48</t>
+          <t>0:24:6</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -647,11 +647,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0:28:6</t>
+          <t>0:25:54</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -663,11 +663,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0:28:12</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -695,11 +695,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:30:48</t>
+          <t>0:30:18</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -711,11 +711,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0:31:30</t>
+          <t>0:33:42</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -727,11 +727,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0:34:6</t>
+          <t>0:36:54</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -743,11 +743,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0:36:6</t>
+          <t>0:37:0</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -775,11 +775,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0:42:6</t>
+          <t>0:41:6</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -791,11 +791,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0:45:6</t>
+          <t>0:42:36</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -807,11 +807,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0:45:18</t>
+          <t>0:44:24</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -823,11 +823,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0:46:54</t>
+          <t>0:46:48</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -855,11 +855,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0:51:24</t>
+          <t>0:50:0</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -871,11 +871,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0:53:6</t>
+          <t>0:52:24</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -887,11 +887,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>581</v>
+        <v>535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0:58:6</t>
+          <t>0:53:30</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -903,11 +903,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0:59:48</t>
+          <t>0:53:48</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -935,11 +935,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1:2:24</t>
+          <t>1:3:6</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -951,11 +951,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1:2:36</t>
+          <t>1:6:54</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -967,11 +967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1:3:0</t>
+          <t>1:8:6</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -983,11 +983,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1:4:48</t>
+          <t>1:8:12</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1015,11 +1015,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1:11:0</t>
+          <t>1:10:30</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1031,11 +1031,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1:14:54</t>
+          <t>1:12:18</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1047,11 +1047,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1:15:0</t>
+          <t>1:15:6</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1063,11 +1063,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1:18:24</t>
+          <t>1:19:36</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1095,11 +1095,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1:21:54</t>
+          <t>1:21:30</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1111,11 +1111,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1:22:54</t>
+          <t>1:22:24</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1127,11 +1127,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>887</v>
+        <v>848</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1:28:42</t>
+          <t>1:24:48</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1143,11 +1143,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1:28:48</t>
+          <t>1:26:24</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1175,11 +1175,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1:30:12</t>
+          <t>1:31:48</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1207,11 +1207,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>950</v>
+        <v>985</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1:35:0</t>
+          <t>1:38:30</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1223,11 +1223,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1:39:48</t>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1255,11 +1255,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1:41:6</t>
+          <t>1:41:18</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1271,11 +1271,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1:42:0</t>
+          <t>1:43:48</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1287,11 +1287,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1:43:24</t>
+          <t>1:44:18</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1303,11 +1303,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1:45:6</t>
+          <t>1:44:24</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1335,11 +1335,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1:50:0</t>
+          <t>1:51:6</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1351,11 +1351,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1:55:42</t>
+          <t>1:54:6</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1367,11 +1367,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1:55:54</t>
+          <t>1:56:12</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1383,11 +1383,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1192</v>
+        <v>1165</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1:59:12</t>
+          <t>1:56:30</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1415,11 +1415,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2:2:6</t>
+          <t>2:1:48</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1431,11 +1431,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1265</v>
+        <v>1245</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2:6:30</t>
+          <t>2:4:30</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1447,11 +1447,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1284</v>
+        <v>1248</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2:8:24</t>
+          <t>2:4:48</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1463,11 +1463,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2:9:6</t>
+          <t>2:8:42</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1495,11 +1495,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2:10:42</t>
+          <t>2:11:6</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1511,11 +1511,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1321</v>
+        <v>1352</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2:12:6</t>
+          <t>2:15:12</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1527,11 +1527,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1364</v>
+        <v>1389</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2:16:24</t>
+          <t>2:18:54</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1543,11 +1543,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1368</v>
+        <v>1397</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2:16:48</t>
+          <t>2:19:42</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1575,11 +1575,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2:20:24</t>
+          <t>2:20:30</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1591,11 +1591,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1409</v>
+        <v>1443</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2:20:54</t>
+          <t>2:24:18</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1607,11 +1607,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1450</v>
+        <v>1476</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2:25:0</t>
+          <t>2:27:36</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1623,11 +1623,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2:29:36</t>
+          <t>2:29:18</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1671,11 +1671,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1534</v>
+        <v>1561</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2:33:24</t>
+          <t>2:36:6</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1687,11 +1687,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1539</v>
+        <v>1562</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2:33:54</t>
+          <t>2:36:12</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1703,11 +1703,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2:37:24</t>
+          <t>2:37:12</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1735,11 +1735,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1631</v>
+        <v>1672</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2:43:6</t>
+          <t>2:47:12</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1751,11 +1751,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1638</v>
+        <v>1685</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2:43:48</t>
+          <t>2:48:30</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1767,11 +1767,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1643</v>
+        <v>1687</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2:44:18</t>
+          <t>2:48:42</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1783,11 +1783,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1661</v>
+        <v>1695</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2:46:6</t>
+          <t>2:49:30</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1815,11 +1815,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1702</v>
+        <v>1732</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2:50:12</t>
+          <t>2:53:12</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1831,11 +1831,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1711</v>
+        <v>1785</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2:51:6</t>
+          <t>2:58:30</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1847,11 +1847,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1747</v>
+        <v>1796</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2:54:42</t>
+          <t>2:59:36</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1863,11 +1863,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2:59:0</t>
+          <t>2:59:42</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1895,11 +1895,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3:1:12</t>
+          <t>3:1:6</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -1911,11 +1911,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3:2:36</t>
+          <t>3:2:54</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -1927,11 +1927,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1862</v>
+        <v>1851</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3:6:12</t>
+          <t>3:5:6</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -1943,11 +1943,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3:7:18</t>
+          <t>3:7:0</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -1975,11 +1975,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1904</v>
+        <v>1926</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3:10:24</t>
+          <t>3:12:36</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2007,11 +2007,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1974</v>
+        <v>1946</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3:17:24</t>
+          <t>3:14:36</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2023,11 +2023,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1977</v>
+        <v>1965</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3:17:42</t>
+          <t>3:16:30</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2055,11 +2055,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3:20:42</t>
+          <t>3:22:0</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2071,11 +2071,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2008</v>
+        <v>2042</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3:20:48</t>
+          <t>3:24:12</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2087,11 +2087,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2032</v>
+        <v>2067</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3:23:12</t>
+          <t>3:26:42</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2103,11 +2103,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2093</v>
+        <v>2070</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3:29:18</t>
+          <t>3:27:0</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2135,11 +2135,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3:34:24</t>
+          <t>3:34:18</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2151,11 +2151,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3:35:42</t>
+          <t>3:35:54</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2167,11 +2167,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2170</v>
+        <v>2175</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3:37:0</t>
+          <t>3:37:30</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2183,11 +2183,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3:39:24</t>
+          <t>3:39:18</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2215,11 +2215,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2214</v>
+        <v>2200</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3:41:24</t>
+          <t>3:40:0</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2231,11 +2231,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3:41:42</t>
+          <t>3:41:12</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2247,11 +2247,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2224</v>
+        <v>2269</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3:42:24</t>
+          <t>3:46:54</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2263,11 +2263,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2269</v>
+        <v>2286</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3:46:54</t>
+          <t>3:48:36</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2295,11 +2295,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2322</v>
+        <v>2303</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3:52:12</t>
+          <t>3:50:18</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2311,11 +2311,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2323</v>
+        <v>2341</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3:52:18</t>
+          <t>3:54:6</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2327,11 +2327,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2332</v>
+        <v>2349</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3:53:12</t>
+          <t>3:54:54</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2343,11 +2343,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2378</v>
+        <v>2397</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3:57:48</t>
+          <t>3:59:42</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2375,11 +2375,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4:1:24</t>
+          <t>4:1:48</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2391,11 +2391,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4:2:30</t>
+          <t>4:2:54</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2407,11 +2407,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2483</v>
+        <v>2453</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4:8:18</t>
+          <t>4:5:18</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2423,11 +2423,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2489</v>
+        <v>2460</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4:8:54</t>
+          <t>4:6:0</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2471,11 +2471,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2538</v>
+        <v>2525</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4:13:48</t>
+          <t>4:12:30</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2487,11 +2487,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4:14:6</t>
+          <t>4:19:6</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2503,11 +2503,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2584</v>
+        <v>2592</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4:18:24</t>
+          <t>4:19:12</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2535,11 +2535,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2622</v>
+        <v>2641</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4:22:12</t>
+          <t>4:24:6</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2551,11 +2551,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2630</v>
+        <v>2676</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4:23:0</t>
+          <t>4:27:36</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2567,11 +2567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2677</v>
+        <v>2692</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4:27:42</t>
+          <t>4:29:12</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2583,11 +2583,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2683</v>
+        <v>2697</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4:28:18</t>
+          <t>4:29:42</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2615,11 +2615,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2750</v>
+        <v>2705</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4:35:0</t>
+          <t>4:30:30</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2631,11 +2631,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2753</v>
+        <v>2730</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4:35:18</t>
+          <t>4:33:0</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2647,11 +2647,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4:37:42</t>
+          <t>4:37:36</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2663,11 +2663,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2797</v>
+        <v>2778</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4:39:42</t>
+          <t>4:37:48</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2695,11 +2695,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2812</v>
+        <v>2854</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4:41:12</t>
+          <t>4:45:24</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2711,11 +2711,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2828</v>
+        <v>2864</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4:42:48</t>
+          <t>4:46:24</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2727,11 +2727,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2835</v>
+        <v>2865</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4:43:30</t>
+          <t>4:46:30</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2743,11 +2743,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4:48:12</t>
+          <t>4:48:18</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -2775,11 +2775,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2906</v>
+        <v>2914</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4:50:36</t>
+          <t>4:51:24</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -2791,11 +2791,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2934</v>
+        <v>2937</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4:53:24</t>
+          <t>4:53:42</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -2807,11 +2807,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2984</v>
+        <v>2972</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4:58:24</t>
+          <t>4:57:12</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -2823,11 +2823,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2989</v>
+        <v>2982</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4:58:54</t>
+          <t>4:58:12</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -2855,11 +2855,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3016</v>
+        <v>3023</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5:1:36</t>
+          <t>5:2:18</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -2871,11 +2871,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3063</v>
+        <v>3035</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5:6:18</t>
+          <t>5:3:30</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -2887,11 +2887,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3083</v>
+        <v>3074</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5:8:18</t>
+          <t>5:7:24</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -2903,11 +2903,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5:9:6</t>
+          <t>5:8:48</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -2935,11 +2935,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3148</v>
+        <v>3118</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5:14:48</t>
+          <t>5:11:48</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -2951,11 +2951,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3150</v>
+        <v>3156</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5:15:0</t>
+          <t>5:15:36</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -2967,11 +2967,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3157</v>
+        <v>3181</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5:15:42</t>
+          <t>5:18:6</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -2983,11 +2983,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3178</v>
+        <v>3191</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5:17:48</t>
+          <t>5:19:6</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3015,11 +3015,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3228</v>
+        <v>3205</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5:22:48</t>
+          <t>5:20:30</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3031,11 +3031,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3235</v>
+        <v>3212</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5:23:30</t>
+          <t>5:21:12</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3047,11 +3047,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3267</v>
+        <v>3214</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5:26:42</t>
+          <t>5:21:24</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3063,11 +3063,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5:27:42</t>
+          <t>5:27:54</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3095,11 +3095,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5:30:42</t>
+          <t>5:31:12</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3111,11 +3111,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3336</v>
+        <v>3330</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5:33:36</t>
+          <t>5:33:0</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3127,11 +3127,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3337</v>
+        <v>3368</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5:33:42</t>
+          <t>5:36:48</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3143,11 +3143,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3386</v>
+        <v>3390</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5:38:36</t>
+          <t>5:39:0</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3175,11 +3175,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3426</v>
+        <v>3407</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5:42:36</t>
+          <t>5:40:42</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3191,11 +3191,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5:43:36</t>
+          <t>5:43:54</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3207,11 +3207,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3438</v>
+        <v>3457</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5:43:48</t>
+          <t>5:45:42</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3223,11 +3223,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3495</v>
+        <v>3475</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>5:49:30</t>
+          <t>5:47:30</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3255,11 +3255,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3545</v>
+        <v>3516</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>5:54:30</t>
+          <t>5:51:36</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3271,11 +3271,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3555</v>
+        <v>3565</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5:55:30</t>
+          <t>5:56:30</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3287,11 +3287,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3597</v>
+        <v>3572</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>5:59:42</t>
+          <t>5:57:12</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3303,11 +3303,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3598</v>
+        <v>3587</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>5:59:48</t>
+          <t>5:58:42</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3335,11 +3335,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6:1:42</t>
+          <t>6:1:24</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3351,11 +3351,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3620</v>
+        <v>3632</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6:2:0</t>
+          <t>6:3:12</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3367,11 +3367,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3667</v>
+        <v>3660</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6:6:42</t>
+          <t>6:6:0</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3415,11 +3415,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3701</v>
+        <v>3706</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6:10:6</t>
+          <t>6:10:36</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3431,11 +3431,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3717</v>
+        <v>3725</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6:11:42</t>
+          <t>6:12:30</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3447,11 +3447,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3755</v>
+        <v>3736</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>6:15:30</t>
+          <t>6:13:36</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3463,11 +3463,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3774</v>
+        <v>3756</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>6:17:24</t>
+          <t>6:15:36</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3495,11 +3495,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3808</v>
+        <v>3860</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6:20:48</t>
+          <t>6:26:0</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3511,11 +3511,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3811</v>
+        <v>3884</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6:21:6</t>
+          <t>6:28:24</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3527,11 +3527,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3848</v>
+        <v>3891</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6:24:48</t>
+          <t>6:29:6</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3543,11 +3543,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3883</v>
+        <v>3893</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>6:28:18</t>
+          <t>6:29:18</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3575,11 +3575,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3903</v>
+        <v>3925</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6:30:18</t>
+          <t>6:32:30</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3591,11 +3591,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3915</v>
+        <v>3937</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6:31:30</t>
+          <t>6:33:42</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3607,11 +3607,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3941</v>
+        <v>3969</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>6:34:6</t>
+          <t>6:36:54</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3623,11 +3623,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3979</v>
+        <v>3988</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>6:37:54</t>
+          <t>6:38:48</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -3655,11 +3655,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4028</v>
+        <v>4043</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>6:42:48</t>
+          <t>6:44:18</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -3671,11 +3671,11 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4044</v>
+        <v>4060</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6:44:24</t>
+          <t>6:46:0</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -3687,11 +3687,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4077</v>
+        <v>4061</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6:47:42</t>
+          <t>6:46:6</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -3703,11 +3703,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4078</v>
+        <v>4062</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6:47:48</t>
+          <t>6:46:12</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -3735,11 +3735,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4104</v>
+        <v>4108</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6:50:24</t>
+          <t>6:50:48</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -3751,11 +3751,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4142</v>
+        <v>4127</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6:54:12</t>
+          <t>6:52:42</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -3767,11 +3767,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4153</v>
+        <v>4185</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>6:55:18</t>
+          <t>6:58:30</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -3783,11 +3783,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4176</v>
+        <v>4193</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>6:57:36</t>
+          <t>6:59:18</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -3815,11 +3815,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4223</v>
+        <v>4243</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>7:2:18</t>
+          <t>7:4:18</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -3831,11 +3831,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4228</v>
+        <v>4252</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>7:2:48</t>
+          <t>7:5:12</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -3847,11 +3847,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4238</v>
+        <v>4266</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>7:3:48</t>
+          <t>7:6:36</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -3863,11 +3863,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4261</v>
+        <v>4290</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7:6:6</t>
+          <t>7:9:0</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -3895,11 +3895,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4303</v>
+        <v>4332</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7:10:18</t>
+          <t>7:13:12</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -3911,11 +3911,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4315</v>
+        <v>4334</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7:11:30</t>
+          <t>7:13:24</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -3927,11 +3927,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4317</v>
+        <v>4344</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>7:11:42</t>
+          <t>7:14:24</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -3943,11 +3943,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4358</v>
+        <v>4347</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>7:15:48</t>
+          <t>7:14:42</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -3975,11 +3975,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>7:20:24</t>
+          <t>7:20:12</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -3991,11 +3991,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7:22:36</t>
+          <t>7:22:42</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4007,11 +4007,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4459</v>
+        <v>4445</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>7:25:54</t>
+          <t>7:24:30</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4023,11 +4023,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4472</v>
+        <v>4453</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>7:27:12</t>
+          <t>7:25:18</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4055,11 +4055,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4502</v>
+        <v>4511</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>7:30:12</t>
+          <t>7:31:6</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4071,11 +4071,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4542</v>
+        <v>4567</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>7:34:12</t>
+          <t>7:36:42</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4087,11 +4087,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4551</v>
+        <v>4582</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>7:35:6</t>
+          <t>7:38:12</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4103,11 +4103,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4570</v>
+        <v>4587</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>7:37:0</t>
+          <t>7:38:42</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4135,11 +4135,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4623</v>
+        <v>4604</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>7:42:18</t>
+          <t>7:40:24</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4151,11 +4151,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4658</v>
+        <v>4636</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7:45:48</t>
+          <t>7:43:36</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4167,11 +4167,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4668</v>
+        <v>4662</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>7:46:48</t>
+          <t>7:46:12</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4183,11 +4183,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4694</v>
+        <v>4667</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>7:49:24</t>
+          <t>7:46:42</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4215,11 +4215,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4735</v>
+        <v>4729</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7:53:30</t>
+          <t>7:52:54</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4231,11 +4231,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4747</v>
+        <v>4734</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>7:54:42</t>
+          <t>7:53:24</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4247,11 +4247,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4761</v>
+        <v>4777</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>7:56:6</t>
+          <t>7:57:42</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4263,11 +4263,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4782</v>
+        <v>4791</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>7:58:12</t>
+          <t>7:59:6</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4295,11 +4295,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4803</v>
+        <v>4816</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8:0:18</t>
+          <t>8:1:36</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4311,11 +4311,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4830</v>
+        <v>4848</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>8:3:0</t>
+          <t>8:4:48</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -4327,11 +4327,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4846</v>
+        <v>4860</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8:4:36</t>
+          <t>8:6:0</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4343,11 +4343,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4856</v>
+        <v>4867</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8:5:36</t>
+          <t>8:6:42</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -4375,11 +4375,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4901</v>
+        <v>4917</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8:10:6</t>
+          <t>8:11:42</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4391,11 +4391,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4905</v>
+        <v>4939</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8:10:30</t>
+          <t>8:13:54</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4407,11 +4407,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4977</v>
+        <v>4970</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8:17:42</t>
+          <t>8:17:0</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4423,11 +4423,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4993</v>
+        <v>4974</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8:19:18</t>
+          <t>8:17:24</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -4455,11 +4455,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>8:22:0</t>
+          <t>8:21:0</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4471,11 +4471,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>5029</v>
+        <v>5033</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>8:22:54</t>
+          <t>8:23:18</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4487,11 +4487,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>5047</v>
+        <v>5049</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>8:24:42</t>
+          <t>8:24:54</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -4503,11 +4503,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>5051</v>
+        <v>5081</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8:25:6</t>
+          <t>8:28:6</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -4535,11 +4535,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>5106</v>
+        <v>5132</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>8:30:36</t>
+          <t>8:33:12</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -4551,11 +4551,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>5170</v>
+        <v>5145</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>8:37:0</t>
+          <t>8:34:30</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -4567,11 +4567,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5174</v>
+        <v>5161</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8:37:24</t>
+          <t>8:36:6</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -4583,11 +4583,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5181</v>
+        <v>5171</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>8:38:6</t>
+          <t>8:37:6</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -4615,11 +4615,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5231</v>
+        <v>5282</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8:43:6</t>
+          <t>8:48:12</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -4631,11 +4631,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5270</v>
+        <v>5288</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>8:47:0</t>
+          <t>8:48:48</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -4647,11 +4647,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5281</v>
+        <v>5292</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>8:48:6</t>
+          <t>8:49:12</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -4663,11 +4663,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5285</v>
+        <v>5293</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8:48:30</t>
+          <t>8:49:18</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -4695,11 +4695,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5313</v>
+        <v>5329</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>8:51:18</t>
+          <t>8:52:54</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -4711,11 +4711,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5343</v>
+        <v>5336</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>8:54:18</t>
+          <t>8:53:36</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -4727,11 +4727,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5349</v>
+        <v>5346</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>8:54:54</t>
+          <t>8:54:36</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -4743,11 +4743,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5388</v>
+        <v>5372</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8:58:48</t>
+          <t>8:57:12</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -4775,11 +4775,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5401</v>
+        <v>5405</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>9:0:6</t>
+          <t>9:0:30</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -4791,11 +4791,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>5415</v>
+        <v>5439</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>9:1:30</t>
+          <t>9:3:54</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -4807,11 +4807,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>5444</v>
+        <v>5467</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>9:4:24</t>
+          <t>9:6:42</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -4823,11 +4823,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5468</v>
+        <v>5493</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>9:6:48</t>
+          <t>9:9:18</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -4855,11 +4855,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5520</v>
+        <v>5506</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>9:12:0</t>
+          <t>9:10:36</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -4871,11 +4871,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5562</v>
+        <v>5540</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>9:16:12</t>
+          <t>9:14:0</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -4887,11 +4887,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5564</v>
+        <v>5570</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9:16:24</t>
+          <t>9:17:0</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -4903,11 +4903,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5571</v>
+        <v>5574</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>9:17:6</t>
+          <t>9:17:24</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -4935,11 +4935,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5605</v>
+        <v>5634</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>9:20:30</t>
+          <t>9:23:24</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -4951,11 +4951,11 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>5636</v>
+        <v>5649</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>9:23:36</t>
+          <t>9:24:54</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -4967,11 +4967,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>5644</v>
+        <v>5671</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>9:24:24</t>
+          <t>9:27:6</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -4983,11 +4983,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5690</v>
+        <v>5682</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>9:29:0</t>
+          <t>9:28:12</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5015,11 +5015,11 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>5707</v>
+        <v>5757</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>9:30:42</t>
+          <t>9:35:42</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5031,11 +5031,11 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>5721</v>
+        <v>5768</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>9:32:6</t>
+          <t>9:36:48</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5047,11 +5047,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>5749</v>
+        <v>5787</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>9:34:54</t>
+          <t>9:38:42</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5063,11 +5063,11 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>5792</v>
+        <v>5788</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>9:39:12</t>
+          <t>9:38:48</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5095,11 +5095,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>9:40:0</t>
+          <t>9:40:6</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5111,11 +5111,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5809</v>
+        <v>5854</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>9:40:54</t>
+          <t>9:45:24</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5127,11 +5127,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5839</v>
+        <v>5879</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>9:43:54</t>
+          <t>9:47:54</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5143,11 +5143,11 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5883</v>
+        <v>5898</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>9:48:18</t>
+          <t>9:49:48</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5175,11 +5175,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5908</v>
+        <v>5900</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>9:50:48</t>
+          <t>9:50:0</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5191,11 +5191,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5917</v>
+        <v>5930</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>9:51:42</t>
+          <t>9:53:0</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5207,11 +5207,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5928</v>
+        <v>5935</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>9:52:48</t>
+          <t>9:53:30</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5223,11 +5223,11 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>5946</v>
+        <v>5972</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>9:54:36</t>
+          <t>9:57:12</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -5255,11 +5255,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6018</v>
+        <v>6024</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>10:1:48</t>
+          <t>10:2:24</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -5271,11 +5271,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6019</v>
+        <v>6040</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>10:1:54</t>
+          <t>10:4:0</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -5287,11 +5287,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6065</v>
+        <v>6045</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>10:6:30</t>
+          <t>10:4:30</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -5303,11 +5303,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6085</v>
+        <v>6089</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>10:8:30</t>
+          <t>10:8:54</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -5335,11 +5335,11 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6116</v>
+        <v>6129</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>10:11:36</t>
+          <t>10:12:54</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -5351,11 +5351,11 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>6120</v>
+        <v>6134</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>10:12:0</t>
+          <t>10:13:24</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -5367,11 +5367,11 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>6143</v>
+        <v>6153</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10:14:18</t>
+          <t>10:15:18</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -5383,11 +5383,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>6165</v>
+        <v>6170</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>10:16:30</t>
+          <t>10:17:0</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -5415,11 +5415,11 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>6235</v>
+        <v>6226</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>10:23:30</t>
+          <t>10:22:36</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -5431,11 +5431,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>6244</v>
+        <v>6261</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>10:24:24</t>
+          <t>10:26:6</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -5447,11 +5447,11 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>6246</v>
+        <v>6262</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>10:24:36</t>
+          <t>10:26:12</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -5463,11 +5463,11 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>6266</v>
+        <v>6271</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>10:26:36</t>
+          <t>10:27:6</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -5495,11 +5495,11 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>6338</v>
+        <v>6301</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>10:33:48</t>
+          <t>10:30:6</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -5511,11 +5511,11 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>6357</v>
+        <v>6354</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>10:35:42</t>
+          <t>10:35:24</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -5527,11 +5527,11 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>6375</v>
+        <v>6376</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>10:37:30</t>
+          <t>10:37:36</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -5543,11 +5543,11 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>6383</v>
+        <v>6393</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>10:38:18</t>
+          <t>10:39:18</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -5575,11 +5575,11 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>6406</v>
+        <v>6410</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>10:40:36</t>
+          <t>10:41:0</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -5591,11 +5591,11 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>6448</v>
+        <v>6412</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10:44:48</t>
+          <t>10:41:12</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -5607,11 +5607,11 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>6456</v>
+        <v>6495</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10:45:36</t>
+          <t>10:49:30</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -5623,11 +5623,11 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>6484</v>
+        <v>6496</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>10:48:24</t>
+          <t>10:49:36</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -5655,11 +5655,11 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>6500</v>
+        <v>6518</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>10:50:0</t>
+          <t>10:51:48</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -5671,11 +5671,11 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>6532</v>
+        <v>6528</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>10:53:12</t>
+          <t>10:52:48</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -5687,11 +5687,11 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>6577</v>
+        <v>6551</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>10:57:42</t>
+          <t>10:55:6</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -5703,11 +5703,11 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>6594</v>
+        <v>6587</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10:59:24</t>
+          <t>10:58:42</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -5735,11 +5735,11 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>6601</v>
+        <v>6617</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>11:0:6</t>
+          <t>11:1:42</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -5751,11 +5751,11 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>6647</v>
+        <v>6628</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>11:4:42</t>
+          <t>11:2:48</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -5767,11 +5767,11 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>6651</v>
+        <v>6686</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>11:5:6</t>
+          <t>11:8:36</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -5783,11 +5783,11 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>6686</v>
+        <v>6692</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>11:8:36</t>
+          <t>11:9:12</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -5815,11 +5815,11 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>6719</v>
+        <v>6704</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>11:11:54</t>
+          <t>11:10:24</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -5831,11 +5831,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>6728</v>
+        <v>6759</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>11:12:48</t>
+          <t>11:15:54</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -5847,11 +5847,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>6762</v>
+        <v>6791</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>11:16:12</t>
+          <t>11:19:6</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -5863,11 +5863,11 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>6797</v>
+        <v>6792</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>11:19:42</t>
+          <t>11:19:12</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -5895,11 +5895,11 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>6804</v>
+        <v>6802</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>11:20:24</t>
+          <t>11:20:12</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -5911,11 +5911,11 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>6857</v>
+        <v>6805</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>11:25:42</t>
+          <t>11:20:30</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -5927,11 +5927,11 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>6881</v>
+        <v>6856</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>11:28:6</t>
+          <t>11:25:36</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -5943,11 +5943,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>6882</v>
+        <v>6873</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>11:28:12</t>
+          <t>11:27:18</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -5975,11 +5975,11 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>6947</v>
+        <v>6903</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>11:34:42</t>
+          <t>11:30:18</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -5991,11 +5991,11 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>6951</v>
+        <v>6905</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>11:35:6</t>
+          <t>11:30:30</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -6007,11 +6007,11 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>6952</v>
+        <v>6913</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>11:35:12</t>
+          <t>11:31:18</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -6023,11 +6023,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>6964</v>
+        <v>6970</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>11:36:24</t>
+          <t>11:37:0</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -6055,11 +6055,11 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>7013</v>
+        <v>7006</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>11:41:18</t>
+          <t>11:40:36</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -6071,11 +6071,11 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>7018</v>
+        <v>7050</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11:41:48</t>
+          <t>11:45:0</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -6087,11 +6087,11 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>7045</v>
+        <v>7079</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>11:44:30</t>
+          <t>11:47:54</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -6103,11 +6103,11 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>7050</v>
+        <v>7083</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>11:45:0</t>
+          <t>11:48:18</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -6135,11 +6135,11 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>7149</v>
+        <v>7101</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>11:54:54</t>
+          <t>11:50:6</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -6151,11 +6151,11 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>7152</v>
+        <v>7141</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>11:55:12</t>
+          <t>11:54:6</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -6167,11 +6167,11 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>7156</v>
+        <v>7161</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>11:55:36</t>
+          <t>11:56:6</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -6183,11 +6183,11 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>7198</v>
+        <v>7193</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>11:59:48</t>
+          <t>11:59:18</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -6215,11 +6215,11 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>7201</v>
+        <v>7211</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>12:0:6</t>
+          <t>12:1:6</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -6231,11 +6231,11 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>7223</v>
+        <v>7243</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>12:2:18</t>
+          <t>12:4:18</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -6247,11 +6247,11 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>7275</v>
+        <v>7273</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>12:7:30</t>
+          <t>12:7:18</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -6263,11 +6263,11 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>7287</v>
+        <v>7296</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>12:8:42</t>
+          <t>12:9:36</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -6295,11 +6295,11 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>7331</v>
+        <v>7320</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>12:13:6</t>
+          <t>12:12:0</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -6311,11 +6311,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>7371</v>
+        <v>7330</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>12:17:6</t>
+          <t>12:13:0</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -6327,11 +6327,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>7383</v>
+        <v>7352</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>12:18:18</t>
+          <t>12:15:12</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -6343,11 +6343,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>7384</v>
+        <v>7386</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>12:18:24</t>
+          <t>12:18:36</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -6375,11 +6375,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>7404</v>
+        <v>7429</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>12:20:24</t>
+          <t>12:22:54</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -6391,11 +6391,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>7409</v>
+        <v>7438</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>12:20:54</t>
+          <t>12:23:48</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -6407,11 +6407,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>7442</v>
+        <v>7451</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>12:24:12</t>
+          <t>12:25:6</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -6423,11 +6423,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>7459</v>
+        <v>7486</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>12:25:54</t>
+          <t>12:28:36</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -6455,11 +6455,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>7508</v>
+        <v>7507</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>12:30:48</t>
+          <t>12:30:42</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -6471,11 +6471,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>7512</v>
+        <v>7548</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>12:31:12</t>
+          <t>12:34:48</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -6487,11 +6487,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>7555</v>
+        <v>7553</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>12:35:30</t>
+          <t>12:35:18</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -6503,11 +6503,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>7578</v>
+        <v>7592</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>12:37:48</t>
+          <t>12:39:12</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -6535,11 +6535,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>7607</v>
+        <v>7624</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>12:40:42</t>
+          <t>12:42:24</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -6551,11 +6551,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>7650</v>
+        <v>7645</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>12:45:0</t>
+          <t>12:44:30</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -6567,11 +6567,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>7653</v>
+        <v>7664</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>12:45:18</t>
+          <t>12:46:24</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -6583,11 +6583,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>7669</v>
+        <v>7693</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>12:46:54</t>
+          <t>12:49:18</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -6615,11 +6615,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>7721</v>
+        <v>7701</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>12:52:6</t>
+          <t>12:50:6</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -6631,11 +6631,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>7739</v>
+        <v>7717</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>12:53:54</t>
+          <t>12:51:42</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -6647,11 +6647,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>7745</v>
+        <v>7719</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>12:54:30</t>
+          <t>12:51:54</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -6663,11 +6663,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>7761</v>
+        <v>7731</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>12:56:6</t>
+          <t>12:53:6</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -6695,11 +6695,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>7819</v>
+        <v>7803</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>13:1:54</t>
+          <t>13:0:18</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -6711,11 +6711,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>7822</v>
+        <v>7841</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>13:2:12</t>
+          <t>13:4:6</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -6727,11 +6727,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>7871</v>
+        <v>7850</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>13:7:6</t>
+          <t>13:5:0</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -6743,11 +6743,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>7884</v>
+        <v>7864</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>13:8:24</t>
+          <t>13:6:24</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -6775,11 +6775,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>7915</v>
+        <v>7932</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>13:11:30</t>
+          <t>13:13:12</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -6791,11 +6791,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>7935</v>
+        <v>7959</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>13:13:30</t>
+          <t>13:15:54</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -6807,11 +6807,11 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7960</v>
+        <v>7968</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13:16:0</t>
+          <t>13:16:48</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -6823,11 +6823,11 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7963</v>
+        <v>7991</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>13:16:18</t>
+          <t>13:19:6</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -6855,11 +6855,11 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>8004</v>
+        <v>8009</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>13:20:24</t>
+          <t>13:20:54</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -6871,11 +6871,11 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>8047</v>
+        <v>8011</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>13:24:42</t>
+          <t>13:21:6</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -6887,11 +6887,11 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>8062</v>
+        <v>8014</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>13:26:12</t>
+          <t>13:21:24</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -6903,11 +6903,11 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>8082</v>
+        <v>8052</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>13:28:12</t>
+          <t>13:25:12</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -6935,11 +6935,11 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>8122</v>
+        <v>8114</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>13:32:12</t>
+          <t>13:31:24</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -6951,11 +6951,11 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>8129</v>
+        <v>8123</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>13:32:54</t>
+          <t>13:32:18</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -6967,11 +6967,11 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>8145</v>
+        <v>8130</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>13:34:30</t>
+          <t>13:33:0</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -6983,11 +6983,11 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>8169</v>
+        <v>8186</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>13:36:54</t>
+          <t>13:38:36</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -7015,11 +7015,11 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>8218</v>
+        <v>8210</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>13:41:48</t>
+          <t>13:41:0</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -7031,11 +7031,11 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>8220</v>
+        <v>8223</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>13:42:0</t>
+          <t>13:42:18</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -7047,11 +7047,11 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>8282</v>
+        <v>8241</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>13:48:12</t>
+          <t>13:44:6</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -7063,11 +7063,11 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>8287</v>
+        <v>8244</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>13:48:42</t>
+          <t>13:44:24</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -7095,11 +7095,11 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>8302</v>
+        <v>8309</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>13:50:12</t>
+          <t>13:50:54</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -7111,11 +7111,11 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>8307</v>
+        <v>8322</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>13:50:42</t>
+          <t>13:52:12</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -7127,11 +7127,11 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>8344</v>
+        <v>8351</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>13:54:24</t>
+          <t>13:55:6</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -7143,11 +7143,11 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>8376</v>
+        <v>8368</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>13:56:48</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -7175,11 +7175,11 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>8420</v>
+        <v>8445</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>14:2:0</t>
+          <t>14:4:30</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -7191,11 +7191,11 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>8452</v>
+        <v>8447</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>14:5:12</t>
+          <t>14:4:42</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -7207,11 +7207,11 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>8477</v>
+        <v>8460</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>14:7:42</t>
+          <t>14:6:0</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -7223,11 +7223,11 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>8498</v>
+        <v>8464</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>14:9:48</t>
+          <t>14:6:24</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -7255,11 +7255,11 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>8544</v>
+        <v>8538</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>14:14:24</t>
+          <t>14:13:48</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -7287,11 +7287,11 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>8550</v>
+        <v>8566</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>14:15:0</t>
+          <t>14:16:36</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -7303,11 +7303,11 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>8562</v>
+        <v>8598</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>14:16:12</t>
+          <t>14:19:48</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -7335,11 +7335,11 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>8635</v>
+        <v>8600</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>14:23:30</t>
+          <t>14:20:0</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -7351,11 +7351,11 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8639</v>
+        <v>8617</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>14:23:54</t>
+          <t>14:21:42</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -7367,11 +7367,11 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>8683</v>
+        <v>8651</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>14:28:18</t>
+          <t>14:25:6</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -7383,11 +7383,11 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>8694</v>
+        <v>8687</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>14:29:24</t>
+          <t>14:28:42</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -7415,11 +7415,11 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>8706</v>
+        <v>8738</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>14:30:36</t>
+          <t>14:33:48</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -7431,11 +7431,11 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>8744</v>
+        <v>8770</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>14:34:24</t>
+          <t>14:37:0</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -7447,11 +7447,11 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>8783</v>
+        <v>8788</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>14:38:18</t>
+          <t>14:38:48</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -7463,11 +7463,11 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>8789</v>
+        <v>8797</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>14:38:54</t>
+          <t>14:39:42</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -7495,11 +7495,11 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>8808</v>
+        <v>8800</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>14:40:48</t>
+          <t>14:40:0</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -7511,11 +7511,11 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>8858</v>
+        <v>8805</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>14:45:48</t>
+          <t>14:40:30</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -7527,11 +7527,11 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>8875</v>
+        <v>8807</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>14:47:30</t>
+          <t>14:40:42</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -7543,11 +7543,11 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>8879</v>
+        <v>8892</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>14:47:54</t>
+          <t>14:49:12</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -7575,11 +7575,11 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>8921</v>
+        <v>8930</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>14:52:6</t>
+          <t>14:53:0</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -7591,11 +7591,11 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>8952</v>
+        <v>8936</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>14:55:12</t>
+          <t>14:53:36</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -7607,11 +7607,11 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>8954</v>
+        <v>8951</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>14:55:24</t>
+          <t>14:55:6</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -7623,11 +7623,11 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>8955</v>
+        <v>8996</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>14:55:30</t>
+          <t>14:59:36</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -7655,11 +7655,11 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>9001</v>
+        <v>9013</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>15:0:6</t>
+          <t>15:1:18</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -7671,11 +7671,11 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>9002</v>
+        <v>9044</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>15:0:12</t>
+          <t>15:4:24</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -7687,11 +7687,11 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>9009</v>
+        <v>9051</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>15:0:54</t>
+          <t>15:5:6</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -7703,11 +7703,11 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>9049</v>
+        <v>9074</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>15:4:54</t>
+          <t>15:7:24</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -7735,11 +7735,11 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>9113</v>
+        <v>9123</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>15:11:18</t>
+          <t>15:12:18</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -7751,11 +7751,11 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>9133</v>
+        <v>9138</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>15:13:18</t>
+          <t>15:13:48</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -7767,11 +7767,11 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>9157</v>
+        <v>9148</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>15:15:42</t>
+          <t>15:14:48</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -7783,11 +7783,11 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>9169</v>
+        <v>9181</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>15:16:54</t>
+          <t>15:18:6</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -7815,11 +7815,11 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>9214</v>
+        <v>9206</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>15:21:24</t>
+          <t>15:20:36</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -7831,11 +7831,11 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>9229</v>
+        <v>9223</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>15:22:54</t>
+          <t>15:22:18</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -7847,11 +7847,11 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>9276</v>
+        <v>9246</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>15:27:36</t>
+          <t>15:24:36</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -7863,11 +7863,11 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>9292</v>
+        <v>9279</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>15:29:12</t>
+          <t>15:27:54</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -7895,11 +7895,11 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>9342</v>
+        <v>9318</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>15:34:12</t>
+          <t>15:31:48</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -7911,11 +7911,11 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>9345</v>
+        <v>9321</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>15:34:30</t>
+          <t>15:32:6</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -7927,11 +7927,11 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>9354</v>
+        <v>9324</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>15:35:24</t>
+          <t>15:32:24</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -7943,11 +7943,11 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>9357</v>
+        <v>9398</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>15:35:42</t>
+          <t>15:39:48</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -7975,11 +7975,11 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>9402</v>
+        <v>9443</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>15:40:12</t>
+          <t>15:44:18</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -7991,11 +7991,11 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>9454</v>
+        <v>9445</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>15:45:24</t>
+          <t>15:44:30</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -8007,11 +8007,11 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>9492</v>
+        <v>9462</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>15:49:12</t>
+          <t>15:46:12</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -8023,11 +8023,11 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>9498</v>
+        <v>9487</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>15:49:48</t>
+          <t>15:48:42</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -8055,11 +8055,11 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>9513</v>
+        <v>9515</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>15:51:18</t>
+          <t>15:51:30</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -8071,11 +8071,11 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>9524</v>
+        <v>9560</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>15:52:24</t>
+          <t>15:56:0</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -8087,11 +8087,11 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>9530</v>
+        <v>9572</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>15:53:0</t>
+          <t>15:57:12</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -8103,11 +8103,11 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>9576</v>
+        <v>9597</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>15:57:36</t>
+          <t>15:59:42</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -8151,11 +8151,11 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>9658</v>
+        <v>9626</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>16:5:48</t>
+          <t>16:2:36</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -8167,11 +8167,11 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>9670</v>
+        <v>9666</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>16:7:0</t>
+          <t>16:6:36</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -8183,11 +8183,11 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>9671</v>
+        <v>9697</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>16:7:6</t>
+          <t>16:9:42</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -8215,11 +8215,11 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>9722</v>
+        <v>9732</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>16:12:12</t>
+          <t>16:13:12</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -8231,11 +8231,11 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>9734</v>
+        <v>9752</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>16:13:24</t>
+          <t>16:15:12</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -8247,11 +8247,11 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>9740</v>
+        <v>9769</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>16:14:0</t>
+          <t>16:16:54</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -8263,11 +8263,11 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>9763</v>
+        <v>9795</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>16:16:18</t>
+          <t>16:19:30</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -8295,11 +8295,11 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>9829</v>
+        <v>9822</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>16:22:54</t>
+          <t>16:22:12</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -8311,11 +8311,11 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>9831</v>
+        <v>9852</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>16:23:6</t>
+          <t>16:25:12</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -8327,11 +8327,11 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>9834</v>
+        <v>9869</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>16:23:24</t>
+          <t>16:26:54</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -8343,11 +8343,11 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>9850</v>
+        <v>9891</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>16:25:0</t>
+          <t>16:29:6</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -8375,11 +8375,11 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>9927</v>
+        <v>9943</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>16:32:42</t>
+          <t>16:34:18</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -8391,11 +8391,11 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>9949</v>
+        <v>9983</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>16:34:54</t>
+          <t>16:38:18</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -8407,11 +8407,11 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>9965</v>
+        <v>9989</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>16:36:30</t>
+          <t>16:38:54</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -8423,11 +8423,11 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>9975</v>
+        <v>9993</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>16:37:30</t>
+          <t>16:39:18</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -8455,11 +8455,11 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>10017</v>
+        <v>10004</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>16:41:42</t>
+          <t>16:40:24</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -8471,11 +8471,11 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>10027</v>
+        <v>10015</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>16:42:42</t>
+          <t>16:41:30</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -8487,11 +8487,11 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>10029</v>
+        <v>10056</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>16:42:54</t>
+          <t>16:45:36</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -8503,11 +8503,11 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>10036</v>
+        <v>10061</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>16:43:36</t>
+          <t>16:46:6</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -8551,11 +8551,11 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>10149</v>
+        <v>10125</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>16:54:54</t>
+          <t>16:52:30</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -8567,11 +8567,11 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>10169</v>
+        <v>10142</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>16:56:54</t>
+          <t>16:54:12</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -8583,11 +8583,11 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>10193</v>
+        <v>10198</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>16:59:18</t>
+          <t>16:59:48</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -8615,11 +8615,11 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>10200</v>
+        <v>10248</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>17:0:0</t>
+          <t>17:4:48</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -8631,11 +8631,11 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>10205</v>
+        <v>10258</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>17:0:30</t>
+          <t>17:5:48</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -8647,11 +8647,11 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>10238</v>
+        <v>10269</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>17:3:48</t>
+          <t>17:6:54</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -8663,11 +8663,11 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>10241</v>
+        <v>10272</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>17:4:6</t>
+          <t>17:7:12</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -8695,11 +8695,11 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>10316</v>
+        <v>10325</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>17:11:36</t>
+          <t>17:12:30</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -8711,11 +8711,11 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>10344</v>
+        <v>10369</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>17:14:24</t>
+          <t>17:16:54</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -8727,11 +8727,11 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>10345</v>
+        <v>10376</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>17:14:30</t>
+          <t>17:17:36</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -8743,11 +8743,11 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>10371</v>
+        <v>10395</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>17:17:6</t>
+          <t>17:19:30</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -8775,11 +8775,11 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>10408</v>
+        <v>10414</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>17:20:48</t>
+          <t>17:21:24</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -8791,11 +8791,11 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>10431</v>
+        <v>10415</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>17:23:6</t>
+          <t>17:21:30</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -8807,11 +8807,11 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>10438</v>
+        <v>10426</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>17:23:48</t>
+          <t>17:22:36</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -8823,11 +8823,11 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>10482</v>
+        <v>10468</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>17:28:12</t>
+          <t>17:26:48</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -8855,11 +8855,11 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>10512</v>
+        <v>10516</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>17:31:12</t>
+          <t>17:31:36</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -8871,11 +8871,11 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>10544</v>
+        <v>10553</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>17:34:24</t>
+          <t>17:35:18</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -8887,11 +8887,11 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>10579</v>
+        <v>10563</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>17:37:54</t>
+          <t>17:36:18</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -8903,11 +8903,11 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>10594</v>
+        <v>10564</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>17:39:24</t>
+          <t>17:36:24</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -8935,11 +8935,11 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>10613</v>
+        <v>10604</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>17:41:18</t>
+          <t>17:40:24</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -8951,11 +8951,11 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>10615</v>
+        <v>10632</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>17:41:30</t>
+          <t>17:43:12</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -8967,11 +8967,11 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>10637</v>
+        <v>10658</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>17:43:42</t>
+          <t>17:45:48</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -8983,11 +8983,11 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>10672</v>
+        <v>10671</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>17:47:12</t>
+          <t>17:47:6</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -9015,11 +9015,11 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>10744</v>
+        <v>10713</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>17:54:24</t>
+          <t>17:51:18</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -9031,11 +9031,11 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>10750</v>
+        <v>10753</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>17:55:0</t>
+          <t>17:55:18</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -9047,11 +9047,11 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>10753</v>
+        <v>10754</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>17:55:18</t>
+          <t>17:55:24</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -9063,11 +9063,11 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>10780</v>
+        <v>10782</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>17:58:0</t>
+          <t>17:58:12</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -9095,11 +9095,11 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>10808</v>
+        <v>10830</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>18:0:48</t>
+          <t>18:3:0</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -9111,11 +9111,11 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>10846</v>
+        <v>10834</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>18:4:36</t>
+          <t>18:3:24</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -9127,11 +9127,11 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>10881</v>
+        <v>10867</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>18:8:6</t>
+          <t>18:6:42</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -9143,11 +9143,11 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>10894</v>
+        <v>10884</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>18:9:24</t>
+          <t>18:8:24</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -9175,11 +9175,11 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>10900</v>
+        <v>10904</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>18:10:0</t>
+          <t>18:10:24</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -9191,11 +9191,11 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>10955</v>
+        <v>10928</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>18:15:30</t>
+          <t>18:12:48</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -9207,11 +9207,11 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>10966</v>
+        <v>10953</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>18:16:36</t>
+          <t>18:15:18</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -9223,11 +9223,11 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>10968</v>
+        <v>10965</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>18:16:48</t>
+          <t>18:16:30</t>
         </is>
       </c>
       <c r="D550" t="n">
@@ -9255,11 +9255,11 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>11033</v>
+        <v>11000</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>18:23:18</t>
+          <t>18:20:0</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -9271,11 +9271,11 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>11062</v>
+        <v>11001</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>18:26:12</t>
+          <t>18:20:6</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -9287,11 +9287,11 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>11075</v>
+        <v>11007</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>18:20:42</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -9303,11 +9303,11 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>11087</v>
+        <v>11093</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>18:28:42</t>
+          <t>18:29:18</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -9335,11 +9335,11 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>11111</v>
+        <v>11117</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>18:31:6</t>
+          <t>18:31:42</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -9351,11 +9351,11 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>11113</v>
+        <v>11124</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>18:31:18</t>
+          <t>18:32:24</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -9367,11 +9367,11 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>11149</v>
+        <v>11142</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>18:34:54</t>
+          <t>18:34:12</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -9383,11 +9383,11 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>11180</v>
+        <v>11161</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>18:38:0</t>
+          <t>18:36:6</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -9415,11 +9415,11 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>11215</v>
+        <v>11229</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>18:41:30</t>
+          <t>18:42:54</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -9431,11 +9431,11 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>11222</v>
+        <v>11246</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>18:42:12</t>
+          <t>18:44:36</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -9447,11 +9447,11 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>11267</v>
+        <v>11271</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>18:46:42</t>
+          <t>18:47:6</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -9463,11 +9463,11 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>11283</v>
+        <v>11273</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>18:48:18</t>
+          <t>18:47:18</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -9495,11 +9495,11 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>11306</v>
+        <v>11320</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>18:50:36</t>
+          <t>18:52:0</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -9511,11 +9511,11 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>11340</v>
+        <v>11337</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>18:54:0</t>
+          <t>18:53:42</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -9527,11 +9527,11 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>11380</v>
+        <v>11389</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>18:58:0</t>
+          <t>18:58:54</t>
         </is>
       </c>
       <c r="D569" t="n">
@@ -9543,11 +9543,11 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>11390</v>
+        <v>11393</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>18:59:0</t>
+          <t>18:59:18</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -9575,11 +9575,11 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>11421</v>
+        <v>11419</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>19:2:6</t>
+          <t>19:1:54</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -9591,11 +9591,11 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>11436</v>
+        <v>11420</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>19:3:36</t>
+          <t>19:2:0</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -9607,11 +9607,11 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>11464</v>
+        <v>11482</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>19:6:24</t>
+          <t>19:8:12</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -9623,11 +9623,11 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>11479</v>
+        <v>11484</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>19:7:54</t>
+          <t>19:8:24</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -9655,11 +9655,11 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>11541</v>
+        <v>11515</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>19:14:6</t>
+          <t>19:11:30</t>
         </is>
       </c>
       <c r="D577" t="n">
@@ -9671,11 +9671,11 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>11551</v>
+        <v>11516</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>19:15:6</t>
+          <t>19:11:36</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -9687,11 +9687,11 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>11568</v>
+        <v>11554</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>19:16:48</t>
+          <t>19:15:24</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -9735,11 +9735,11 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>11612</v>
+        <v>11616</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>19:21:12</t>
+          <t>19:21:36</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -9751,11 +9751,11 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>11618</v>
+        <v>11628</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>19:21:48</t>
+          <t>19:22:48</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -9767,11 +9767,11 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>11624</v>
+        <v>11633</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>19:22:24</t>
+          <t>19:23:18</t>
         </is>
       </c>
       <c r="D584" t="n">
@@ -9783,11 +9783,11 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>11679</v>
+        <v>11682</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>19:27:54</t>
+          <t>19:28:12</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -9815,11 +9815,11 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>11709</v>
+        <v>11701</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>19:30:54</t>
+          <t>19:30:6</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -9831,11 +9831,11 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>11716</v>
+        <v>11708</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>19:31:36</t>
+          <t>19:30:48</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -9847,11 +9847,11 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>11743</v>
+        <v>11732</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>19:34:18</t>
+          <t>19:33:12</t>
         </is>
       </c>
       <c r="D589" t="n">
@@ -9863,11 +9863,11 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>11757</v>
+        <v>11747</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>19:35:42</t>
+          <t>19:34:42</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -9895,11 +9895,11 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>11814</v>
+        <v>11806</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>19:41:24</t>
+          <t>19:40:36</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -9911,11 +9911,11 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>11826</v>
+        <v>11809</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>19:42:36</t>
+          <t>19:40:54</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -9927,11 +9927,11 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>11865</v>
+        <v>11885</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>19:46:30</t>
+          <t>19:48:30</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -9943,11 +9943,11 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>11877</v>
+        <v>11895</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>19:47:42</t>
+          <t>19:49:30</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -9975,11 +9975,11 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>11908</v>
+        <v>11901</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>19:50:48</t>
+          <t>19:50:6</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -9991,11 +9991,11 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>11923</v>
+        <v>11912</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>19:52:18</t>
+          <t>19:51:12</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -10007,11 +10007,11 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>11967</v>
+        <v>11915</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>19:56:42</t>
+          <t>19:51:30</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -10023,11 +10023,11 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>11986</v>
+        <v>11953</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>19:58:36</t>
+          <t>19:55:18</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -10055,11 +10055,11 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>12012</v>
+        <v>12031</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>20:1:12</t>
+          <t>20:3:6</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -10071,11 +10071,11 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>12036</v>
+        <v>12040</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>20:3:36</t>
+          <t>20:4:0</t>
         </is>
       </c>
       <c r="D603" t="n">
@@ -10087,11 +10087,11 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>12054</v>
+        <v>12051</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>20:5:24</t>
+          <t>20:5:6</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -10103,11 +10103,11 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>12071</v>
+        <v>12097</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>20:7:6</t>
+          <t>20:9:42</t>
         </is>
       </c>
       <c r="D605" t="n">
@@ -10135,11 +10135,11 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>12105</v>
+        <v>12104</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>20:10:30</t>
+          <t>20:10:24</t>
         </is>
       </c>
       <c r="D607" t="n">
@@ -10151,11 +10151,11 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>12121</v>
+        <v>12113</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>20:12:6</t>
+          <t>20:11:18</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -10167,11 +10167,11 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>12130</v>
+        <v>12119</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>20:13:0</t>
+          <t>20:11:54</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -10183,11 +10183,11 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>12174</v>
+        <v>12175</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>20:17:24</t>
+          <t>20:17:30</t>
         </is>
       </c>
       <c r="D610" t="n">
@@ -10215,11 +10215,11 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>12234</v>
+        <v>12227</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>20:23:24</t>
+          <t>20:22:42</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -10231,11 +10231,11 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>12240</v>
+        <v>12235</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>20:24:0</t>
+          <t>20:23:30</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -10247,11 +10247,11 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>12256</v>
+        <v>12257</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>20:25:36</t>
+          <t>20:25:42</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -10263,11 +10263,11 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>12280</v>
+        <v>12283</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>20:28:0</t>
+          <t>20:28:18</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -10295,11 +10295,11 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>12312</v>
+        <v>12315</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>20:31:12</t>
+          <t>20:31:30</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -10311,11 +10311,11 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>12346</v>
+        <v>12342</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>20:34:36</t>
+          <t>20:34:12</t>
         </is>
       </c>
       <c r="D618" t="n">
@@ -10327,11 +10327,11 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>12347</v>
+        <v>12372</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>20:34:42</t>
+          <t>20:37:12</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -10343,11 +10343,11 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>12388</v>
+        <v>12391</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>20:38:48</t>
+          <t>20:39:6</t>
         </is>
       </c>
       <c r="D620" t="n">
@@ -10375,11 +10375,11 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>12408</v>
+        <v>12400</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>20:40:48</t>
+          <t>20:40:0</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -10391,11 +10391,11 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>12428</v>
+        <v>12412</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>20:42:48</t>
+          <t>20:41:12</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -10407,11 +10407,11 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>12458</v>
+        <v>12470</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>20:45:48</t>
+          <t>20:47:0</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -10423,11 +10423,11 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>12477</v>
+        <v>12487</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>20:47:42</t>
+          <t>20:48:42</t>
         </is>
       </c>
       <c r="D625" t="n">
@@ -10455,11 +10455,11 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>12542</v>
+        <v>12516</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>20:54:12</t>
+          <t>20:51:36</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -10471,11 +10471,11 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>12573</v>
+        <v>12525</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>20:57:18</t>
+          <t>20:52:30</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -10487,11 +10487,11 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>12576</v>
+        <v>12588</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>20:57:36</t>
+          <t>20:58:48</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -10503,11 +10503,11 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>12584</v>
+        <v>12597</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>20:58:24</t>
+          <t>20:59:42</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -10535,11 +10535,11 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>12601</v>
+        <v>12624</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>21:0:6</t>
+          <t>21:2:24</t>
         </is>
       </c>
       <c r="D632" t="n">
@@ -10551,11 +10551,11 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>12610</v>
+        <v>12634</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>21:1:0</t>
+          <t>21:3:24</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -10567,11 +10567,11 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>12684</v>
+        <v>12647</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>21:8:24</t>
+          <t>21:4:42</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -10583,11 +10583,11 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>12685</v>
+        <v>12666</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>21:8:30</t>
+          <t>21:6:36</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -10615,11 +10615,11 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>12707</v>
+        <v>12703</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>21:10:42</t>
+          <t>21:10:18</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -10631,11 +10631,11 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>12750</v>
+        <v>12712</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>21:15:0</t>
+          <t>21:11:12</t>
         </is>
       </c>
       <c r="D638" t="n">
@@ -10647,11 +10647,11 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>12775</v>
+        <v>12729</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>21:17:30</t>
+          <t>21:12:54</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -10663,11 +10663,11 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>12781</v>
+        <v>12778</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>21:18:6</t>
+          <t>21:17:48</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -10695,11 +10695,11 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>12824</v>
+        <v>12807</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>21:22:24</t>
+          <t>21:20:42</t>
         </is>
       </c>
       <c r="D642" t="n">
@@ -10711,11 +10711,11 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>12837</v>
+        <v>12865</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>21:23:42</t>
+          <t>21:26:30</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -10727,11 +10727,11 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>12883</v>
+        <v>12867</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>21:28:18</t>
+          <t>21:26:42</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -10743,11 +10743,11 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>12889</v>
+        <v>12885</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>21:28:54</t>
+          <t>21:28:30</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -10775,11 +10775,11 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>12910</v>
+        <v>12912</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>21:31:0</t>
+          <t>21:31:12</t>
         </is>
       </c>
       <c r="D647" t="n">
@@ -10791,11 +10791,11 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>12937</v>
+        <v>12949</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>21:33:42</t>
+          <t>21:34:54</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -10807,11 +10807,11 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>12960</v>
+        <v>12956</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>21:36:0</t>
+          <t>21:35:36</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -10823,11 +10823,11 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>12988</v>
+        <v>12973</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>21:38:48</t>
+          <t>21:37:18</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -10855,11 +10855,11 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>13003</v>
+        <v>13060</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>21:40:18</t>
+          <t>21:46:0</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -10871,11 +10871,11 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>13045</v>
+        <v>13061</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>21:44:30</t>
+          <t>21:46:6</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -10887,11 +10887,11 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>13050</v>
+        <v>13066</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>21:45:0</t>
+          <t>21:46:36</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -10903,11 +10903,11 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>13073</v>
+        <v>13089</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>21:47:18</t>
+          <t>21:48:54</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -10935,11 +10935,11 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>13113</v>
+        <v>13107</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>21:51:18</t>
+          <t>21:50:42</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -10951,11 +10951,11 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>13122</v>
+        <v>13115</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>21:52:12</t>
+          <t>21:51:30</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -10967,11 +10967,11 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>13162</v>
+        <v>13128</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>21:56:12</t>
+          <t>21:52:48</t>
         </is>
       </c>
       <c r="D659" t="n">
@@ -10983,11 +10983,11 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>13183</v>
+        <v>13178</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>21:58:18</t>
+          <t>21:57:48</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -11015,11 +11015,11 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>13217</v>
+        <v>13204</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>22:1:42</t>
+          <t>22:0:24</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -11031,11 +11031,11 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>13235</v>
+        <v>13231</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>22:3:30</t>
+          <t>22:3:6</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -11047,11 +11047,11 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>13240</v>
+        <v>13253</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>22:4:0</t>
+          <t>22:5:18</t>
         </is>
       </c>
       <c r="D664" t="n">
@@ -11063,11 +11063,11 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>13280</v>
+        <v>13267</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>22:8:0</t>
+          <t>22:6:42</t>
         </is>
       </c>
       <c r="D665" t="n">
@@ -11095,11 +11095,11 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>13332</v>
+        <v>13320</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>22:13:12</t>
+          <t>22:12:0</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -11111,11 +11111,11 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>13370</v>
+        <v>13328</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>22:17:0</t>
+          <t>22:12:48</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -11127,11 +11127,11 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>13372</v>
+        <v>13358</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>22:17:12</t>
+          <t>22:15:48</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -11143,11 +11143,11 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>13383</v>
+        <v>13392</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>22:18:18</t>
+          <t>22:19:12</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -11175,11 +11175,11 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>13425</v>
+        <v>13448</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>22:22:30</t>
+          <t>22:24:48</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -11191,11 +11191,11 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>13454</v>
+        <v>13457</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>22:25:24</t>
+          <t>22:25:42</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -11207,11 +11207,11 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>13466</v>
+        <v>13475</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>22:26:36</t>
+          <t>22:27:30</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -11223,11 +11223,11 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>13490</v>
+        <v>13476</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>22:29:0</t>
+          <t>22:27:36</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -11255,11 +11255,11 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>13524</v>
+        <v>13516</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>22:32:24</t>
+          <t>22:31:36</t>
         </is>
       </c>
       <c r="D677" t="n">
@@ -11271,11 +11271,11 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>13546</v>
+        <v>13581</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>22:34:36</t>
+          <t>22:38:6</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -11287,11 +11287,11 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>13560</v>
+        <v>13585</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>22:36:0</t>
+          <t>22:38:30</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -11303,11 +11303,11 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>13573</v>
+        <v>13598</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>22:37:18</t>
+          <t>22:39:48</t>
         </is>
       </c>
       <c r="D680" t="n">
@@ -11335,11 +11335,11 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>13609</v>
+        <v>13621</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>22:40:54</t>
+          <t>22:42:6</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -11351,11 +11351,11 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>13623</v>
+        <v>13648</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>22:42:18</t>
+          <t>22:44:48</t>
         </is>
       </c>
       <c r="D683" t="n">
@@ -11367,11 +11367,11 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>13631</v>
+        <v>13653</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>22:43:6</t>
+          <t>22:45:18</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -11383,11 +11383,11 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>13698</v>
+        <v>13657</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>22:49:48</t>
+          <t>22:45:42</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -11415,11 +11415,11 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>13701</v>
+        <v>13744</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>22:50:6</t>
+          <t>22:54:24</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -11431,11 +11431,11 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>13751</v>
+        <v>13748</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>22:55:6</t>
+          <t>22:54:48</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -11447,11 +11447,11 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>13753</v>
+        <v>13771</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>22:55:18</t>
+          <t>22:57:6</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -11463,11 +11463,11 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>13761</v>
+        <v>13792</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>22:56:6</t>
+          <t>22:59:12</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -11495,11 +11495,11 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>13816</v>
+        <v>13828</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>23:1:36</t>
+          <t>23:2:48</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -11511,11 +11511,11 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>13852</v>
+        <v>13853</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>23:5:12</t>
+          <t>23:5:18</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -11527,11 +11527,11 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>13855</v>
+        <v>13861</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>23:5:30</t>
+          <t>23:6:6</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -11543,11 +11543,11 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>13867</v>
+        <v>13887</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>23:6:42</t>
+          <t>23:8:42</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -11575,11 +11575,11 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>13924</v>
+        <v>13935</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>23:12:24</t>
+          <t>23:13:30</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -11591,11 +11591,11 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>13929</v>
+        <v>13955</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>23:12:54</t>
+          <t>23:15:30</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -11607,11 +11607,11 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>13935</v>
+        <v>13977</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>23:13:30</t>
+          <t>23:17:42</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -11623,11 +11623,11 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>13944</v>
+        <v>13997</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>23:14:24</t>
+          <t>23:19:42</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -11655,11 +11655,11 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>14002</v>
+        <v>14024</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>23:20:12</t>
+          <t>23:22:24</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -11671,11 +11671,11 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>14018</v>
+        <v>14068</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>23:21:48</t>
+          <t>23:26:48</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -11687,11 +11687,11 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>14059</v>
+        <v>14069</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>23:25:54</t>
+          <t>23:26:54</t>
         </is>
       </c>
       <c r="D704" t="n">
@@ -11703,11 +11703,11 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>14093</v>
+        <v>14086</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>23:29:18</t>
+          <t>23:28:36</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -11735,11 +11735,11 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>14109</v>
+        <v>14118</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>23:30:54</t>
+          <t>23:31:48</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -11751,11 +11751,11 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>14118</v>
+        <v>14132</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>23:31:48</t>
+          <t>23:33:12</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -11767,11 +11767,11 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>14119</v>
+        <v>14150</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>23:31:54</t>
+          <t>23:35:0</t>
         </is>
       </c>
       <c r="D709" t="n">
@@ -11783,11 +11783,11 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>14155</v>
+        <v>14167</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>23:35:30</t>
+          <t>23:36:42</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -11815,11 +11815,11 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>14266</v>
+        <v>14200</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>23:46:36</t>
+          <t>23:40:0</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -11831,11 +11831,11 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>14269</v>
+        <v>14256</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>23:46:54</t>
+          <t>23:45:36</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -11847,11 +11847,11 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>14281</v>
+        <v>14260</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>23:48:6</t>
+          <t>23:46:0</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -11863,11 +11863,11 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>14283</v>
+        <v>14261</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>23:48:18</t>
+          <t>23:46:6</t>
         </is>
       </c>
       <c r="D715" t="n">
@@ -11895,11 +11895,11 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>14306</v>
+        <v>14320</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>23:50:36</t>
+          <t>23:52:0</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -11911,11 +11911,11 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>14316</v>
+        <v>14369</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>23:51:36</t>
+          <t>23:56:54</t>
         </is>
       </c>
       <c r="D718" t="n">
@@ -11927,11 +11927,11 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>14318</v>
+        <v>14392</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>23:51:48</t>
+          <t>23:59:12</t>
         </is>
       </c>
       <c r="D719" t="n">
@@ -11943,11 +11943,11 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>14335</v>
+        <v>14393</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>23:53:30</t>
+          <t>23:59:18</t>
         </is>
       </c>
       <c r="D720" t="n">

--- a/Intermediate_data/random_list_interval.xlsx
+++ b/Intermediate_data/random_list_interval.xlsx
@@ -471,11 +471,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0:4:36</t>
+          <t>0:8:30</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -487,11 +487,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:8:12</t>
+          <t>0:8:36</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -503,11 +503,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:8:48</t>
+          <t>0:9:6</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -535,11 +535,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0:11:18</t>
+          <t>0:10:48</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -551,11 +551,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0:16:12</t>
+          <t>0:13:42</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -567,11 +567,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0:16:36</t>
+          <t>0:17:54</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -583,11 +583,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0:17:0</t>
+          <t>0:19:42</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -615,11 +615,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0:23:30</t>
+          <t>0:23:18</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -631,11 +631,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0:24:6</t>
+          <t>0:25:54</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -647,11 +647,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0:25:54</t>
+          <t>0:26:12</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -663,11 +663,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:26:48</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -695,11 +695,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:30:18</t>
+          <t>0:30:36</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -711,11 +711,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0:33:42</t>
+          <t>0:36:18</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -727,11 +727,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0:36:54</t>
+          <t>0:36:30</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -743,11 +743,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0:37:0</t>
+          <t>0:39:30</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -775,11 +775,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0:41:6</t>
+          <t>0:43:12</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -791,11 +791,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0:42:36</t>
+          <t>0:43:36</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -807,11 +807,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0:44:24</t>
+          <t>0:47:36</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -823,11 +823,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0:46:48</t>
+          <t>0:48:30</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -855,11 +855,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0:50:0</t>
+          <t>0:50:54</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -871,11 +871,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0:52:24</t>
+          <t>0:52:0</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -887,11 +887,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0:53:30</t>
+          <t>0:53:18</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -903,11 +903,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0:53:48</t>
+          <t>0:54:30</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -935,11 +935,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1:3:6</t>
+          <t>1:0:6</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -951,11 +951,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1:6:54</t>
+          <t>1:0:36</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -967,11 +967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1:8:6</t>
+          <t>1:8:42</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -983,11 +983,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1:8:12</t>
+          <t>1:9:54</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1015,11 +1015,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1:10:30</t>
+          <t>1:11:48</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1031,11 +1031,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1:12:18</t>
+          <t>1:14:36</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1047,11 +1047,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1:15:6</t>
+          <t>1:16:0</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1063,11 +1063,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1:19:36</t>
+          <t>1:19:12</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1095,11 +1095,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1:21:30</t>
+          <t>1:21:0</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1111,11 +1111,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1:22:24</t>
+          <t>1:22:48</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1127,11 +1127,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1:24:48</t>
+          <t>1:26:0</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1143,11 +1143,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1:26:24</t>
+          <t>1:29:6</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1175,11 +1175,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1:31:48</t>
+          <t>1:32:48</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1191,11 +1191,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>935</v>
+        <v>974</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1:33:30</t>
+          <t>1:37:24</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1207,11 +1207,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1:38:30</t>
+          <t>1:38:18</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1223,11 +1223,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1:39:42</t>
+          <t>1:39:48</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1255,11 +1255,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1:41:18</t>
+          <t>1:40:18</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1271,11 +1271,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1038</v>
+        <v>1010</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1:43:48</t>
+          <t>1:41:0</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1287,11 +1287,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1:44:18</t>
+          <t>1:44:12</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1303,11 +1303,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1044</v>
+        <v>1092</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1:44:24</t>
+          <t>1:49:12</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1335,11 +1335,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1:51:6</t>
+          <t>1:52:18</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1351,11 +1351,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1141</v>
+        <v>1181</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1:54:6</t>
+          <t>1:58:6</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1367,11 +1367,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1162</v>
+        <v>1188</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1:56:12</t>
+          <t>1:58:48</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1383,11 +1383,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1165</v>
+        <v>1198</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1:56:30</t>
+          <t>1:59:48</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1415,11 +1415,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2:1:48</t>
+          <t>2:3:36</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1431,11 +1431,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2:4:30</t>
+          <t>2:4:24</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1447,11 +1447,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2:4:48</t>
+          <t>2:5:12</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1463,11 +1463,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1287</v>
+        <v>1269</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2:8:42</t>
+          <t>2:6:54</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1495,11 +1495,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2:11:6</t>
+          <t>2:11:24</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1511,11 +1511,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1352</v>
+        <v>1315</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2:15:12</t>
+          <t>2:11:30</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1527,11 +1527,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1389</v>
+        <v>1321</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2:18:54</t>
+          <t>2:12:6</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1543,11 +1543,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1397</v>
+        <v>1348</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2:19:42</t>
+          <t>2:14:48</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1575,11 +1575,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1405</v>
+        <v>1442</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2:20:30</t>
+          <t>2:24:12</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1591,11 +1591,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1443</v>
+        <v>1457</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2:24:18</t>
+          <t>2:25:42</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1607,11 +1607,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2:27:36</t>
+          <t>2:28:0</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1623,11 +1623,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2:29:18</t>
+          <t>2:29:54</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1655,11 +1655,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2:31:36</t>
+          <t>2:31:18</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1671,11 +1671,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1561</v>
+        <v>1537</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2:36:6</t>
+          <t>2:33:42</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1687,11 +1687,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1562</v>
+        <v>1543</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2:36:12</t>
+          <t>2:34:18</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1703,11 +1703,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1572</v>
+        <v>1585</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2:37:12</t>
+          <t>2:38:30</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1735,11 +1735,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1672</v>
+        <v>1650</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2:47:12</t>
+          <t>2:45:0</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1751,11 +1751,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1685</v>
+        <v>1653</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2:48:30</t>
+          <t>2:45:18</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1767,11 +1767,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1687</v>
+        <v>1660</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2:48:42</t>
+          <t>2:46:0</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1783,11 +1783,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2:49:30</t>
+          <t>2:48:18</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1815,11 +1815,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2:53:12</t>
+          <t>2:52:18</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1831,11 +1831,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1785</v>
+        <v>1756</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2:58:30</t>
+          <t>2:55:36</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1847,11 +1847,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1796</v>
+        <v>1758</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2:59:36</t>
+          <t>2:55:48</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1863,11 +1863,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2:59:42</t>
+          <t>2:58:42</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1895,11 +1895,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1811</v>
+        <v>1837</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3:1:6</t>
+          <t>3:3:42</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -1911,11 +1911,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1829</v>
+        <v>1847</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3:2:54</t>
+          <t>3:4:42</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -1927,11 +1927,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1851</v>
+        <v>1858</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3:5:6</t>
+          <t>3:5:48</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -1943,11 +1943,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3:7:0</t>
+          <t>3:7:18</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -1975,11 +1975,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3:12:36</t>
+          <t>3:11:54</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -1991,11 +1991,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3:13:24</t>
+          <t>3:12:6</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2007,11 +2007,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1946</v>
+        <v>1935</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3:14:36</t>
+          <t>3:13:30</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2023,11 +2023,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3:16:30</t>
+          <t>3:16:48</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2055,11 +2055,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3:22:0</t>
+          <t>3:22:54</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2071,11 +2071,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2042</v>
+        <v>2033</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3:24:12</t>
+          <t>3:23:18</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2087,11 +2087,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2067</v>
+        <v>2036</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3:26:42</t>
+          <t>3:23:36</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2103,11 +2103,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2070</v>
+        <v>2098</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3:27:0</t>
+          <t>3:29:48</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2135,11 +2135,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2143</v>
+        <v>2112</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3:34:18</t>
+          <t>3:31:12</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2151,11 +2151,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2159</v>
+        <v>2114</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3:35:54</t>
+          <t>3:31:24</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2167,11 +2167,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2175</v>
+        <v>2135</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3:37:30</t>
+          <t>3:33:30</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2183,11 +2183,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2193</v>
+        <v>2155</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3:39:18</t>
+          <t>3:35:30</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2215,11 +2215,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2200</v>
+        <v>2216</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3:40:0</t>
+          <t>3:41:36</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2231,11 +2231,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2212</v>
+        <v>2217</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3:41:12</t>
+          <t>3:41:42</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2247,11 +2247,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2269</v>
+        <v>2223</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3:46:54</t>
+          <t>3:42:18</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2263,11 +2263,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2286</v>
+        <v>2229</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3:48:36</t>
+          <t>3:42:54</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2295,11 +2295,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2303</v>
+        <v>2311</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3:50:18</t>
+          <t>3:51:6</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2311,11 +2311,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2341</v>
+        <v>2315</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3:54:6</t>
+          <t>3:51:30</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2327,11 +2327,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2349</v>
+        <v>2330</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3:54:54</t>
+          <t>3:53:0</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2343,11 +2343,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2397</v>
+        <v>2370</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3:59:42</t>
+          <t>3:57:0</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2375,11 +2375,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4:1:48</t>
+          <t>4:0:24</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2391,11 +2391,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4:2:54</t>
+          <t>4:2:18</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2407,11 +2407,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4:5:18</t>
+          <t>4:4:42</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2423,11 +2423,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2460</v>
+        <v>2491</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4:6:0</t>
+          <t>4:9:6</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2471,11 +2471,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4:12:30</t>
+          <t>4:12:48</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2487,11 +2487,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2591</v>
+        <v>2561</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4:19:6</t>
+          <t>4:16:6</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2503,11 +2503,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4:19:12</t>
+          <t>4:18:30</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2535,11 +2535,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2641</v>
+        <v>2619</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4:24:6</t>
+          <t>4:21:54</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2551,11 +2551,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2676</v>
+        <v>2635</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4:27:36</t>
+          <t>4:23:30</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2567,11 +2567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2692</v>
+        <v>2638</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4:29:12</t>
+          <t>4:23:48</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2583,11 +2583,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2697</v>
+        <v>2677</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4:29:42</t>
+          <t>4:27:42</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2615,11 +2615,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2705</v>
+        <v>2773</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4:30:30</t>
+          <t>4:37:18</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2631,11 +2631,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2730</v>
+        <v>2784</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4:33:0</t>
+          <t>4:38:24</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2647,11 +2647,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2776</v>
+        <v>2785</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4:37:36</t>
+          <t>4:38:30</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2663,11 +2663,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2778</v>
+        <v>2793</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4:37:48</t>
+          <t>4:39:18</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2695,11 +2695,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2854</v>
+        <v>2835</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4:45:24</t>
+          <t>4:43:30</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2711,11 +2711,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2864</v>
+        <v>2845</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4:46:24</t>
+          <t>4:44:30</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2743,11 +2743,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2883</v>
+        <v>2872</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4:48:18</t>
+          <t>4:47:12</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -2775,11 +2775,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4:51:24</t>
+          <t>4:51:42</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -2791,11 +2791,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2937</v>
+        <v>2919</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4:53:42</t>
+          <t>4:51:54</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -2807,11 +2807,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2972</v>
+        <v>2923</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4:57:12</t>
+          <t>4:52:18</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -2823,11 +2823,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2982</v>
+        <v>2998</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4:58:12</t>
+          <t>4:59:48</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -2855,11 +2855,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3023</v>
+        <v>3043</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5:2:18</t>
+          <t>5:4:18</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -2871,11 +2871,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3035</v>
+        <v>3049</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5:3:30</t>
+          <t>5:4:54</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -2887,11 +2887,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3074</v>
+        <v>3076</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5:7:24</t>
+          <t>5:7:36</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -2903,11 +2903,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5:8:48</t>
+          <t>5:7:48</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -2935,11 +2935,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3118</v>
+        <v>3101</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5:11:48</t>
+          <t>5:10:6</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -2951,11 +2951,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3156</v>
+        <v>3134</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5:15:36</t>
+          <t>5:13:24</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -2967,11 +2967,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3181</v>
+        <v>3154</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5:18:6</t>
+          <t>5:15:24</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -2983,11 +2983,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5:19:6</t>
+          <t>5:19:24</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3015,11 +3015,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5:20:30</t>
+          <t>5:20:42</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3031,11 +3031,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5:21:12</t>
+          <t>5:20:48</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3047,11 +3047,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3214</v>
+        <v>3247</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5:21:24</t>
+          <t>5:24:42</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3095,11 +3095,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3312</v>
+        <v>3302</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5:31:12</t>
+          <t>5:30:12</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3111,11 +3111,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5:33:0</t>
+          <t>5:32:48</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3127,11 +3127,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3368</v>
+        <v>3343</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5:36:48</t>
+          <t>5:34:18</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3143,11 +3143,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5:39:0</t>
+          <t>5:39:12</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3175,11 +3175,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3407</v>
+        <v>3422</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5:40:42</t>
+          <t>5:42:12</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3191,11 +3191,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3439</v>
+        <v>3425</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5:43:54</t>
+          <t>5:42:30</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3207,11 +3207,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3457</v>
+        <v>3435</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5:45:42</t>
+          <t>5:43:30</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3223,11 +3223,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>5:47:30</t>
+          <t>5:47:42</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3255,11 +3255,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>5:51:36</t>
+          <t>5:51:30</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3271,11 +3271,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3565</v>
+        <v>3521</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5:56:30</t>
+          <t>5:52:6</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3287,11 +3287,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3572</v>
+        <v>3555</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>5:57:12</t>
+          <t>5:55:30</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3303,11 +3303,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3587</v>
+        <v>3582</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>5:58:42</t>
+          <t>5:58:12</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3335,11 +3335,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3614</v>
+        <v>3623</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6:1:24</t>
+          <t>6:2:18</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3351,11 +3351,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3632</v>
+        <v>3674</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6:3:12</t>
+          <t>6:7:24</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3367,11 +3367,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3660</v>
+        <v>3690</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6:6:0</t>
+          <t>6:9:0</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3383,11 +3383,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3672</v>
+        <v>3696</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6:7:12</t>
+          <t>6:9:36</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3415,11 +3415,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3706</v>
+        <v>3700</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6:10:36</t>
+          <t>6:10:0</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3431,11 +3431,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6:12:30</t>
+          <t>6:12:18</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3447,11 +3447,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3736</v>
+        <v>3730</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>6:13:36</t>
+          <t>6:13:0</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3463,11 +3463,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3756</v>
+        <v>3764</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>6:15:36</t>
+          <t>6:16:24</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3495,11 +3495,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3860</v>
+        <v>3818</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6:26:0</t>
+          <t>6:21:48</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3511,11 +3511,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3884</v>
+        <v>3820</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6:28:24</t>
+          <t>6:22:0</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3527,11 +3527,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3891</v>
+        <v>3855</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6:29:6</t>
+          <t>6:25:30</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3543,11 +3543,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3893</v>
+        <v>3867</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>6:29:18</t>
+          <t>6:26:42</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3575,11 +3575,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3925</v>
+        <v>3918</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6:32:30</t>
+          <t>6:31:48</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3591,11 +3591,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3937</v>
+        <v>3932</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6:33:42</t>
+          <t>6:33:12</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3607,11 +3607,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3969</v>
+        <v>3938</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>6:36:54</t>
+          <t>6:33:48</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3623,11 +3623,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3988</v>
+        <v>3971</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>6:38:48</t>
+          <t>6:37:6</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -3655,11 +3655,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4043</v>
+        <v>4005</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>6:44:18</t>
+          <t>6:40:30</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -3671,11 +3671,11 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4060</v>
+        <v>4038</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6:46:0</t>
+          <t>6:43:48</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -3687,11 +3687,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4061</v>
+        <v>4054</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6:46:6</t>
+          <t>6:45:24</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -3703,11 +3703,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6:46:12</t>
+          <t>6:46:6</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -3735,11 +3735,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4108</v>
+        <v>4143</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6:50:48</t>
+          <t>6:54:18</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -3751,11 +3751,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4127</v>
+        <v>4144</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6:52:42</t>
+          <t>6:54:24</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -3767,11 +3767,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4185</v>
+        <v>4177</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>6:58:30</t>
+          <t>6:57:42</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -3783,11 +3783,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>6:59:18</t>
+          <t>6:59:12</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -3815,11 +3815,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4243</v>
+        <v>4206</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>7:4:18</t>
+          <t>7:0:36</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -3831,11 +3831,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4252</v>
+        <v>4211</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>7:5:12</t>
+          <t>7:1:6</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -3847,11 +3847,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4266</v>
+        <v>4229</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>7:6:36</t>
+          <t>7:2:54</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -3863,11 +3863,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4290</v>
+        <v>4245</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7:9:0</t>
+          <t>7:4:30</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -3895,11 +3895,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4332</v>
+        <v>4343</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7:13:12</t>
+          <t>7:14:18</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -3911,11 +3911,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4334</v>
+        <v>4378</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7:13:24</t>
+          <t>7:17:48</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -3927,11 +3927,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4344</v>
+        <v>4385</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>7:14:24</t>
+          <t>7:18:30</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -3943,11 +3943,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4347</v>
+        <v>4393</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>7:14:42</t>
+          <t>7:19:18</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -3975,11 +3975,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4402</v>
+        <v>4408</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>7:20:12</t>
+          <t>7:20:48</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -3991,11 +3991,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4427</v>
+        <v>4473</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7:22:42</t>
+          <t>7:27:18</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4007,11 +4007,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4445</v>
+        <v>4481</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>7:24:30</t>
+          <t>7:28:6</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4023,11 +4023,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4453</v>
+        <v>4496</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>7:25:18</t>
+          <t>7:29:36</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4055,11 +4055,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4511</v>
+        <v>4518</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>7:31:6</t>
+          <t>7:31:48</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4071,11 +4071,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4567</v>
+        <v>4544</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>7:36:42</t>
+          <t>7:34:24</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4087,11 +4087,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4582</v>
+        <v>4547</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>7:38:12</t>
+          <t>7:34:42</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4103,11 +4103,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4587</v>
+        <v>4557</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>7:38:42</t>
+          <t>7:35:42</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4151,11 +4151,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4636</v>
+        <v>4609</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7:43:36</t>
+          <t>7:40:54</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4167,11 +4167,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4662</v>
+        <v>4694</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>7:46:12</t>
+          <t>7:49:24</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4183,11 +4183,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4667</v>
+        <v>4696</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>7:46:42</t>
+          <t>7:49:36</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4215,11 +4215,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4729</v>
+        <v>4705</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7:52:54</t>
+          <t>7:50:30</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4231,11 +4231,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4734</v>
+        <v>4724</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>7:53:24</t>
+          <t>7:52:24</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4247,11 +4247,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4777</v>
+        <v>4754</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>7:57:42</t>
+          <t>7:55:24</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4263,11 +4263,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4791</v>
+        <v>4764</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>7:59:6</t>
+          <t>7:56:24</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4295,11 +4295,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4816</v>
+        <v>4818</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8:1:36</t>
+          <t>8:1:48</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4311,11 +4311,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4848</v>
+        <v>4845</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>8:4:48</t>
+          <t>8:4:30</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -4327,11 +4327,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8:6:0</t>
+          <t>8:6:6</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4343,11 +4343,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4867</v>
+        <v>4881</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8:6:42</t>
+          <t>8:8:6</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -4375,11 +4375,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4917</v>
+        <v>4908</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8:11:42</t>
+          <t>8:10:48</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4391,11 +4391,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4939</v>
+        <v>4964</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8:13:54</t>
+          <t>8:16:24</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4407,11 +4407,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8:17:0</t>
+          <t>8:17:36</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4423,11 +4423,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4974</v>
+        <v>4989</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8:17:24</t>
+          <t>8:18:54</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -4455,11 +4455,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5010</v>
+        <v>5034</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>8:21:0</t>
+          <t>8:23:24</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4471,11 +4471,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>5033</v>
+        <v>5037</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>8:23:18</t>
+          <t>8:23:42</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4487,11 +4487,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>5049</v>
+        <v>5059</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>8:24:54</t>
+          <t>8:25:54</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -4503,11 +4503,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>5081</v>
+        <v>5087</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8:28:6</t>
+          <t>8:28:42</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -4535,11 +4535,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>5132</v>
+        <v>5113</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>8:33:12</t>
+          <t>8:31:18</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -4551,11 +4551,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>5145</v>
+        <v>5115</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>8:34:30</t>
+          <t>8:31:30</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -4567,11 +4567,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5161</v>
+        <v>5167</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8:36:6</t>
+          <t>8:36:42</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -4583,11 +4583,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5171</v>
+        <v>5187</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>8:37:6</t>
+          <t>8:38:42</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -4615,11 +4615,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5282</v>
+        <v>5231</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8:48:12</t>
+          <t>8:43:6</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -4631,11 +4631,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5288</v>
+        <v>5249</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>8:48:48</t>
+          <t>8:44:54</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -4647,11 +4647,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5292</v>
+        <v>5259</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>8:49:12</t>
+          <t>8:45:54</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -4663,11 +4663,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5293</v>
+        <v>5280</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8:49:18</t>
+          <t>8:48:0</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -4695,11 +4695,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5329</v>
+        <v>5306</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>8:52:54</t>
+          <t>8:50:36</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -4711,11 +4711,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5336</v>
+        <v>5309</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>8:53:36</t>
+          <t>8:50:54</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -4727,11 +4727,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5346</v>
+        <v>5321</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>8:54:36</t>
+          <t>8:52:6</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -4743,11 +4743,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5372</v>
+        <v>5374</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8:57:12</t>
+          <t>8:57:24</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -4775,11 +4775,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5405</v>
+        <v>5402</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>9:0:30</t>
+          <t>9:0:12</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -4791,11 +4791,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>5439</v>
+        <v>5459</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>9:3:54</t>
+          <t>9:5:54</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -4807,11 +4807,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>5467</v>
+        <v>5471</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>9:6:42</t>
+          <t>9:7:6</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -4823,11 +4823,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5493</v>
+        <v>5489</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>9:9:18</t>
+          <t>9:8:54</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -4855,11 +4855,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5506</v>
+        <v>5543</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>9:10:36</t>
+          <t>9:14:18</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -4871,11 +4871,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5540</v>
+        <v>5550</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>9:14:0</t>
+          <t>9:15:0</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -4887,11 +4887,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5570</v>
+        <v>5554</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9:17:0</t>
+          <t>9:15:24</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -4903,11 +4903,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5574</v>
+        <v>5567</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>9:17:24</t>
+          <t>9:16:42</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -4935,11 +4935,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5634</v>
+        <v>5621</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>9:23:24</t>
+          <t>9:22:6</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -4967,11 +4967,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>5671</v>
+        <v>5660</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>9:27:6</t>
+          <t>9:26:0</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -4983,11 +4983,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5682</v>
+        <v>5666</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>9:28:12</t>
+          <t>9:26:36</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5015,11 +5015,11 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>5757</v>
+        <v>5706</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>9:35:42</t>
+          <t>9:30:36</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5031,11 +5031,11 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>5768</v>
+        <v>5725</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>9:36:48</t>
+          <t>9:32:30</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5047,11 +5047,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>5787</v>
+        <v>5763</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>9:38:42</t>
+          <t>9:36:18</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5063,11 +5063,11 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>5788</v>
+        <v>5787</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>9:38:48</t>
+          <t>9:38:42</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5095,11 +5095,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5801</v>
+        <v>5820</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>9:40:6</t>
+          <t>9:42:0</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5111,11 +5111,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5854</v>
+        <v>5838</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>9:45:24</t>
+          <t>9:43:48</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5127,11 +5127,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5879</v>
+        <v>5874</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>9:47:54</t>
+          <t>9:47:24</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5143,11 +5143,11 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5898</v>
+        <v>5885</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>9:49:48</t>
+          <t>9:48:30</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5175,11 +5175,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5900</v>
+        <v>5923</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>9:50:0</t>
+          <t>9:52:18</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5191,11 +5191,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5930</v>
+        <v>5945</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>9:53:0</t>
+          <t>9:54:30</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5207,11 +5207,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5935</v>
+        <v>5965</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>9:53:30</t>
+          <t>9:56:30</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5255,11 +5255,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6024</v>
+        <v>6003</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>10:2:24</t>
+          <t>10:0:18</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -5271,11 +5271,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6040</v>
+        <v>6018</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>10:4:0</t>
+          <t>10:1:48</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -5287,11 +5287,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6045</v>
+        <v>6053</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>10:4:30</t>
+          <t>10:5:18</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -5303,11 +5303,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6089</v>
+        <v>6073</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>10:8:54</t>
+          <t>10:7:18</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -5335,11 +5335,11 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6129</v>
+        <v>6115</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>10:12:54</t>
+          <t>10:11:30</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -5351,11 +5351,11 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>6134</v>
+        <v>6173</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>10:13:24</t>
+          <t>10:17:18</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -5367,11 +5367,11 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>6153</v>
+        <v>6190</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10:15:18</t>
+          <t>10:19:0</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -5383,11 +5383,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>6170</v>
+        <v>6195</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>10:17:0</t>
+          <t>10:19:30</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -5415,11 +5415,11 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>6226</v>
+        <v>6218</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>10:22:36</t>
+          <t>10:21:48</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -5431,11 +5431,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>6261</v>
+        <v>6226</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>10:26:6</t>
+          <t>10:22:36</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -5447,11 +5447,11 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>6262</v>
+        <v>6228</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>10:26:12</t>
+          <t>10:22:48</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -5463,11 +5463,11 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>6271</v>
+        <v>6287</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>10:27:6</t>
+          <t>10:28:42</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -5495,11 +5495,11 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>6301</v>
+        <v>6339</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>10:30:6</t>
+          <t>10:33:54</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -5511,11 +5511,11 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>6354</v>
+        <v>6342</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>10:35:24</t>
+          <t>10:34:12</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -5527,11 +5527,11 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>6376</v>
+        <v>6345</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>10:37:36</t>
+          <t>10:34:30</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -5543,11 +5543,11 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>6393</v>
+        <v>6358</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>10:39:18</t>
+          <t>10:35:48</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -5575,11 +5575,11 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>6410</v>
+        <v>6413</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>10:41:0</t>
+          <t>10:41:18</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -5591,11 +5591,11 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>6412</v>
+        <v>6429</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10:41:12</t>
+          <t>10:42:54</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -5607,11 +5607,11 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>6495</v>
+        <v>6443</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10:49:30</t>
+          <t>10:44:18</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -5623,11 +5623,11 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>6496</v>
+        <v>6448</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>10:49:36</t>
+          <t>10:44:48</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -5655,11 +5655,11 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>6518</v>
+        <v>6507</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>10:51:48</t>
+          <t>10:50:42</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -5671,11 +5671,11 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>6528</v>
+        <v>6550</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>10:52:48</t>
+          <t>10:55:0</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -5687,11 +5687,11 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>6551</v>
+        <v>6562</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>10:55:6</t>
+          <t>10:56:12</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -5703,11 +5703,11 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>6587</v>
+        <v>6593</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10:58:42</t>
+          <t>10:59:18</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -5735,11 +5735,11 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>6617</v>
+        <v>6605</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>11:1:42</t>
+          <t>11:0:30</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -5751,11 +5751,11 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>6628</v>
+        <v>6618</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>11:2:48</t>
+          <t>11:1:48</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -5767,11 +5767,11 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>6686</v>
+        <v>6679</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>11:8:36</t>
+          <t>11:7:54</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -5783,11 +5783,11 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>6692</v>
+        <v>6683</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>11:9:12</t>
+          <t>11:8:18</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -5815,11 +5815,11 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>6704</v>
+        <v>6705</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>11:10:24</t>
+          <t>11:10:30</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -5831,11 +5831,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>6759</v>
+        <v>6770</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>11:15:54</t>
+          <t>11:17:0</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -5847,11 +5847,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>6791</v>
+        <v>6790</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>11:19:6</t>
+          <t>11:19:0</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -5863,11 +5863,11 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>6792</v>
+        <v>6797</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>11:19:12</t>
+          <t>11:19:42</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -5895,11 +5895,11 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>6802</v>
+        <v>6801</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>11:20:12</t>
+          <t>11:20:6</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -5911,11 +5911,11 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>6805</v>
+        <v>6822</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>11:20:30</t>
+          <t>11:22:12</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -5927,11 +5927,11 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>6856</v>
+        <v>6864</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>11:25:36</t>
+          <t>11:26:24</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -5943,11 +5943,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>6873</v>
+        <v>6897</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>11:27:18</t>
+          <t>11:29:42</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -5991,11 +5991,11 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>6905</v>
+        <v>6906</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>11:30:30</t>
+          <t>11:30:36</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -6007,11 +6007,11 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>6913</v>
+        <v>6943</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>11:31:18</t>
+          <t>11:34:18</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -6023,11 +6023,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>6970</v>
+        <v>6956</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>11:37:0</t>
+          <t>11:35:36</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -6055,11 +6055,11 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>7006</v>
+        <v>7009</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>11:40:36</t>
+          <t>11:40:54</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -6071,11 +6071,11 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>7050</v>
+        <v>7042</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11:45:0</t>
+          <t>11:44:12</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -6087,11 +6087,11 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>7079</v>
+        <v>7052</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>11:47:54</t>
+          <t>11:45:12</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -6103,11 +6103,11 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>7083</v>
+        <v>7067</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>11:48:18</t>
+          <t>11:46:42</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -6135,11 +6135,11 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>7101</v>
+        <v>7107</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>11:50:6</t>
+          <t>11:50:42</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -6151,11 +6151,11 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>7141</v>
+        <v>7125</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>11:54:6</t>
+          <t>11:52:30</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -6167,11 +6167,11 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>7161</v>
+        <v>7137</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>11:56:6</t>
+          <t>11:53:42</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -6183,11 +6183,11 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>7193</v>
+        <v>7163</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>11:59:18</t>
+          <t>11:56:18</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -6215,11 +6215,11 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>7211</v>
+        <v>7205</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>12:1:6</t>
+          <t>12:0:30</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -6231,11 +6231,11 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>7243</v>
+        <v>7209</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>12:4:18</t>
+          <t>12:0:54</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -6247,11 +6247,11 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>7273</v>
+        <v>7286</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>12:7:18</t>
+          <t>12:8:36</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -6263,11 +6263,11 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>7296</v>
+        <v>7287</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>12:9:36</t>
+          <t>12:8:42</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -6295,11 +6295,11 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>7320</v>
+        <v>7302</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>12:12:0</t>
+          <t>12:10:12</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -6311,11 +6311,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>7330</v>
+        <v>7337</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>12:13:0</t>
+          <t>12:13:42</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -6327,11 +6327,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>7352</v>
+        <v>7359</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>12:15:12</t>
+          <t>12:15:54</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -6343,11 +6343,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>7386</v>
+        <v>7366</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>12:18:36</t>
+          <t>12:16:36</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -6375,11 +6375,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>7429</v>
+        <v>7407</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>12:22:54</t>
+          <t>12:20:42</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -6391,11 +6391,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>7438</v>
+        <v>7421</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>12:23:48</t>
+          <t>12:22:6</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -6407,11 +6407,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>7451</v>
+        <v>7457</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>12:25:6</t>
+          <t>12:25:42</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -6423,11 +6423,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>7486</v>
+        <v>7478</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>12:28:36</t>
+          <t>12:27:48</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -6455,11 +6455,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>7507</v>
+        <v>7505</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>12:30:42</t>
+          <t>12:30:30</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -6471,11 +6471,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>7548</v>
+        <v>7531</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>12:34:48</t>
+          <t>12:33:6</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -6487,11 +6487,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>7553</v>
+        <v>7533</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>12:35:18</t>
+          <t>12:33:18</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -6503,11 +6503,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>7592</v>
+        <v>7571</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>12:39:12</t>
+          <t>12:37:6</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -6535,11 +6535,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>7624</v>
+        <v>7607</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>12:42:24</t>
+          <t>12:40:42</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -6551,11 +6551,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>7645</v>
+        <v>7630</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>12:44:30</t>
+          <t>12:43:0</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -6567,11 +6567,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>7664</v>
+        <v>7663</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>12:46:24</t>
+          <t>12:46:18</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -6583,11 +6583,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>7693</v>
+        <v>7699</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>12:49:18</t>
+          <t>12:49:54</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -6615,11 +6615,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>7701</v>
+        <v>7727</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>12:50:6</t>
+          <t>12:52:42</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -6631,11 +6631,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>7717</v>
+        <v>7732</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>12:51:42</t>
+          <t>12:53:12</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -6647,11 +6647,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>7719</v>
+        <v>7760</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>12:51:54</t>
+          <t>12:56:0</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -6663,11 +6663,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>7731</v>
+        <v>7770</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>12:53:6</t>
+          <t>12:57:0</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -6695,11 +6695,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>7803</v>
+        <v>7829</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>13:0:18</t>
+          <t>13:2:54</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -6711,11 +6711,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>7841</v>
+        <v>7842</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>13:4:6</t>
+          <t>13:4:12</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -6727,11 +6727,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>7850</v>
+        <v>7871</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>13:5:0</t>
+          <t>13:7:6</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -6743,11 +6743,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>7864</v>
+        <v>7881</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>13:6:24</t>
+          <t>13:8:6</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -6775,11 +6775,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>7932</v>
+        <v>7902</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>13:13:12</t>
+          <t>13:10:12</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -6791,11 +6791,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>7959</v>
+        <v>7911</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>13:15:54</t>
+          <t>13:11:6</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -6807,11 +6807,11 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7968</v>
+        <v>7951</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13:16:48</t>
+          <t>13:15:6</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -6823,11 +6823,11 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7991</v>
+        <v>7997</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>13:19:6</t>
+          <t>13:19:42</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -6855,11 +6855,11 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>8009</v>
+        <v>8004</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>13:20:54</t>
+          <t>13:20:24</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -6871,11 +6871,11 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>8011</v>
+        <v>8016</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>13:21:6</t>
+          <t>13:21:36</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -6887,11 +6887,11 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>8014</v>
+        <v>8020</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>13:21:24</t>
+          <t>13:22:0</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -6903,11 +6903,11 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>8052</v>
+        <v>8078</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>13:25:12</t>
+          <t>13:27:48</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -6935,11 +6935,11 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>8114</v>
+        <v>8110</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>13:31:24</t>
+          <t>13:31:0</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -6951,11 +6951,11 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>8123</v>
+        <v>8124</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>13:32:18</t>
+          <t>13:32:24</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -6967,11 +6967,11 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>8130</v>
+        <v>8126</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>13:33:0</t>
+          <t>13:32:36</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -6983,11 +6983,11 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>8186</v>
+        <v>8168</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>13:38:36</t>
+          <t>13:36:48</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -7015,11 +7015,11 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>8210</v>
+        <v>8208</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>13:41:0</t>
+          <t>13:40:48</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -7031,11 +7031,11 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>8223</v>
+        <v>8277</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>13:42:18</t>
+          <t>13:47:42</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -7047,11 +7047,11 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>8241</v>
+        <v>8281</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>13:44:6</t>
+          <t>13:48:6</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -7063,11 +7063,11 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>8244</v>
+        <v>8284</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>13:44:24</t>
+          <t>13:48:24</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -7095,11 +7095,11 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>8309</v>
+        <v>8341</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>13:50:54</t>
+          <t>13:54:6</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -7111,11 +7111,11 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>8322</v>
+        <v>8355</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>13:52:12</t>
+          <t>13:55:30</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -7127,11 +7127,11 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>8351</v>
+        <v>8384</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>13:55:6</t>
+          <t>13:58:24</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -7143,11 +7143,11 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>8368</v>
+        <v>8391</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>13:56:48</t>
+          <t>13:59:6</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -7175,11 +7175,11 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>8445</v>
+        <v>8403</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>14:4:30</t>
+          <t>14:0:18</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -7191,11 +7191,11 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>8447</v>
+        <v>8404</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>14:4:42</t>
+          <t>14:0:24</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -7207,11 +7207,11 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>8460</v>
+        <v>8407</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>14:6:0</t>
+          <t>14:0:42</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -7223,11 +7223,11 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>8464</v>
+        <v>8474</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>14:6:24</t>
+          <t>14:7:24</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -7255,11 +7255,11 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>8538</v>
+        <v>8500</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>14:13:48</t>
+          <t>14:10:0</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -7271,11 +7271,11 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>8549</v>
+        <v>8501</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>14:14:54</t>
+          <t>14:10:6</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -7287,11 +7287,11 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>8566</v>
+        <v>8540</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>14:16:36</t>
+          <t>14:14:0</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -7303,11 +7303,11 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>8598</v>
+        <v>8543</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>14:19:48</t>
+          <t>14:14:18</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -7335,11 +7335,11 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>8600</v>
+        <v>8607</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>14:20:0</t>
+          <t>14:20:42</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -7351,11 +7351,11 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8617</v>
+        <v>8618</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>14:21:42</t>
+          <t>14:21:48</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -7367,11 +7367,11 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>8651</v>
+        <v>8664</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>14:25:6</t>
+          <t>14:26:24</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -7383,11 +7383,11 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>8687</v>
+        <v>8677</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>14:28:42</t>
+          <t>14:27:42</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -7415,11 +7415,11 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>8738</v>
+        <v>8726</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>14:33:48</t>
+          <t>14:32:36</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -7431,11 +7431,11 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>8770</v>
+        <v>8734</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>14:37:0</t>
+          <t>14:33:24</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -7447,11 +7447,11 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>8788</v>
+        <v>8772</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>14:38:48</t>
+          <t>14:37:12</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -7463,11 +7463,11 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>8797</v>
+        <v>8785</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>14:39:42</t>
+          <t>14:38:30</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -7495,11 +7495,11 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>8800</v>
+        <v>8812</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>14:40:0</t>
+          <t>14:41:12</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -7511,11 +7511,11 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>8805</v>
+        <v>8877</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>14:40:30</t>
+          <t>14:47:42</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -7527,11 +7527,11 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>8807</v>
+        <v>8878</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>14:40:42</t>
+          <t>14:47:48</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -7543,11 +7543,11 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>8892</v>
+        <v>8886</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>14:49:12</t>
+          <t>14:48:36</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -7575,11 +7575,11 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>8930</v>
+        <v>8918</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>14:53:0</t>
+          <t>14:51:48</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -7591,11 +7591,11 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>8936</v>
+        <v>8924</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>14:53:36</t>
+          <t>14:52:24</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -7607,11 +7607,11 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>8951</v>
+        <v>8935</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>14:55:6</t>
+          <t>14:53:30</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -7655,11 +7655,11 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>9013</v>
+        <v>9060</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>15:1:18</t>
+          <t>15:6:0</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -7671,11 +7671,11 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>9044</v>
+        <v>9067</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>15:4:24</t>
+          <t>15:6:42</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -7687,11 +7687,11 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>9051</v>
+        <v>9070</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>15:5:6</t>
+          <t>15:7:0</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -7703,11 +7703,11 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>9074</v>
+        <v>9086</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>15:7:24</t>
+          <t>15:8:36</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -7735,11 +7735,11 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>9123</v>
+        <v>9164</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>15:12:18</t>
+          <t>15:16:24</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -7751,11 +7751,11 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>9138</v>
+        <v>9168</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>15:13:48</t>
+          <t>15:16:48</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -7767,11 +7767,11 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>9148</v>
+        <v>9172</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>15:14:48</t>
+          <t>15:17:12</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -7783,11 +7783,11 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>9181</v>
+        <v>9183</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>15:18:6</t>
+          <t>15:18:18</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -7815,11 +7815,11 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>9206</v>
+        <v>9236</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>15:20:36</t>
+          <t>15:23:36</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -7831,11 +7831,11 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>9223</v>
+        <v>9243</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>15:22:18</t>
+          <t>15:24:18</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -7847,11 +7847,11 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>9246</v>
+        <v>9252</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>15:24:36</t>
+          <t>15:25:12</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -7863,11 +7863,11 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>9279</v>
+        <v>9276</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>15:27:54</t>
+          <t>15:27:36</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -7895,11 +7895,11 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>9318</v>
+        <v>9345</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>15:31:48</t>
+          <t>15:34:30</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -7911,11 +7911,11 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>9321</v>
+        <v>9363</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>15:32:6</t>
+          <t>15:36:18</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -7927,11 +7927,11 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>9324</v>
+        <v>9369</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>15:32:24</t>
+          <t>15:36:54</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -7943,11 +7943,11 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>9398</v>
+        <v>9372</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>15:39:48</t>
+          <t>15:37:12</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -7975,11 +7975,11 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>9443</v>
+        <v>9422</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>15:44:18</t>
+          <t>15:42:12</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -7991,11 +7991,11 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>9445</v>
+        <v>9429</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>15:44:30</t>
+          <t>15:42:54</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -8007,11 +8007,11 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>9462</v>
+        <v>9447</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>15:46:12</t>
+          <t>15:44:42</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -8023,11 +8023,11 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>9487</v>
+        <v>9492</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>15:48:42</t>
+          <t>15:49:12</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -8071,11 +8071,11 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>9560</v>
+        <v>9535</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>15:56:0</t>
+          <t>15:53:30</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -8087,11 +8087,11 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>9572</v>
+        <v>9552</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>15:57:12</t>
+          <t>15:55:12</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -8103,11 +8103,11 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>9597</v>
+        <v>9594</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>15:59:24</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -8135,11 +8135,11 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>9612</v>
+        <v>9616</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>16:1:12</t>
+          <t>16:1:36</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -8167,11 +8167,11 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>9666</v>
+        <v>9654</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>16:6:36</t>
+          <t>16:5:24</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -8183,11 +8183,11 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>9697</v>
+        <v>9663</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>16:9:42</t>
+          <t>16:6:18</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -8215,11 +8215,11 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>9732</v>
+        <v>9723</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>16:13:12</t>
+          <t>16:12:18</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -8231,11 +8231,11 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>9752</v>
+        <v>9735</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>16:15:12</t>
+          <t>16:13:30</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -8247,11 +8247,11 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>9769</v>
+        <v>9747</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>16:16:54</t>
+          <t>16:14:42</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -8263,11 +8263,11 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>9795</v>
+        <v>9792</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>16:19:30</t>
+          <t>16:19:12</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -8295,11 +8295,11 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>9822</v>
+        <v>9808</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>16:22:12</t>
+          <t>16:20:48</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -8311,11 +8311,11 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>9852</v>
+        <v>9866</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>16:25:12</t>
+          <t>16:26:36</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -8327,11 +8327,11 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>9869</v>
+        <v>9867</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>16:26:54</t>
+          <t>16:26:42</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -8375,11 +8375,11 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>9943</v>
+        <v>9930</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>16:34:18</t>
+          <t>16:33:0</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -8391,11 +8391,11 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>9983</v>
+        <v>9941</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>16:38:18</t>
+          <t>16:34:6</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -8407,11 +8407,11 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>9989</v>
+        <v>9953</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>16:38:54</t>
+          <t>16:35:18</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -8423,11 +8423,11 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>9993</v>
+        <v>9958</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>16:39:18</t>
+          <t>16:35:48</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -8455,11 +8455,11 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>10004</v>
+        <v>10000</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>16:40:24</t>
+          <t>16:40:0</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -8471,11 +8471,11 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>10015</v>
+        <v>10006</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>16:41:30</t>
+          <t>16:40:36</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -8487,11 +8487,11 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>10056</v>
+        <v>10046</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>16:45:36</t>
+          <t>16:44:36</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -8503,11 +8503,11 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>10061</v>
+        <v>10078</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>16:46:6</t>
+          <t>16:47:48</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -8535,11 +8535,11 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>10110</v>
+        <v>10119</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>16:51:0</t>
+          <t>16:51:54</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -8551,11 +8551,11 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>10125</v>
+        <v>10130</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>16:52:30</t>
+          <t>16:53:0</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -8567,11 +8567,11 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>10142</v>
+        <v>10137</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>16:54:12</t>
+          <t>16:53:42</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -8583,11 +8583,11 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>10198</v>
+        <v>10149</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>16:59:48</t>
+          <t>16:54:54</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -8615,11 +8615,11 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>10248</v>
+        <v>10236</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>17:4:48</t>
+          <t>17:3:36</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -8631,11 +8631,11 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>10258</v>
+        <v>10249</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>17:5:48</t>
+          <t>17:4:54</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -8647,11 +8647,11 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>10269</v>
+        <v>10280</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>17:6:54</t>
+          <t>17:8:0</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -8663,11 +8663,11 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>10272</v>
+        <v>10294</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>17:7:12</t>
+          <t>17:9:24</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -8695,11 +8695,11 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>10325</v>
+        <v>10317</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>17:12:30</t>
+          <t>17:11:42</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -8711,11 +8711,11 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>10369</v>
+        <v>10355</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>17:16:54</t>
+          <t>17:15:30</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -8727,11 +8727,11 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>10376</v>
+        <v>10377</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>17:17:36</t>
+          <t>17:17:42</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -8743,11 +8743,11 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>10395</v>
+        <v>10384</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>17:19:30</t>
+          <t>17:18:24</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -8775,11 +8775,11 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>10414</v>
+        <v>10426</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>17:21:24</t>
+          <t>17:22:36</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -8791,11 +8791,11 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>10415</v>
+        <v>10436</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>17:21:30</t>
+          <t>17:23:36</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -8807,11 +8807,11 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>10426</v>
+        <v>10470</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>17:22:36</t>
+          <t>17:27:0</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -8823,11 +8823,11 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>10468</v>
+        <v>10476</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>17:26:48</t>
+          <t>17:27:36</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -8855,11 +8855,11 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>10516</v>
+        <v>10524</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>17:31:36</t>
+          <t>17:32:24</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -8871,11 +8871,11 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>10553</v>
+        <v>10565</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>17:35:18</t>
+          <t>17:36:30</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -8887,11 +8887,11 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>10563</v>
+        <v>10567</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>17:36:18</t>
+          <t>17:36:42</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -8903,11 +8903,11 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>10564</v>
+        <v>10568</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>17:36:24</t>
+          <t>17:36:48</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -8935,11 +8935,11 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>10604</v>
+        <v>10602</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>17:40:24</t>
+          <t>17:40:12</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -8951,11 +8951,11 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>10632</v>
+        <v>10644</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>17:43:12</t>
+          <t>17:44:24</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -8967,11 +8967,11 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>10658</v>
+        <v>10650</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>17:45:48</t>
+          <t>17:45:0</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -8983,11 +8983,11 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>10671</v>
+        <v>10684</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>17:47:6</t>
+          <t>17:48:24</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -9015,11 +9015,11 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>10713</v>
+        <v>10712</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>17:51:18</t>
+          <t>17:51:12</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -9031,11 +9031,11 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>10753</v>
+        <v>10733</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>17:55:18</t>
+          <t>17:53:18</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -9047,11 +9047,11 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>10754</v>
+        <v>10750</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>17:55:24</t>
+          <t>17:55:0</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -9063,11 +9063,11 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>10782</v>
+        <v>10764</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>17:58:12</t>
+          <t>17:56:24</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -9095,11 +9095,11 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>18:3:0</t>
+          <t>18:2:48</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -9111,11 +9111,11 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>10834</v>
+        <v>10835</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>18:3:24</t>
+          <t>18:3:30</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -9127,11 +9127,11 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>10867</v>
+        <v>10846</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>18:6:42</t>
+          <t>18:4:36</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -9143,11 +9143,11 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>10884</v>
+        <v>10894</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>18:8:24</t>
+          <t>18:9:24</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -9175,11 +9175,11 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>10904</v>
+        <v>10900</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>18:10:24</t>
+          <t>18:10:0</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -9191,11 +9191,11 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>10928</v>
+        <v>10967</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>18:12:48</t>
+          <t>18:16:42</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -9207,11 +9207,11 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>10953</v>
+        <v>10983</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>18:15:18</t>
+          <t>18:18:18</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -9223,11 +9223,11 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>10965</v>
+        <v>10995</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>18:16:30</t>
+          <t>18:19:30</t>
         </is>
       </c>
       <c r="D550" t="n">
@@ -9255,11 +9255,11 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>11000</v>
+        <v>11024</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>18:20:0</t>
+          <t>18:22:24</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -9271,11 +9271,11 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>11001</v>
+        <v>11026</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>18:20:6</t>
+          <t>18:22:36</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -9287,11 +9287,11 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>11007</v>
+        <v>11062</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>18:20:42</t>
+          <t>18:26:12</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -9303,11 +9303,11 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>11093</v>
+        <v>11069</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>18:29:18</t>
+          <t>18:26:54</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -9335,11 +9335,11 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>11117</v>
+        <v>11106</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>18:31:42</t>
+          <t>18:30:36</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -9351,11 +9351,11 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>11124</v>
+        <v>11132</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>18:32:24</t>
+          <t>18:33:12</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -9367,11 +9367,11 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>11142</v>
+        <v>11155</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>18:34:12</t>
+          <t>18:35:30</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -9383,11 +9383,11 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>11161</v>
+        <v>11165</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>18:36:6</t>
+          <t>18:36:30</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -9415,11 +9415,11 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>11229</v>
+        <v>11231</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>18:42:54</t>
+          <t>18:43:6</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -9431,11 +9431,11 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>11246</v>
+        <v>11255</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>18:44:36</t>
+          <t>18:45:30</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -9447,11 +9447,11 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>11271</v>
+        <v>11265</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>18:47:6</t>
+          <t>18:46:30</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -9463,11 +9463,11 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>11273</v>
+        <v>11299</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>18:47:18</t>
+          <t>18:49:54</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -9495,11 +9495,11 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>11320</v>
+        <v>11307</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>18:52:0</t>
+          <t>18:50:42</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -9511,11 +9511,11 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>11337</v>
+        <v>11318</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>18:53:42</t>
+          <t>18:51:48</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -9527,11 +9527,11 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>11389</v>
+        <v>11351</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>18:58:54</t>
+          <t>18:55:6</t>
         </is>
       </c>
       <c r="D569" t="n">
@@ -9543,11 +9543,11 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>11393</v>
+        <v>11376</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>18:59:18</t>
+          <t>18:57:36</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -9575,11 +9575,11 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>11419</v>
+        <v>11411</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>19:1:54</t>
+          <t>19:1:6</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -9591,11 +9591,11 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>11420</v>
+        <v>11446</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>19:2:0</t>
+          <t>19:4:36</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -9607,11 +9607,11 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>11482</v>
+        <v>11457</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>19:8:12</t>
+          <t>19:5:42</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -9623,11 +9623,11 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>11484</v>
+        <v>11495</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>19:8:24</t>
+          <t>19:9:30</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -9655,11 +9655,11 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>11515</v>
+        <v>11528</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>19:11:30</t>
+          <t>19:12:48</t>
         </is>
       </c>
       <c r="D577" t="n">
@@ -9671,11 +9671,11 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>11516</v>
+        <v>11540</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>19:11:36</t>
+          <t>19:14:0</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -9703,11 +9703,11 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>11582</v>
+        <v>11569</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>19:18:12</t>
+          <t>19:16:54</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -9735,11 +9735,11 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>11616</v>
+        <v>11606</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>19:21:36</t>
+          <t>19:20:36</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -9751,11 +9751,11 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>11628</v>
+        <v>11617</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>19:22:48</t>
+          <t>19:21:42</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -9767,11 +9767,11 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>11633</v>
+        <v>11679</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>19:23:18</t>
+          <t>19:27:54</t>
         </is>
       </c>
       <c r="D584" t="n">
@@ -9783,11 +9783,11 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>11682</v>
+        <v>11690</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>19:28:12</t>
+          <t>19:29:0</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -9815,11 +9815,11 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>11701</v>
+        <v>11728</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>19:30:6</t>
+          <t>19:32:48</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -9831,11 +9831,11 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>11708</v>
+        <v>11742</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>19:30:48</t>
+          <t>19:34:12</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -9847,11 +9847,11 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>11732</v>
+        <v>11764</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>19:33:12</t>
+          <t>19:36:24</t>
         </is>
       </c>
       <c r="D589" t="n">
@@ -9863,11 +9863,11 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>11747</v>
+        <v>11781</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>19:34:42</t>
+          <t>19:38:6</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -9895,11 +9895,11 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>11806</v>
+        <v>11833</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>19:40:36</t>
+          <t>19:43:18</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -9911,11 +9911,11 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>11809</v>
+        <v>11864</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>19:40:54</t>
+          <t>19:46:24</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -9927,11 +9927,11 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>11885</v>
+        <v>11882</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>19:48:30</t>
+          <t>19:48:12</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -9943,11 +9943,11 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>11895</v>
+        <v>11885</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>19:49:30</t>
+          <t>19:48:30</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -9975,11 +9975,11 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>11901</v>
+        <v>11909</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>19:50:6</t>
+          <t>19:50:54</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -9991,11 +9991,11 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>11912</v>
+        <v>11964</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>19:51:12</t>
+          <t>19:56:24</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -10007,11 +10007,11 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>11915</v>
+        <v>11975</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>19:51:30</t>
+          <t>19:57:30</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -10023,11 +10023,11 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>11953</v>
+        <v>11998</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>19:55:18</t>
+          <t>19:59:48</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -10055,11 +10055,11 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>12031</v>
+        <v>12043</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>20:3:6</t>
+          <t>20:4:18</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -10071,11 +10071,11 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>12040</v>
+        <v>12057</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>20:4:0</t>
+          <t>20:5:42</t>
         </is>
       </c>
       <c r="D603" t="n">
@@ -10087,11 +10087,11 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>12051</v>
+        <v>12072</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>20:5:6</t>
+          <t>20:7:12</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -10103,11 +10103,11 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>12097</v>
+        <v>12090</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>20:9:42</t>
+          <t>20:9:0</t>
         </is>
       </c>
       <c r="D605" t="n">
@@ -10135,11 +10135,11 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>12104</v>
+        <v>12118</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>20:10:24</t>
+          <t>20:11:48</t>
         </is>
       </c>
       <c r="D607" t="n">
@@ -10151,11 +10151,11 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>12113</v>
+        <v>12121</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>20:11:18</t>
+          <t>20:12:6</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -10167,11 +10167,11 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>12119</v>
+        <v>12128</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>20:11:54</t>
+          <t>20:12:48</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -10183,11 +10183,11 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>12175</v>
+        <v>12145</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>20:17:30</t>
+          <t>20:14:30</t>
         </is>
       </c>
       <c r="D610" t="n">
@@ -10215,11 +10215,11 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>12227</v>
+        <v>12200</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>20:22:42</t>
+          <t>20:20:0</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -10231,11 +10231,11 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>12235</v>
+        <v>12256</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>20:23:30</t>
+          <t>20:25:36</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -10247,11 +10247,11 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>12257</v>
+        <v>12268</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>20:25:42</t>
+          <t>20:26:48</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -10263,11 +10263,11 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>12283</v>
+        <v>12269</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>20:28:18</t>
+          <t>20:26:54</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -10295,11 +10295,11 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>12315</v>
+        <v>12303</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>20:31:30</t>
+          <t>20:30:18</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -10311,11 +10311,11 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>12342</v>
+        <v>12325</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>20:34:12</t>
+          <t>20:32:30</t>
         </is>
       </c>
       <c r="D618" t="n">
@@ -10327,11 +10327,11 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>12372</v>
+        <v>12358</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>20:37:12</t>
+          <t>20:35:48</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -10343,11 +10343,11 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>12391</v>
+        <v>12374</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>20:39:6</t>
+          <t>20:37:24</t>
         </is>
       </c>
       <c r="D620" t="n">
@@ -10375,11 +10375,11 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>12400</v>
+        <v>12427</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>20:40:0</t>
+          <t>20:42:42</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -10391,11 +10391,11 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>12412</v>
+        <v>12441</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>20:41:12</t>
+          <t>20:44:6</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -10407,11 +10407,11 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>12470</v>
+        <v>12477</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>20:47:0</t>
+          <t>20:47:42</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -10423,11 +10423,11 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>12487</v>
+        <v>12489</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>20:48:42</t>
+          <t>20:48:54</t>
         </is>
       </c>
       <c r="D625" t="n">
@@ -10455,11 +10455,11 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>12516</v>
+        <v>12500</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>20:51:36</t>
+          <t>20:50:0</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -10471,11 +10471,11 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>12525</v>
+        <v>12544</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>20:52:30</t>
+          <t>20:54:24</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -10487,11 +10487,11 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>12588</v>
+        <v>12554</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>20:58:48</t>
+          <t>20:55:24</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -10503,11 +10503,11 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>12597</v>
+        <v>12594</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>20:59:42</t>
+          <t>20:59:24</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -10535,11 +10535,11 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>12624</v>
+        <v>12611</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>21:2:24</t>
+          <t>21:1:6</t>
         </is>
       </c>
       <c r="D632" t="n">
@@ -10551,11 +10551,11 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>12634</v>
+        <v>12614</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>21:3:24</t>
+          <t>21:1:24</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -10567,11 +10567,11 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>12647</v>
+        <v>12649</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>21:4:42</t>
+          <t>21:4:54</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -10583,11 +10583,11 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>12666</v>
+        <v>12677</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>21:6:36</t>
+          <t>21:7:42</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -10615,11 +10615,11 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>12703</v>
+        <v>12714</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>21:10:18</t>
+          <t>21:11:24</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -10631,11 +10631,11 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>12712</v>
+        <v>12718</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>21:11:12</t>
+          <t>21:11:48</t>
         </is>
       </c>
       <c r="D638" t="n">
@@ -10647,11 +10647,11 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>12729</v>
+        <v>12749</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>21:12:54</t>
+          <t>21:14:54</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -10663,11 +10663,11 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>12778</v>
+        <v>12762</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>21:17:48</t>
+          <t>21:16:12</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -10711,11 +10711,11 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>12865</v>
+        <v>12825</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>21:26:30</t>
+          <t>21:22:30</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -10727,11 +10727,11 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>12867</v>
+        <v>12865</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>21:26:42</t>
+          <t>21:26:30</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -10743,11 +10743,11 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>12885</v>
+        <v>12896</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>21:28:30</t>
+          <t>21:29:36</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -10775,11 +10775,11 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>12912</v>
+        <v>12946</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>21:31:12</t>
+          <t>21:34:36</t>
         </is>
       </c>
       <c r="D647" t="n">
@@ -10791,11 +10791,11 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>12949</v>
+        <v>12976</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>21:34:54</t>
+          <t>21:37:36</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -10807,11 +10807,11 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>12956</v>
+        <v>12982</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>21:35:36</t>
+          <t>21:38:12</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -10823,11 +10823,11 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>12973</v>
+        <v>12988</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>21:37:18</t>
+          <t>21:38:48</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -10855,11 +10855,11 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>13060</v>
+        <v>13003</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>21:46:0</t>
+          <t>21:40:18</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -10871,11 +10871,11 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>13061</v>
+        <v>13012</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>21:46:6</t>
+          <t>21:41:12</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -10887,11 +10887,11 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>13066</v>
+        <v>13047</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>21:46:36</t>
+          <t>21:44:42</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -10903,11 +10903,11 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>13089</v>
+        <v>13063</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>21:48:54</t>
+          <t>21:46:18</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -10935,11 +10935,11 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>13107</v>
+        <v>13136</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>21:50:42</t>
+          <t>21:53:36</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -10951,11 +10951,11 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>13115</v>
+        <v>13143</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>21:51:30</t>
+          <t>21:54:18</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -10967,11 +10967,11 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>13128</v>
+        <v>13159</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>21:52:48</t>
+          <t>21:55:54</t>
         </is>
       </c>
       <c r="D659" t="n">
@@ -10983,11 +10983,11 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>13178</v>
+        <v>13169</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>21:57:48</t>
+          <t>21:56:54</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -11015,11 +11015,11 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>13204</v>
+        <v>13201</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>22:0:24</t>
+          <t>22:0:6</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -11031,11 +11031,11 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>13231</v>
+        <v>13214</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>22:3:6</t>
+          <t>22:1:24</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -11047,11 +11047,11 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>13253</v>
+        <v>13230</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>22:5:18</t>
+          <t>22:3:0</t>
         </is>
       </c>
       <c r="D664" t="n">
@@ -11063,11 +11063,11 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>13267</v>
+        <v>13254</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>22:6:42</t>
+          <t>22:5:24</t>
         </is>
       </c>
       <c r="D665" t="n">
@@ -11095,11 +11095,11 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>13320</v>
+        <v>13326</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>22:12:0</t>
+          <t>22:12:36</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -11111,11 +11111,11 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>13328</v>
+        <v>13335</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>22:12:48</t>
+          <t>22:13:30</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -11127,11 +11127,11 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>13358</v>
+        <v>13373</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>22:15:48</t>
+          <t>22:17:18</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -11143,11 +11143,11 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>13392</v>
+        <v>13396</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>22:19:12</t>
+          <t>22:19:36</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -11175,11 +11175,11 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>13448</v>
+        <v>13401</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>22:24:48</t>
+          <t>22:20:6</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -11191,11 +11191,11 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>13457</v>
+        <v>13407</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>22:25:42</t>
+          <t>22:20:42</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -11207,11 +11207,11 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>13475</v>
+        <v>13436</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>22:27:30</t>
+          <t>22:23:36</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -11223,11 +11223,11 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>13476</v>
+        <v>13438</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>22:27:36</t>
+          <t>22:23:48</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -11255,11 +11255,11 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>13516</v>
+        <v>13504</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>22:31:36</t>
+          <t>22:30:24</t>
         </is>
       </c>
       <c r="D677" t="n">
@@ -11271,11 +11271,11 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>13581</v>
+        <v>13545</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>22:38:6</t>
+          <t>22:34:30</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -11287,11 +11287,11 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>13585</v>
+        <v>13563</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>22:38:30</t>
+          <t>22:36:18</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -11303,11 +11303,11 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>13598</v>
+        <v>13568</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>22:39:48</t>
+          <t>22:36:48</t>
         </is>
       </c>
       <c r="D680" t="n">
@@ -11335,11 +11335,11 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>13621</v>
+        <v>13605</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>22:42:6</t>
+          <t>22:40:30</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -11351,11 +11351,11 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>13648</v>
+        <v>13683</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>22:44:48</t>
+          <t>22:48:18</t>
         </is>
       </c>
       <c r="D683" t="n">
@@ -11367,11 +11367,11 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>13653</v>
+        <v>13689</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>22:45:18</t>
+          <t>22:48:54</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -11383,11 +11383,11 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>13657</v>
+        <v>13692</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>22:45:42</t>
+          <t>22:49:12</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -11415,11 +11415,11 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>13744</v>
+        <v>13724</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>22:54:24</t>
+          <t>22:52:24</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -11431,11 +11431,11 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>13748</v>
+        <v>13752</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>22:54:48</t>
+          <t>22:55:12</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -11447,11 +11447,11 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>13771</v>
+        <v>13757</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>22:57:6</t>
+          <t>22:55:42</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -11463,11 +11463,11 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>13792</v>
+        <v>13759</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>22:59:12</t>
+          <t>22:55:54</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -11495,11 +11495,11 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>13828</v>
+        <v>13804</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>23:2:48</t>
+          <t>23:0:24</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -11511,11 +11511,11 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>13853</v>
+        <v>13834</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>23:5:18</t>
+          <t>23:3:24</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -11527,11 +11527,11 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>13861</v>
+        <v>13867</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>23:6:6</t>
+          <t>23:6:42</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -11543,11 +11543,11 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>13887</v>
+        <v>13881</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>23:8:42</t>
+          <t>23:8:6</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -11575,11 +11575,11 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>13935</v>
+        <v>13909</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>23:13:30</t>
+          <t>23:10:54</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -11591,11 +11591,11 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>13955</v>
+        <v>13912</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>23:15:30</t>
+          <t>23:11:12</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -11607,11 +11607,11 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>13977</v>
+        <v>13953</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>23:17:42</t>
+          <t>23:15:18</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -11623,11 +11623,11 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>13997</v>
+        <v>13965</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>23:19:42</t>
+          <t>23:16:30</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -11655,11 +11655,11 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>14024</v>
+        <v>14017</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>23:22:24</t>
+          <t>23:21:42</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -11671,11 +11671,11 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>14068</v>
+        <v>14023</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>23:26:48</t>
+          <t>23:22:18</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -11687,11 +11687,11 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>14069</v>
+        <v>14060</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>23:26:54</t>
+          <t>23:26:0</t>
         </is>
       </c>
       <c r="D704" t="n">
@@ -11703,11 +11703,11 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>14086</v>
+        <v>14073</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>23:28:36</t>
+          <t>23:27:18</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -11735,11 +11735,11 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>14118</v>
+        <v>14103</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>23:31:48</t>
+          <t>23:30:18</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -11751,11 +11751,11 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>14132</v>
+        <v>14110</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>23:33:12</t>
+          <t>23:31:0</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -11767,11 +11767,11 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>14150</v>
+        <v>14155</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>23:35:0</t>
+          <t>23:35:30</t>
         </is>
       </c>
       <c r="D709" t="n">
@@ -11783,11 +11783,11 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>14167</v>
+        <v>14168</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>23:36:42</t>
+          <t>23:36:48</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -11815,11 +11815,11 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>14200</v>
+        <v>14219</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>23:40:0</t>
+          <t>23:41:54</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -11831,11 +11831,11 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>14256</v>
+        <v>14222</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>23:45:36</t>
+          <t>23:42:12</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -11847,11 +11847,11 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>14260</v>
+        <v>14236</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>23:46:0</t>
+          <t>23:43:36</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -11863,11 +11863,11 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>14261</v>
+        <v>14266</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>23:46:6</t>
+          <t>23:46:36</t>
         </is>
       </c>
       <c r="D715" t="n">
@@ -11895,11 +11895,11 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>14320</v>
+        <v>14330</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>23:52:0</t>
+          <t>23:53:0</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -11911,11 +11911,11 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>14369</v>
+        <v>14338</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>23:56:54</t>
+          <t>23:53:48</t>
         </is>
       </c>
       <c r="D718" t="n">
@@ -11927,11 +11927,11 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>14392</v>
+        <v>14372</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>23:59:12</t>
+          <t>23:57:12</t>
         </is>
       </c>
       <c r="D719" t="n">

--- a/Intermediate_data/random_list_interval.xlsx
+++ b/Intermediate_data/random_list_interval.xlsx
@@ -471,11 +471,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0:8:30</t>
+          <t>0:2:30</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -487,11 +487,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:8:36</t>
+          <t>0:6:6</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -503,11 +503,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:9:6</t>
+          <t>0:8:54</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -535,11 +535,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0:10:48</t>
+          <t>0:11:0</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -551,11 +551,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0:13:42</t>
+          <t>0:11:30</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -567,11 +567,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0:17:54</t>
+          <t>0:13:36</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -583,11 +583,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0:19:42</t>
+          <t>0:18:12</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -615,11 +615,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0:23:18</t>
+          <t>0:22:24</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -631,11 +631,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0:25:54</t>
+          <t>0:25:30</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -647,11 +647,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0:26:12</t>
+          <t>0:29:0</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -663,11 +663,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0:26:48</t>
+          <t>0:29:36</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -695,11 +695,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:30:36</t>
+          <t>0:31:24</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -711,11 +711,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0:36:18</t>
+          <t>0:36:36</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -727,11 +727,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0:36:30</t>
+          <t>0:37:36</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -743,11 +743,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0:39:30</t>
+          <t>0:38:48</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -775,11 +775,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0:43:12</t>
+          <t>0:40:24</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -791,11 +791,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0:43:36</t>
+          <t>0:42:12</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -807,11 +807,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0:47:36</t>
+          <t>0:48:18</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -823,11 +823,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0:48:30</t>
+          <t>0:49:42</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -855,11 +855,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0:50:54</t>
+          <t>0:52:36</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -871,11 +871,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0:52:0</t>
+          <t>0:54:30</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -887,11 +887,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0:53:18</t>
+          <t>0:56:0</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -903,11 +903,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0:54:30</t>
+          <t>0:58:42</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -935,11 +935,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1:0:6</t>
+          <t>1:1:18</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -951,11 +951,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1:0:36</t>
+          <t>1:1:48</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -967,11 +967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1:8:42</t>
+          <t>1:6:12</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -983,11 +983,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1:9:54</t>
+          <t>1:6:18</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1015,11 +1015,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1:11:48</t>
+          <t>1:10:48</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1031,11 +1031,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1:14:36</t>
+          <t>1:11:6</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1047,11 +1047,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1:16:0</t>
+          <t>1:13:48</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1063,11 +1063,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1:19:12</t>
+          <t>1:17:54</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1095,11 +1095,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1:21:0</t>
+          <t>1:20:54</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1111,11 +1111,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1:22:48</t>
+          <t>1:25:48</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1127,11 +1127,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1:26:0</t>
+          <t>1:26:48</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1143,11 +1143,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1:29:6</t>
+          <t>1:29:48</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1175,11 +1175,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1:32:48</t>
+          <t>1:30:0</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1191,11 +1191,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1:37:24</t>
+          <t>1:35:36</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1207,11 +1207,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1:38:18</t>
+          <t>1:36:36</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1223,11 +1223,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1:39:48</t>
+          <t>1:37:24</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1255,11 +1255,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1:40:18</t>
+          <t>1:41:24</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1271,11 +1271,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1010</v>
+        <v>1050</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1:41:0</t>
+          <t>1:45:0</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1287,11 +1287,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1042</v>
+        <v>1063</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1:44:12</t>
+          <t>1:46:18</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1303,11 +1303,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1:49:12</t>
+          <t>1:49:6</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1335,11 +1335,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1:52:18</t>
+          <t>1:51:6</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1351,11 +1351,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1:58:6</t>
+          <t>1:56:54</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1383,11 +1383,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1:59:48</t>
+          <t>1:59:36</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1415,11 +1415,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2:3:36</t>
+          <t>2:0:30</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1431,11 +1431,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1244</v>
+        <v>1221</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2:4:24</t>
+          <t>2:2:6</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1447,11 +1447,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1252</v>
+        <v>1270</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2:5:12</t>
+          <t>2:7:0</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1463,11 +1463,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1269</v>
+        <v>1293</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2:6:54</t>
+          <t>2:9:18</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1495,11 +1495,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2:11:24</t>
+          <t>2:10:54</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1511,11 +1511,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2:11:30</t>
+          <t>2:12:6</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1527,11 +1527,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1321</v>
+        <v>1349</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2:12:6</t>
+          <t>2:14:54</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1543,11 +1543,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2:14:48</t>
+          <t>2:15:48</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1575,11 +1575,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1442</v>
+        <v>1408</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2:24:12</t>
+          <t>2:20:48</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1591,11 +1591,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1457</v>
+        <v>1466</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2:25:42</t>
+          <t>2:26:36</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1607,11 +1607,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2:28:0</t>
+          <t>2:27:18</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1623,11 +1623,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2:29:54</t>
+          <t>2:29:18</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1655,11 +1655,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1513</v>
+        <v>1540</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2:31:18</t>
+          <t>2:34:0</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1671,11 +1671,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2:33:42</t>
+          <t>2:34:18</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1687,11 +1687,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1543</v>
+        <v>1595</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2:34:18</t>
+          <t>2:39:30</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1703,11 +1703,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1585</v>
+        <v>1599</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2:38:30</t>
+          <t>2:39:54</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1735,11 +1735,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1650</v>
+        <v>1622</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2:45:0</t>
+          <t>2:42:12</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1751,11 +1751,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2:45:18</t>
+          <t>2:45:54</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1767,11 +1767,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1660</v>
+        <v>1681</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2:46:0</t>
+          <t>2:48:6</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1783,11 +1783,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2:48:18</t>
+          <t>2:48:12</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1815,11 +1815,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1723</v>
+        <v>1745</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2:52:18</t>
+          <t>2:54:30</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1831,11 +1831,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2:55:36</t>
+          <t>2:54:36</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1847,11 +1847,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1758</v>
+        <v>1776</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2:55:48</t>
+          <t>2:57:36</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1863,11 +1863,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2:58:42</t>
+          <t>2:59:54</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1895,11 +1895,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1837</v>
+        <v>1812</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3:3:42</t>
+          <t>3:1:12</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -1911,11 +1911,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1847</v>
+        <v>1818</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3:4:42</t>
+          <t>3:1:48</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -1927,11 +1927,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1858</v>
+        <v>1837</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3:5:48</t>
+          <t>3:3:42</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -1943,11 +1943,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1873</v>
+        <v>1882</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3:7:18</t>
+          <t>3:8:12</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -1975,11 +1975,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1919</v>
+        <v>1935</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3:11:54</t>
+          <t>3:13:30</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -1991,11 +1991,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1921</v>
+        <v>1947</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3:12:6</t>
+          <t>3:14:42</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2007,11 +2007,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1935</v>
+        <v>1995</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3:13:30</t>
+          <t>3:19:30</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2023,11 +2023,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1968</v>
+        <v>1997</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3:16:48</t>
+          <t>3:19:42</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2055,11 +2055,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2029</v>
+        <v>2057</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3:22:54</t>
+          <t>3:25:42</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2071,11 +2071,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2033</v>
+        <v>2060</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3:23:18</t>
+          <t>3:26:0</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2087,11 +2087,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2036</v>
+        <v>2083</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3:23:36</t>
+          <t>3:28:18</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2103,11 +2103,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3:29:48</t>
+          <t>3:29:24</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2135,11 +2135,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3:31:12</t>
+          <t>3:30:42</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2151,11 +2151,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3:31:24</t>
+          <t>3:31:42</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2167,11 +2167,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2135</v>
+        <v>2146</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3:33:30</t>
+          <t>3:34:36</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2183,11 +2183,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3:35:30</t>
+          <t>3:37:0</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2215,11 +2215,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2216</v>
+        <v>2249</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3:41:36</t>
+          <t>3:44:54</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2231,11 +2231,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2217</v>
+        <v>2251</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3:41:42</t>
+          <t>3:45:6</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2247,11 +2247,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2223</v>
+        <v>2271</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3:42:18</t>
+          <t>3:47:6</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2263,11 +2263,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2229</v>
+        <v>2298</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3:42:54</t>
+          <t>3:49:48</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2295,11 +2295,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3:51:6</t>
+          <t>3:50:54</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2311,11 +2311,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2315</v>
+        <v>2332</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3:51:30</t>
+          <t>3:53:12</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2327,11 +2327,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3:53:0</t>
+          <t>3:53:24</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2343,11 +2343,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2370</v>
+        <v>2336</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3:57:0</t>
+          <t>3:53:36</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2375,11 +2375,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2404</v>
+        <v>2412</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4:0:24</t>
+          <t>4:1:12</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2391,11 +2391,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4:2:18</t>
+          <t>4:1:54</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2407,11 +2407,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2447</v>
+        <v>2452</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4:4:42</t>
+          <t>4:5:12</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2423,11 +2423,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2491</v>
+        <v>2468</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4:9:6</t>
+          <t>4:6:48</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2455,11 +2455,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2507</v>
+        <v>2525</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4:10:42</t>
+          <t>4:12:30</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2471,11 +2471,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2528</v>
+        <v>2534</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4:12:48</t>
+          <t>4:13:24</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2487,11 +2487,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4:16:6</t>
+          <t>4:15:48</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2503,11 +2503,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2585</v>
+        <v>2599</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4:18:30</t>
+          <t>4:19:54</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2535,11 +2535,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2619</v>
+        <v>2604</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4:21:54</t>
+          <t>4:20:24</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2551,11 +2551,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2635</v>
+        <v>2611</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4:23:30</t>
+          <t>4:21:6</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2567,11 +2567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4:23:48</t>
+          <t>4:23:24</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2583,11 +2583,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2677</v>
+        <v>2694</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4:27:42</t>
+          <t>4:29:24</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2615,11 +2615,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2773</v>
+        <v>2708</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4:37:18</t>
+          <t>4:30:48</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2631,11 +2631,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2784</v>
+        <v>2718</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4:38:24</t>
+          <t>4:31:48</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2647,11 +2647,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2785</v>
+        <v>2724</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4:38:30</t>
+          <t>4:32:24</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2663,11 +2663,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2793</v>
+        <v>2777</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4:39:18</t>
+          <t>4:37:42</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2695,11 +2695,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2835</v>
+        <v>2866</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4:43:30</t>
+          <t>4:46:36</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2711,11 +2711,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2845</v>
+        <v>2873</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4:44:30</t>
+          <t>4:47:18</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2727,11 +2727,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2865</v>
+        <v>2875</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4:46:30</t>
+          <t>4:47:30</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2743,11 +2743,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2872</v>
+        <v>2892</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4:47:12</t>
+          <t>4:49:12</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -2775,11 +2775,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2917</v>
+        <v>2924</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4:51:42</t>
+          <t>4:52:24</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -2791,11 +2791,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2919</v>
+        <v>2959</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4:51:54</t>
+          <t>4:55:54</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -2807,11 +2807,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2923</v>
+        <v>2978</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4:52:18</t>
+          <t>4:57:48</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -2823,11 +2823,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2998</v>
+        <v>2987</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4:59:48</t>
+          <t>4:58:42</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -2855,11 +2855,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3043</v>
+        <v>3000</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5:4:18</t>
+          <t>5:0:0</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -2871,11 +2871,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3049</v>
+        <v>3025</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5:4:54</t>
+          <t>5:2:30</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -2887,11 +2887,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3076</v>
+        <v>3081</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5:7:36</t>
+          <t>5:8:6</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -2903,11 +2903,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3078</v>
+        <v>3099</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5:7:48</t>
+          <t>5:9:54</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -2935,11 +2935,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3101</v>
+        <v>3107</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5:10:6</t>
+          <t>5:10:42</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -2951,11 +2951,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3134</v>
+        <v>3124</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5:13:24</t>
+          <t>5:12:24</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -2967,11 +2967,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3154</v>
+        <v>3135</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5:15:24</t>
+          <t>5:13:30</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -2983,11 +2983,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3194</v>
+        <v>3199</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5:19:24</t>
+          <t>5:19:54</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3015,11 +3015,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5:20:42</t>
+          <t>5:20:18</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3031,11 +3031,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3208</v>
+        <v>3232</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5:20:48</t>
+          <t>5:23:12</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3047,11 +3047,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3247</v>
+        <v>3255</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5:24:42</t>
+          <t>5:25:30</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3063,11 +3063,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3279</v>
+        <v>3258</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5:27:54</t>
+          <t>5:25:48</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3095,11 +3095,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5:30:12</t>
+          <t>5:30:24</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3111,11 +3111,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3328</v>
+        <v>3324</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5:32:48</t>
+          <t>5:32:24</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3127,11 +3127,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3343</v>
+        <v>3330</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5:34:18</t>
+          <t>5:33:0</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3143,11 +3143,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3392</v>
+        <v>3356</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5:39:12</t>
+          <t>5:35:36</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3175,11 +3175,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3422</v>
+        <v>3403</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5:42:12</t>
+          <t>5:40:18</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3191,11 +3191,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3425</v>
+        <v>3443</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5:42:30</t>
+          <t>5:44:18</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3207,11 +3207,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3435</v>
+        <v>3467</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5:43:30</t>
+          <t>5:46:42</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3223,11 +3223,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>5:47:42</t>
+          <t>5:47:48</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3255,11 +3255,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3515</v>
+        <v>3509</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>5:51:30</t>
+          <t>5:50:54</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3271,11 +3271,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3521</v>
+        <v>3512</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5:52:6</t>
+          <t>5:51:12</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3287,11 +3287,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3555</v>
+        <v>3528</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>5:55:30</t>
+          <t>5:52:48</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3303,11 +3303,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3582</v>
+        <v>3547</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>5:58:12</t>
+          <t>5:54:42</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3335,11 +3335,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3623</v>
+        <v>3645</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6:2:18</t>
+          <t>6:4:30</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3351,11 +3351,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3674</v>
+        <v>3647</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6:7:24</t>
+          <t>6:4:42</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3367,11 +3367,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3690</v>
+        <v>3653</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6:9:0</t>
+          <t>6:5:18</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3383,11 +3383,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3696</v>
+        <v>3671</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6:9:36</t>
+          <t>6:7:6</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3415,11 +3415,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3700</v>
+        <v>3733</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6:10:0</t>
+          <t>6:13:18</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3431,11 +3431,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3723</v>
+        <v>3781</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6:12:18</t>
+          <t>6:18:6</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3447,11 +3447,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3730</v>
+        <v>3788</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>6:13:0</t>
+          <t>6:18:48</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3463,11 +3463,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3764</v>
+        <v>3793</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>6:16:24</t>
+          <t>6:19:18</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3495,11 +3495,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3818</v>
+        <v>3840</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6:21:48</t>
+          <t>6:24:0</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3511,11 +3511,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3820</v>
+        <v>3856</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6:22:0</t>
+          <t>6:25:36</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3527,11 +3527,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3855</v>
+        <v>3873</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6:25:30</t>
+          <t>6:27:18</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3543,11 +3543,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3867</v>
+        <v>3894</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>6:26:42</t>
+          <t>6:29:24</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3575,11 +3575,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3918</v>
+        <v>3900</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6:31:48</t>
+          <t>6:30:0</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3591,11 +3591,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3932</v>
+        <v>3935</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6:33:12</t>
+          <t>6:33:30</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3607,11 +3607,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3938</v>
+        <v>3947</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>6:33:48</t>
+          <t>6:34:42</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3623,11 +3623,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3971</v>
+        <v>3999</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>6:37:6</t>
+          <t>6:39:54</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -3655,11 +3655,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>6:40:30</t>
+          <t>6:40:18</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -3671,11 +3671,11 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4038</v>
+        <v>4018</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6:43:48</t>
+          <t>6:41:48</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -3687,11 +3687,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4054</v>
+        <v>4077</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6:45:24</t>
+          <t>6:47:42</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -3703,11 +3703,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4061</v>
+        <v>4078</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6:46:6</t>
+          <t>6:47:48</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -3735,11 +3735,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4143</v>
+        <v>4109</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6:54:18</t>
+          <t>6:50:54</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -3751,11 +3751,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4144</v>
+        <v>4116</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6:54:24</t>
+          <t>6:51:36</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -3767,11 +3767,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4177</v>
+        <v>4117</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>6:57:42</t>
+          <t>6:51:42</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -3783,11 +3783,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4192</v>
+        <v>4173</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>6:59:12</t>
+          <t>6:57:18</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -3815,11 +3815,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4206</v>
+        <v>4213</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>7:0:36</t>
+          <t>7:1:18</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -3831,11 +3831,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4211</v>
+        <v>4228</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>7:1:6</t>
+          <t>7:2:48</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -3847,11 +3847,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4229</v>
+        <v>4231</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>7:2:54</t>
+          <t>7:3:6</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -3863,11 +3863,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4245</v>
+        <v>4297</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7:4:30</t>
+          <t>7:9:42</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -3895,11 +3895,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4343</v>
+        <v>4326</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7:14:18</t>
+          <t>7:12:36</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -3911,11 +3911,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4378</v>
+        <v>4367</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7:17:48</t>
+          <t>7:16:42</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -3927,11 +3927,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4385</v>
+        <v>4380</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>7:18:30</t>
+          <t>7:18:0</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -3943,11 +3943,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4393</v>
+        <v>4388</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>7:19:18</t>
+          <t>7:18:48</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -3975,11 +3975,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4408</v>
+        <v>4403</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>7:20:48</t>
+          <t>7:20:18</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -3991,11 +3991,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4473</v>
+        <v>4420</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7:27:18</t>
+          <t>7:22:0</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4007,11 +4007,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4481</v>
+        <v>4444</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>7:28:6</t>
+          <t>7:24:24</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4023,11 +4023,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4496</v>
+        <v>4456</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>7:29:36</t>
+          <t>7:25:36</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4055,11 +4055,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>7:31:48</t>
+          <t>7:31:36</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4071,11 +4071,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4544</v>
+        <v>4533</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>7:34:24</t>
+          <t>7:33:18</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4087,11 +4087,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4547</v>
+        <v>4561</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>7:34:42</t>
+          <t>7:36:6</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4103,11 +4103,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4557</v>
+        <v>4597</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>7:35:42</t>
+          <t>7:39:42</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4135,11 +4135,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>7:40:24</t>
+          <t>7:40:12</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4151,11 +4151,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4609</v>
+        <v>4640</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7:40:54</t>
+          <t>7:44:0</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4167,11 +4167,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4694</v>
+        <v>4683</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>7:49:24</t>
+          <t>7:48:18</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4183,11 +4183,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4696</v>
+        <v>4686</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>7:49:36</t>
+          <t>7:48:36</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4215,11 +4215,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4705</v>
+        <v>4703</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7:50:30</t>
+          <t>7:50:18</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4231,11 +4231,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4724</v>
+        <v>4748</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>7:52:24</t>
+          <t>7:54:48</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4263,11 +4263,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4764</v>
+        <v>4777</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>7:56:24</t>
+          <t>7:57:42</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4295,11 +4295,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4818</v>
+        <v>4809</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8:1:48</t>
+          <t>8:0:54</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4311,11 +4311,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4845</v>
+        <v>4823</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>8:4:30</t>
+          <t>8:2:18</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -4327,11 +4327,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4861</v>
+        <v>4825</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8:6:6</t>
+          <t>8:2:30</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4343,11 +4343,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4881</v>
+        <v>4891</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8:8:6</t>
+          <t>8:9:6</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -4375,11 +4375,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4908</v>
+        <v>4930</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8:10:48</t>
+          <t>8:13:0</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4391,11 +4391,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4964</v>
+        <v>4932</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8:16:24</t>
+          <t>8:13:12</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4407,11 +4407,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4976</v>
+        <v>4961</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8:17:36</t>
+          <t>8:16:6</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4423,11 +4423,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4989</v>
+        <v>4971</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8:18:54</t>
+          <t>8:17:6</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -4487,11 +4487,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>5059</v>
+        <v>5044</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>8:25:54</t>
+          <t>8:24:24</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -4503,11 +4503,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>5087</v>
+        <v>5073</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8:28:42</t>
+          <t>8:27:18</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -4535,11 +4535,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>5113</v>
+        <v>5130</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>8:31:18</t>
+          <t>8:33:0</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -4551,11 +4551,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>5115</v>
+        <v>5135</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>8:31:30</t>
+          <t>8:33:30</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -4567,11 +4567,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8:36:42</t>
+          <t>8:36:36</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -4583,11 +4583,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5187</v>
+        <v>5178</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>8:38:42</t>
+          <t>8:37:48</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -4615,11 +4615,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5231</v>
+        <v>5238</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8:43:6</t>
+          <t>8:43:48</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -4631,11 +4631,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5249</v>
+        <v>5245</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>8:44:54</t>
+          <t>8:44:30</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -4647,11 +4647,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5259</v>
+        <v>5287</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>8:45:54</t>
+          <t>8:48:42</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -4663,11 +4663,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5280</v>
+        <v>5291</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8:48:0</t>
+          <t>8:49:6</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -4695,11 +4695,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5306</v>
+        <v>5301</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>8:50:36</t>
+          <t>8:50:6</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -4711,11 +4711,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5309</v>
+        <v>5345</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>8:50:54</t>
+          <t>8:54:30</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -4727,11 +4727,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5321</v>
+        <v>5376</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>8:52:6</t>
+          <t>8:57:36</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -4743,11 +4743,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5374</v>
+        <v>5396</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8:57:24</t>
+          <t>8:59:36</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -4775,11 +4775,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5402</v>
+        <v>5406</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>9:0:12</t>
+          <t>9:0:36</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -4791,11 +4791,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>5459</v>
+        <v>5416</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>9:5:54</t>
+          <t>9:1:36</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -4807,11 +4807,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>5471</v>
+        <v>5473</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>9:7:6</t>
+          <t>9:7:18</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -4823,11 +4823,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5489</v>
+        <v>5480</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>9:8:54</t>
+          <t>9:8:0</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -4855,11 +4855,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5543</v>
+        <v>5517</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>9:14:18</t>
+          <t>9:11:42</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -4871,11 +4871,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5550</v>
+        <v>5518</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>9:15:0</t>
+          <t>9:11:48</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -4887,11 +4887,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5554</v>
+        <v>5523</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9:15:24</t>
+          <t>9:12:18</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -4903,11 +4903,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5567</v>
+        <v>5535</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>9:16:42</t>
+          <t>9:13:30</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -4935,11 +4935,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5621</v>
+        <v>5601</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>9:22:6</t>
+          <t>9:20:6</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -4951,11 +4951,11 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>5649</v>
+        <v>5641</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>9:24:54</t>
+          <t>9:24:6</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -4967,11 +4967,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>5660</v>
+        <v>5663</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>9:26:0</t>
+          <t>9:26:18</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -4983,11 +4983,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5666</v>
+        <v>5675</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>9:26:36</t>
+          <t>9:27:30</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5015,11 +5015,11 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>5706</v>
+        <v>5748</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>9:30:36</t>
+          <t>9:34:48</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5031,11 +5031,11 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>5725</v>
+        <v>5764</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>9:32:30</t>
+          <t>9:36:24</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5047,11 +5047,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>5763</v>
+        <v>5768</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>9:36:18</t>
+          <t>9:36:48</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5063,11 +5063,11 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>5787</v>
+        <v>5783</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>9:38:42</t>
+          <t>9:38:18</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5095,11 +5095,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5820</v>
+        <v>5817</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>9:42:0</t>
+          <t>9:41:42</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5111,11 +5111,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5838</v>
+        <v>5827</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>9:43:48</t>
+          <t>9:42:42</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5127,11 +5127,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5874</v>
+        <v>5838</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>9:47:24</t>
+          <t>9:43:48</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5143,11 +5143,11 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5885</v>
+        <v>5854</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>9:48:30</t>
+          <t>9:45:24</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5175,11 +5175,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5923</v>
+        <v>5902</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>9:52:18</t>
+          <t>9:50:12</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5191,11 +5191,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5945</v>
+        <v>5909</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>9:54:30</t>
+          <t>9:50:54</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5207,11 +5207,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5965</v>
+        <v>5952</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>9:56:30</t>
+          <t>9:55:12</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5255,11 +5255,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6003</v>
+        <v>6029</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>10:0:18</t>
+          <t>10:2:54</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -5271,11 +5271,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6018</v>
+        <v>6051</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>10:1:48</t>
+          <t>10:5:6</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -5287,11 +5287,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6053</v>
+        <v>6059</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>10:5:18</t>
+          <t>10:5:54</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -5303,11 +5303,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6073</v>
+        <v>6078</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>10:7:18</t>
+          <t>10:7:48</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -5335,11 +5335,11 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6115</v>
+        <v>6108</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>10:11:30</t>
+          <t>10:10:48</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -5351,11 +5351,11 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>6173</v>
+        <v>6131</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>10:17:18</t>
+          <t>10:13:6</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -5367,11 +5367,11 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>6190</v>
+        <v>6138</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10:19:0</t>
+          <t>10:13:48</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -5383,11 +5383,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>6195</v>
+        <v>6156</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>10:19:30</t>
+          <t>10:15:36</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -5415,11 +5415,11 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>6218</v>
+        <v>6240</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>10:21:48</t>
+          <t>10:24:0</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -5431,11 +5431,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>6226</v>
+        <v>6249</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>10:22:36</t>
+          <t>10:24:54</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -5447,11 +5447,11 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>6228</v>
+        <v>6256</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>10:22:48</t>
+          <t>10:25:36</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -5463,11 +5463,11 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>6287</v>
+        <v>6299</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>10:28:42</t>
+          <t>10:29:54</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -5495,11 +5495,11 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>6339</v>
+        <v>6325</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>10:33:54</t>
+          <t>10:32:30</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -5511,11 +5511,11 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>6342</v>
+        <v>6369</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>10:34:12</t>
+          <t>10:36:54</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -5527,11 +5527,11 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>6345</v>
+        <v>6381</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>10:34:30</t>
+          <t>10:38:6</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -5543,11 +5543,11 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>6358</v>
+        <v>6389</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>10:35:48</t>
+          <t>10:38:54</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -5575,11 +5575,11 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>6413</v>
+        <v>6444</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>10:41:18</t>
+          <t>10:44:24</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -5591,11 +5591,11 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>6429</v>
+        <v>6463</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10:42:54</t>
+          <t>10:46:18</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -5607,11 +5607,11 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>6443</v>
+        <v>6470</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10:44:18</t>
+          <t>10:47:0</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -5623,11 +5623,11 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>6448</v>
+        <v>6499</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>10:44:48</t>
+          <t>10:49:54</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -5655,11 +5655,11 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>6507</v>
+        <v>6508</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>10:50:42</t>
+          <t>10:50:48</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -5671,11 +5671,11 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>6550</v>
+        <v>6543</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>10:55:0</t>
+          <t>10:54:18</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -5687,11 +5687,11 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>6562</v>
+        <v>6558</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>10:56:12</t>
+          <t>10:55:48</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -5703,11 +5703,11 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>6593</v>
+        <v>6598</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10:59:18</t>
+          <t>10:59:48</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -5735,11 +5735,11 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>6605</v>
+        <v>6600</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>11:0:30</t>
+          <t>11:0:0</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -5751,11 +5751,11 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>6618</v>
+        <v>6605</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>11:1:48</t>
+          <t>11:0:30</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -5767,11 +5767,11 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>6679</v>
+        <v>6613</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>11:7:54</t>
+          <t>11:1:18</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -5783,11 +5783,11 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>6683</v>
+        <v>6688</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>11:8:18</t>
+          <t>11:8:48</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -5815,11 +5815,11 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>6705</v>
+        <v>6710</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>11:10:30</t>
+          <t>11:11:0</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -5831,11 +5831,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>6770</v>
+        <v>6761</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>11:17:0</t>
+          <t>11:16:6</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -5847,11 +5847,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>6790</v>
+        <v>6778</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>11:19:0</t>
+          <t>11:17:48</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -5863,11 +5863,11 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>6797</v>
+        <v>6794</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>11:19:42</t>
+          <t>11:19:24</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -5895,11 +5895,11 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>6801</v>
+        <v>6828</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>11:20:6</t>
+          <t>11:22:48</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -5911,11 +5911,11 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>6822</v>
+        <v>6849</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>11:22:12</t>
+          <t>11:24:54</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -5927,11 +5927,11 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>6864</v>
+        <v>6857</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>11:26:24</t>
+          <t>11:25:42</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -5943,11 +5943,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>6897</v>
+        <v>6869</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>11:29:42</t>
+          <t>11:26:54</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -5975,11 +5975,11 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>6903</v>
+        <v>6904</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>11:30:18</t>
+          <t>11:30:24</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -5991,11 +5991,11 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>6906</v>
+        <v>6922</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>11:30:36</t>
+          <t>11:32:12</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -6007,11 +6007,11 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>6943</v>
+        <v>6926</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>11:34:18</t>
+          <t>11:32:36</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -6023,11 +6023,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>6956</v>
+        <v>6974</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>11:35:36</t>
+          <t>11:37:24</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -6055,11 +6055,11 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>7009</v>
+        <v>7027</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>11:40:54</t>
+          <t>11:42:42</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -6071,11 +6071,11 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>7042</v>
+        <v>7054</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11:44:12</t>
+          <t>11:45:24</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -6087,11 +6087,11 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>7052</v>
+        <v>7087</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>11:45:12</t>
+          <t>11:48:42</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -6103,11 +6103,11 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>7067</v>
+        <v>7096</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>11:46:42</t>
+          <t>11:49:36</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -6135,11 +6135,11 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>7107</v>
+        <v>7103</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>11:50:42</t>
+          <t>11:50:18</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -6151,11 +6151,11 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>7125</v>
+        <v>7107</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>11:52:30</t>
+          <t>11:50:42</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -6167,11 +6167,11 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>7137</v>
+        <v>7144</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>11:53:42</t>
+          <t>11:54:24</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -6183,11 +6183,11 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>7163</v>
+        <v>7158</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>11:56:18</t>
+          <t>11:55:48</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -6215,11 +6215,11 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>7205</v>
+        <v>7213</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>12:0:30</t>
+          <t>12:1:18</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -6231,11 +6231,11 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>7209</v>
+        <v>7252</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>12:0:54</t>
+          <t>12:5:12</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -6247,11 +6247,11 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>7286</v>
+        <v>7274</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>12:8:36</t>
+          <t>12:7:24</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -6263,11 +6263,11 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>7287</v>
+        <v>7279</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>12:8:42</t>
+          <t>12:7:54</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -6295,11 +6295,11 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>7302</v>
+        <v>7310</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>12:10:12</t>
+          <t>12:11:0</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -6311,11 +6311,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>7337</v>
+        <v>7314</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>12:13:42</t>
+          <t>12:11:24</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -6327,11 +6327,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>7359</v>
+        <v>7369</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>12:15:54</t>
+          <t>12:16:54</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -6343,11 +6343,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>7366</v>
+        <v>7391</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>12:16:36</t>
+          <t>12:19:6</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -6375,11 +6375,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>7407</v>
+        <v>7424</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>12:20:42</t>
+          <t>12:22:24</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -6391,11 +6391,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>7421</v>
+        <v>7453</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>12:22:6</t>
+          <t>12:25:18</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -6407,11 +6407,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>7457</v>
+        <v>7455</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>12:25:42</t>
+          <t>12:25:30</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -6423,11 +6423,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>7478</v>
+        <v>7475</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>12:27:48</t>
+          <t>12:27:30</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -6455,11 +6455,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>7505</v>
+        <v>7519</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>12:30:30</t>
+          <t>12:31:54</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -6471,11 +6471,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>7531</v>
+        <v>7551</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>12:33:6</t>
+          <t>12:35:6</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -6487,11 +6487,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>7533</v>
+        <v>7569</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>12:33:18</t>
+          <t>12:36:54</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -6503,11 +6503,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>7571</v>
+        <v>7596</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>12:37:6</t>
+          <t>12:39:36</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -6535,11 +6535,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>7607</v>
+        <v>7633</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>12:40:42</t>
+          <t>12:43:18</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -6551,11 +6551,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>7630</v>
+        <v>7648</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>12:43:0</t>
+          <t>12:44:48</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -6567,11 +6567,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>7663</v>
+        <v>7669</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>12:46:18</t>
+          <t>12:46:54</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -6583,11 +6583,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>7699</v>
+        <v>7684</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>12:49:54</t>
+          <t>12:48:24</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -6615,11 +6615,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>7727</v>
+        <v>7720</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>12:52:42</t>
+          <t>12:52:0</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -6631,11 +6631,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>7732</v>
+        <v>7745</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>12:53:12</t>
+          <t>12:54:30</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -6647,11 +6647,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>7760</v>
+        <v>7763</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>12:56:0</t>
+          <t>12:56:18</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -6663,11 +6663,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>7770</v>
+        <v>7769</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>12:57:0</t>
+          <t>12:56:54</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -6695,11 +6695,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>7829</v>
+        <v>7801</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>13:2:54</t>
+          <t>13:0:6</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -6711,11 +6711,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>7842</v>
+        <v>7832</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>13:4:12</t>
+          <t>13:3:12</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -6727,11 +6727,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>7871</v>
+        <v>7864</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>13:7:6</t>
+          <t>13:6:24</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -6743,11 +6743,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>7881</v>
+        <v>7894</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>13:8:6</t>
+          <t>13:9:24</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -6775,11 +6775,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>7902</v>
+        <v>7904</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>13:10:12</t>
+          <t>13:10:24</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -6791,11 +6791,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>7911</v>
+        <v>7957</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>13:11:6</t>
+          <t>13:15:42</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -6807,11 +6807,11 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7951</v>
+        <v>7967</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13:15:6</t>
+          <t>13:16:42</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -6823,11 +6823,11 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7997</v>
+        <v>7974</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>13:19:42</t>
+          <t>13:17:24</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -6871,11 +6871,11 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>8016</v>
+        <v>8015</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>13:21:36</t>
+          <t>13:21:30</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -6887,11 +6887,11 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>8020</v>
+        <v>8060</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>13:22:0</t>
+          <t>13:26:0</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -6903,11 +6903,11 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>8078</v>
+        <v>8077</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>13:27:48</t>
+          <t>13:27:42</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -6935,11 +6935,11 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>8110</v>
+        <v>8120</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>13:31:0</t>
+          <t>13:32:0</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -6951,11 +6951,11 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>8124</v>
+        <v>8135</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>13:32:24</t>
+          <t>13:33:30</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -6967,11 +6967,11 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>8126</v>
+        <v>8155</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>13:32:36</t>
+          <t>13:35:30</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -6983,11 +6983,11 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>8168</v>
+        <v>8171</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>13:36:48</t>
+          <t>13:37:6</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -7015,11 +7015,11 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>8208</v>
+        <v>8206</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>13:40:48</t>
+          <t>13:40:36</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -7031,11 +7031,11 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>8277</v>
+        <v>8260</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>13:47:42</t>
+          <t>13:46:0</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -7047,11 +7047,11 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>8281</v>
+        <v>8291</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>13:48:6</t>
+          <t>13:49:6</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -7063,11 +7063,11 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>8284</v>
+        <v>8295</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>13:48:24</t>
+          <t>13:49:30</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -7095,11 +7095,11 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>8341</v>
+        <v>8314</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>13:54:6</t>
+          <t>13:51:24</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -7111,11 +7111,11 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>8355</v>
+        <v>8370</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>13:55:30</t>
+          <t>13:57:0</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -7127,11 +7127,11 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>8384</v>
+        <v>8375</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>13:58:24</t>
+          <t>13:57:30</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -7143,11 +7143,11 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>8391</v>
+        <v>8384</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>13:59:6</t>
+          <t>13:58:24</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -7175,11 +7175,11 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>8403</v>
+        <v>8402</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>14:0:18</t>
+          <t>14:0:12</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -7191,11 +7191,11 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>8404</v>
+        <v>8416</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>14:0:24</t>
+          <t>14:1:36</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -7207,11 +7207,11 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>8407</v>
+        <v>8428</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>14:0:42</t>
+          <t>14:2:48</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -7223,11 +7223,11 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>8474</v>
+        <v>8483</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>14:7:24</t>
+          <t>14:8:18</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -7255,11 +7255,11 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>8500</v>
+        <v>8505</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>14:10:0</t>
+          <t>14:10:30</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -7271,11 +7271,11 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>8501</v>
+        <v>8508</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>14:10:6</t>
+          <t>14:10:48</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -7287,11 +7287,11 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>8540</v>
+        <v>8521</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>14:14:0</t>
+          <t>14:12:6</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -7303,11 +7303,11 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>8543</v>
+        <v>8558</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>14:14:18</t>
+          <t>14:15:48</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -7335,11 +7335,11 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>8607</v>
+        <v>8650</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>14:20:42</t>
+          <t>14:25:0</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -7351,11 +7351,11 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8618</v>
+        <v>8674</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>14:21:48</t>
+          <t>14:27:24</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -7367,11 +7367,11 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>8664</v>
+        <v>8680</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>14:26:24</t>
+          <t>14:28:0</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -7383,11 +7383,11 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>8677</v>
+        <v>8690</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>14:27:42</t>
+          <t>14:29:0</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -7415,11 +7415,11 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>8726</v>
+        <v>8701</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>14:32:36</t>
+          <t>14:30:6</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -7431,11 +7431,11 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>8734</v>
+        <v>8748</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>14:33:24</t>
+          <t>14:34:48</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -7447,11 +7447,11 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>8772</v>
+        <v>8751</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>14:37:12</t>
+          <t>14:35:6</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -7463,11 +7463,11 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>8785</v>
+        <v>8787</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>14:38:30</t>
+          <t>14:38:42</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -7495,11 +7495,11 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>8812</v>
+        <v>8835</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>14:41:12</t>
+          <t>14:43:30</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -7511,11 +7511,11 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>8877</v>
+        <v>8868</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>14:47:42</t>
+          <t>14:46:48</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -7527,11 +7527,11 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>8878</v>
+        <v>8873</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>14:47:48</t>
+          <t>14:47:18</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -7543,11 +7543,11 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>8886</v>
+        <v>8885</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>14:48:36</t>
+          <t>14:48:30</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -7575,11 +7575,11 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>8918</v>
+        <v>8924</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>14:51:48</t>
+          <t>14:52:24</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -7591,11 +7591,11 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>8924</v>
+        <v>8932</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>14:52:24</t>
+          <t>14:53:12</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -7607,11 +7607,11 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>8935</v>
+        <v>8942</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>14:53:30</t>
+          <t>14:54:12</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -7623,11 +7623,11 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>8996</v>
+        <v>8943</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>14:59:36</t>
+          <t>14:54:18</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -7655,11 +7655,11 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>9060</v>
+        <v>9003</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>15:6:0</t>
+          <t>15:0:18</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -7671,11 +7671,11 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>9067</v>
+        <v>9030</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>15:6:42</t>
+          <t>15:3:0</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -7687,11 +7687,11 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>9070</v>
+        <v>9041</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>15:7:0</t>
+          <t>15:4:6</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -7703,11 +7703,11 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>9086</v>
+        <v>9078</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>15:8:36</t>
+          <t>15:7:48</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -7735,11 +7735,11 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>9164</v>
+        <v>9132</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>15:16:24</t>
+          <t>15:13:12</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -7751,11 +7751,11 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>9168</v>
+        <v>9136</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>15:16:48</t>
+          <t>15:13:36</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -7767,11 +7767,11 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>9172</v>
+        <v>9138</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>15:17:12</t>
+          <t>15:13:48</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -7783,11 +7783,11 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>9183</v>
+        <v>9164</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>15:18:18</t>
+          <t>15:16:24</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -7815,11 +7815,11 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>9236</v>
+        <v>9201</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>15:23:36</t>
+          <t>15:20:6</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -7831,11 +7831,11 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>9243</v>
+        <v>9205</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>15:24:18</t>
+          <t>15:20:30</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -7847,11 +7847,11 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>9252</v>
+        <v>9219</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>15:25:12</t>
+          <t>15:21:54</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -7863,11 +7863,11 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>9276</v>
+        <v>9290</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>15:27:36</t>
+          <t>15:29:0</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -7895,11 +7895,11 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>9345</v>
+        <v>9303</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>15:34:30</t>
+          <t>15:30:18</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -7911,11 +7911,11 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>9363</v>
+        <v>9357</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>15:36:18</t>
+          <t>15:35:42</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -7927,11 +7927,11 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>9369</v>
+        <v>9359</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>15:36:54</t>
+          <t>15:35:54</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -7943,11 +7943,11 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>9372</v>
+        <v>9382</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>15:37:12</t>
+          <t>15:38:12</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -7975,11 +7975,11 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>9422</v>
+        <v>9412</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>15:42:12</t>
+          <t>15:41:12</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -7991,11 +7991,11 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>9429</v>
+        <v>9443</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>15:42:54</t>
+          <t>15:44:18</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -8007,11 +8007,11 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>9447</v>
+        <v>9455</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>15:44:42</t>
+          <t>15:45:30</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -8023,11 +8023,11 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>9492</v>
+        <v>9458</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>15:49:12</t>
+          <t>15:45:48</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -8055,11 +8055,11 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>9515</v>
+        <v>9525</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>15:51:30</t>
+          <t>15:52:30</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -8071,11 +8071,11 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>9535</v>
+        <v>9539</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>15:53:30</t>
+          <t>15:53:54</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -8087,11 +8087,11 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>9552</v>
+        <v>9553</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>15:55:12</t>
+          <t>15:55:18</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -8103,11 +8103,11 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>9594</v>
+        <v>9564</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>15:59:24</t>
+          <t>15:56:24</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -8135,11 +8135,11 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>9616</v>
+        <v>9600</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>16:1:36</t>
+          <t>16:0:0</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -8151,11 +8151,11 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>9626</v>
+        <v>9605</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>16:2:36</t>
+          <t>16:0:30</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -8167,11 +8167,11 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>9654</v>
+        <v>9621</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>16:5:24</t>
+          <t>16:2:6</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -8183,11 +8183,11 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>9663</v>
+        <v>9625</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>16:6:18</t>
+          <t>16:2:30</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -8215,11 +8215,11 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>9723</v>
+        <v>9718</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>16:12:18</t>
+          <t>16:11:48</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -8231,11 +8231,11 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>9735</v>
+        <v>9755</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>16:13:30</t>
+          <t>16:15:30</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -8247,11 +8247,11 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>9747</v>
+        <v>9770</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>16:14:42</t>
+          <t>16:17:0</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -8263,11 +8263,11 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>9792</v>
+        <v>9799</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>16:19:12</t>
+          <t>16:19:54</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -8295,11 +8295,11 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>9808</v>
+        <v>9832</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>16:20:48</t>
+          <t>16:23:12</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -8311,11 +8311,11 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>9866</v>
+        <v>9849</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>16:26:36</t>
+          <t>16:24:54</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -8327,11 +8327,11 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>9867</v>
+        <v>9866</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>16:26:42</t>
+          <t>16:26:36</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -8343,11 +8343,11 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>9891</v>
+        <v>9877</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>16:29:6</t>
+          <t>16:27:42</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -8375,11 +8375,11 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>9930</v>
+        <v>9918</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>16:33:0</t>
+          <t>16:31:48</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -8391,11 +8391,11 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>9941</v>
+        <v>9955</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>16:34:6</t>
+          <t>16:35:30</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -8407,11 +8407,11 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>9953</v>
+        <v>9995</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>16:35:18</t>
+          <t>16:39:30</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -8423,11 +8423,11 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>9958</v>
+        <v>9998</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>16:35:48</t>
+          <t>16:39:48</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -8455,11 +8455,11 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>10000</v>
+        <v>10037</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>16:40:0</t>
+          <t>16:43:42</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -8471,11 +8471,11 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>10006</v>
+        <v>10072</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>16:40:36</t>
+          <t>16:47:12</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -8487,11 +8487,11 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>10046</v>
+        <v>10080</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>16:44:36</t>
+          <t>16:48:0</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -8503,11 +8503,11 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>10078</v>
+        <v>10099</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>16:47:48</t>
+          <t>16:49:54</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -8535,11 +8535,11 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>10119</v>
+        <v>10109</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>16:51:54</t>
+          <t>16:50:54</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -8551,11 +8551,11 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>10130</v>
+        <v>10132</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>16:53:0</t>
+          <t>16:53:12</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -8567,11 +8567,11 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>10137</v>
+        <v>10180</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>16:53:42</t>
+          <t>16:58:0</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -8583,11 +8583,11 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>10149</v>
+        <v>10195</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>16:54:54</t>
+          <t>16:59:30</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -8615,11 +8615,11 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>10236</v>
+        <v>10226</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>17:3:36</t>
+          <t>17:2:36</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -8631,11 +8631,11 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>10249</v>
+        <v>10229</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>17:4:54</t>
+          <t>17:2:54</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -8647,11 +8647,11 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>10280</v>
+        <v>10249</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>17:8:0</t>
+          <t>17:4:54</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -8663,11 +8663,11 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>10294</v>
+        <v>10295</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>17:9:24</t>
+          <t>17:9:30</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -8695,11 +8695,11 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>10317</v>
+        <v>10359</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>17:11:42</t>
+          <t>17:15:54</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -8711,11 +8711,11 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>10355</v>
+        <v>10365</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>17:15:30</t>
+          <t>17:16:30</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -8727,11 +8727,11 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>10377</v>
+        <v>10372</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>17:17:42</t>
+          <t>17:17:12</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -8743,11 +8743,11 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>10384</v>
+        <v>10385</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>17:18:24</t>
+          <t>17:18:30</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -8775,11 +8775,11 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>10426</v>
+        <v>10413</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>17:22:36</t>
+          <t>17:21:18</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -8791,11 +8791,11 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>10436</v>
+        <v>10484</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>17:23:36</t>
+          <t>17:28:24</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -8807,11 +8807,11 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>10470</v>
+        <v>10487</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>17:27:0</t>
+          <t>17:28:42</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -8823,11 +8823,11 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>10476</v>
+        <v>10491</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>17:27:36</t>
+          <t>17:29:6</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -8855,11 +8855,11 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>10524</v>
+        <v>10519</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>17:32:24</t>
+          <t>17:31:54</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -8871,11 +8871,11 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>10565</v>
+        <v>10548</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>17:36:30</t>
+          <t>17:34:48</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -8887,11 +8887,11 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>10567</v>
+        <v>10581</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>17:36:42</t>
+          <t>17:38:6</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -8903,11 +8903,11 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>10568</v>
+        <v>10594</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>17:36:48</t>
+          <t>17:39:24</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -8935,11 +8935,11 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>10602</v>
+        <v>10603</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>17:40:12</t>
+          <t>17:40:18</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -8951,11 +8951,11 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>10644</v>
+        <v>10618</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>17:44:24</t>
+          <t>17:41:48</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -8967,11 +8967,11 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>10650</v>
+        <v>10641</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>17:45:0</t>
+          <t>17:44:6</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -8983,11 +8983,11 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>10684</v>
+        <v>10669</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>17:48:24</t>
+          <t>17:46:54</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -9015,11 +9015,11 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>10712</v>
+        <v>10722</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>17:51:12</t>
+          <t>17:52:12</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -9031,11 +9031,11 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>10733</v>
+        <v>10729</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>17:53:18</t>
+          <t>17:52:54</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -9047,11 +9047,11 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>10750</v>
+        <v>10773</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>17:55:0</t>
+          <t>17:57:18</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -9063,11 +9063,11 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>10764</v>
+        <v>10781</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>17:56:24</t>
+          <t>17:58:6</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -9095,11 +9095,11 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>10828</v>
+        <v>10846</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>18:2:48</t>
+          <t>18:4:36</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -9111,11 +9111,11 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>10835</v>
+        <v>10853</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>18:3:30</t>
+          <t>18:5:18</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -9127,11 +9127,11 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>10846</v>
+        <v>10862</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>18:4:36</t>
+          <t>18:6:12</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -9143,11 +9143,11 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>10894</v>
+        <v>10866</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>18:9:24</t>
+          <t>18:6:36</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -9175,11 +9175,11 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>10900</v>
+        <v>10918</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>18:10:0</t>
+          <t>18:11:48</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -9191,11 +9191,11 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>10967</v>
+        <v>10974</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>18:16:42</t>
+          <t>18:17:24</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -9207,11 +9207,11 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>10983</v>
+        <v>10976</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>18:18:18</t>
+          <t>18:17:36</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -9223,11 +9223,11 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>10995</v>
+        <v>10984</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>18:19:30</t>
+          <t>18:18:24</t>
         </is>
       </c>
       <c r="D550" t="n">
@@ -9255,11 +9255,11 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>11024</v>
+        <v>11020</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>18:22:24</t>
+          <t>18:22:0</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -9271,11 +9271,11 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>11026</v>
+        <v>11085</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>18:22:36</t>
+          <t>18:28:30</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -9287,11 +9287,11 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>11062</v>
+        <v>11089</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>18:26:12</t>
+          <t>18:28:54</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -9303,11 +9303,11 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>11069</v>
+        <v>11097</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>18:26:54</t>
+          <t>18:29:42</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -9335,11 +9335,11 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>11106</v>
+        <v>11128</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>18:30:36</t>
+          <t>18:32:48</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -9351,11 +9351,11 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>11132</v>
+        <v>11154</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>18:33:12</t>
+          <t>18:35:24</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -9367,11 +9367,11 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>11155</v>
+        <v>11156</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>18:35:30</t>
+          <t>18:35:36</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -9383,11 +9383,11 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>11165</v>
+        <v>11174</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>18:36:30</t>
+          <t>18:37:24</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -9431,11 +9431,11 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>11255</v>
+        <v>11239</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>18:45:30</t>
+          <t>18:43:54</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -9447,11 +9447,11 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>11265</v>
+        <v>11288</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>18:46:30</t>
+          <t>18:48:48</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -9463,11 +9463,11 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>11299</v>
+        <v>11298</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>18:49:54</t>
+          <t>18:49:48</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -9495,11 +9495,11 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>11307</v>
+        <v>11358</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>18:50:42</t>
+          <t>18:55:48</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -9511,11 +9511,11 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>11318</v>
+        <v>11384</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>18:51:48</t>
+          <t>18:58:24</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -9527,11 +9527,11 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>11351</v>
+        <v>11392</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>18:55:6</t>
+          <t>18:59:12</t>
         </is>
       </c>
       <c r="D569" t="n">
@@ -9543,11 +9543,11 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>11376</v>
+        <v>11398</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>18:57:36</t>
+          <t>18:59:48</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -9575,11 +9575,11 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>11411</v>
+        <v>11400</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>19:1:6</t>
+          <t>19:0:0</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -9591,11 +9591,11 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>11446</v>
+        <v>11404</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>19:4:36</t>
+          <t>19:0:24</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -9607,11 +9607,11 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>11457</v>
+        <v>11485</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>19:5:42</t>
+          <t>19:8:30</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -9623,11 +9623,11 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>11495</v>
+        <v>11488</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>19:9:30</t>
+          <t>19:8:48</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -9655,11 +9655,11 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>11528</v>
+        <v>11508</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>19:12:48</t>
+          <t>19:10:48</t>
         </is>
       </c>
       <c r="D577" t="n">
@@ -9671,11 +9671,11 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>11540</v>
+        <v>11511</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>19:14:0</t>
+          <t>19:11:6</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -9687,11 +9687,11 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>11554</v>
+        <v>11530</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>19:15:24</t>
+          <t>19:13:0</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -9703,11 +9703,11 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>11569</v>
+        <v>11593</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>19:16:54</t>
+          <t>19:19:18</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -9735,11 +9735,11 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>11606</v>
+        <v>11625</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>19:20:36</t>
+          <t>19:22:30</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -9751,11 +9751,11 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>11617</v>
+        <v>11657</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>19:21:42</t>
+          <t>19:25:42</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -9767,11 +9767,11 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>11679</v>
+        <v>11661</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>19:27:54</t>
+          <t>19:26:6</t>
         </is>
       </c>
       <c r="D584" t="n">
@@ -9783,11 +9783,11 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>11690</v>
+        <v>11667</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>19:29:0</t>
+          <t>19:26:42</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -9815,11 +9815,11 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>11728</v>
+        <v>11703</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>19:32:48</t>
+          <t>19:30:18</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -9831,11 +9831,11 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>11742</v>
+        <v>11746</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>19:34:12</t>
+          <t>19:34:36</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -9847,11 +9847,11 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>11764</v>
+        <v>11747</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>19:36:24</t>
+          <t>19:34:42</t>
         </is>
       </c>
       <c r="D589" t="n">
@@ -9863,11 +9863,11 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>11781</v>
+        <v>11766</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>19:38:6</t>
+          <t>19:36:36</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -9895,11 +9895,11 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>11833</v>
+        <v>11837</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>19:43:18</t>
+          <t>19:43:42</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -9911,11 +9911,11 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>11864</v>
+        <v>11838</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>19:46:24</t>
+          <t>19:43:48</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -9927,11 +9927,11 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>11882</v>
+        <v>11852</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>19:48:12</t>
+          <t>19:45:12</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -9943,11 +9943,11 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>11885</v>
+        <v>11898</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>19:48:30</t>
+          <t>19:49:48</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -9975,11 +9975,11 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>11909</v>
+        <v>11913</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>19:50:54</t>
+          <t>19:51:18</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -9991,11 +9991,11 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>11964</v>
+        <v>11935</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>19:56:24</t>
+          <t>19:53:30</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -10007,11 +10007,11 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>11975</v>
+        <v>11961</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>19:57:30</t>
+          <t>19:56:6</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -10023,11 +10023,11 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>11998</v>
+        <v>11995</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>19:59:48</t>
+          <t>19:59:30</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -10055,11 +10055,11 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>12043</v>
+        <v>12019</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>20:4:18</t>
+          <t>20:1:54</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -10071,11 +10071,11 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>12057</v>
+        <v>12035</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>20:5:42</t>
+          <t>20:3:30</t>
         </is>
       </c>
       <c r="D603" t="n">
@@ -10087,11 +10087,11 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>12072</v>
+        <v>12052</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>20:7:12</t>
+          <t>20:5:12</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -10103,11 +10103,11 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>12090</v>
+        <v>12056</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>20:9:0</t>
+          <t>20:5:36</t>
         </is>
       </c>
       <c r="D605" t="n">
@@ -10151,11 +10151,11 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>12121</v>
+        <v>12166</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>20:12:6</t>
+          <t>20:16:36</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -10167,11 +10167,11 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>12128</v>
+        <v>12168</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>20:12:48</t>
+          <t>20:16:48</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -10183,11 +10183,11 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>12145</v>
+        <v>12184</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>20:14:30</t>
+          <t>20:18:24</t>
         </is>
       </c>
       <c r="D610" t="n">
@@ -10215,11 +10215,11 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>12200</v>
+        <v>12204</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>20:20:0</t>
+          <t>20:20:24</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -10231,11 +10231,11 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>12256</v>
+        <v>12265</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>20:25:36</t>
+          <t>20:26:30</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -10247,11 +10247,11 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>12268</v>
+        <v>12274</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>20:26:48</t>
+          <t>20:27:24</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -10263,11 +10263,11 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>12269</v>
+        <v>12275</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>20:26:54</t>
+          <t>20:27:30</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -10295,11 +10295,11 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>12303</v>
+        <v>12350</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>20:30:18</t>
+          <t>20:35:0</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -10311,11 +10311,11 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>12325</v>
+        <v>12354</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>20:32:30</t>
+          <t>20:35:24</t>
         </is>
       </c>
       <c r="D618" t="n">
@@ -10327,11 +10327,11 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>12358</v>
+        <v>12364</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>20:35:48</t>
+          <t>20:36:24</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -10375,11 +10375,11 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>12427</v>
+        <v>12403</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>20:42:42</t>
+          <t>20:40:18</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -10391,11 +10391,11 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>12441</v>
+        <v>12415</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>20:44:6</t>
+          <t>20:41:30</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -10407,11 +10407,11 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>12477</v>
+        <v>12421</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>20:47:42</t>
+          <t>20:42:6</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -10423,11 +10423,11 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>12489</v>
+        <v>12450</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>20:48:54</t>
+          <t>20:45:0</t>
         </is>
       </c>
       <c r="D625" t="n">
@@ -10455,11 +10455,11 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>12500</v>
+        <v>12502</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>20:50:0</t>
+          <t>20:50:12</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -10471,11 +10471,11 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>12544</v>
+        <v>12533</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>20:54:24</t>
+          <t>20:53:18</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -10487,11 +10487,11 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>12554</v>
+        <v>12547</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>20:55:24</t>
+          <t>20:54:42</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -10503,11 +10503,11 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>12594</v>
+        <v>12568</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>20:59:24</t>
+          <t>20:56:48</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -10535,11 +10535,11 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>12611</v>
+        <v>12615</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>21:1:6</t>
+          <t>21:1:30</t>
         </is>
       </c>
       <c r="D632" t="n">
@@ -10551,11 +10551,11 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>12614</v>
+        <v>12631</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>21:1:24</t>
+          <t>21:3:6</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -10567,11 +10567,11 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>12649</v>
+        <v>12633</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>21:4:54</t>
+          <t>21:3:18</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -10583,11 +10583,11 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>12677</v>
+        <v>12681</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>21:7:42</t>
+          <t>21:8:6</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -10615,11 +10615,11 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>12714</v>
+        <v>12749</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>21:11:24</t>
+          <t>21:14:54</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -10631,11 +10631,11 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>12718</v>
+        <v>12768</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>21:11:48</t>
+          <t>21:16:48</t>
         </is>
       </c>
       <c r="D638" t="n">
@@ -10647,11 +10647,11 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>12749</v>
+        <v>12772</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>21:14:54</t>
+          <t>21:17:12</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -10663,11 +10663,11 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>12762</v>
+        <v>12791</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>21:16:12</t>
+          <t>21:19:6</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -10695,11 +10695,11 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>12807</v>
+        <v>12812</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>21:20:42</t>
+          <t>21:21:12</t>
         </is>
       </c>
       <c r="D642" t="n">
@@ -10711,11 +10711,11 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>12825</v>
+        <v>12827</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>21:22:30</t>
+          <t>21:22:42</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -10727,11 +10727,11 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>12865</v>
+        <v>12848</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>21:26:30</t>
+          <t>21:24:48</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -10743,11 +10743,11 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>12896</v>
+        <v>12883</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>21:29:36</t>
+          <t>21:28:18</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -10775,11 +10775,11 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>12946</v>
+        <v>12912</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>21:34:36</t>
+          <t>21:31:12</t>
         </is>
       </c>
       <c r="D647" t="n">
@@ -10791,11 +10791,11 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>12976</v>
+        <v>12915</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>21:37:36</t>
+          <t>21:31:30</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -10807,11 +10807,11 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>12982</v>
+        <v>12930</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>21:38:12</t>
+          <t>21:33:0</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -10823,11 +10823,11 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>12988</v>
+        <v>12981</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>21:38:48</t>
+          <t>21:38:6</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -10855,11 +10855,11 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>13003</v>
+        <v>13006</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>21:40:18</t>
+          <t>21:40:36</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -10871,11 +10871,11 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>13012</v>
+        <v>13015</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>21:41:12</t>
+          <t>21:41:30</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -10887,11 +10887,11 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>13047</v>
+        <v>13016</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>21:44:42</t>
+          <t>21:41:36</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -10903,11 +10903,11 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>13063</v>
+        <v>13089</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>21:46:18</t>
+          <t>21:48:54</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -10935,11 +10935,11 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>13136</v>
+        <v>13109</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>21:53:36</t>
+          <t>21:50:54</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -10951,11 +10951,11 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>13143</v>
+        <v>13154</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>21:54:18</t>
+          <t>21:55:24</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -10967,11 +10967,11 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>13159</v>
+        <v>13173</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>21:55:54</t>
+          <t>21:57:18</t>
         </is>
       </c>
       <c r="D659" t="n">
@@ -10983,11 +10983,11 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>13169</v>
+        <v>13175</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>21:56:54</t>
+          <t>21:57:30</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -11015,11 +11015,11 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>13201</v>
+        <v>13209</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>22:0:6</t>
+          <t>22:0:54</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -11031,11 +11031,11 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>13214</v>
+        <v>13239</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>22:1:24</t>
+          <t>22:3:54</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -11047,11 +11047,11 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>13230</v>
+        <v>13274</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>22:3:0</t>
+          <t>22:7:24</t>
         </is>
       </c>
       <c r="D664" t="n">
@@ -11063,11 +11063,11 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>13254</v>
+        <v>13278</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>22:5:24</t>
+          <t>22:7:48</t>
         </is>
       </c>
       <c r="D665" t="n">
@@ -11095,11 +11095,11 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>13326</v>
+        <v>13301</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>22:12:36</t>
+          <t>22:10:6</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -11111,11 +11111,11 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>13335</v>
+        <v>13336</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>22:13:30</t>
+          <t>22:13:36</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -11127,11 +11127,11 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>13373</v>
+        <v>13375</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>22:17:18</t>
+          <t>22:17:30</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -11143,11 +11143,11 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>13396</v>
+        <v>13383</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>22:19:36</t>
+          <t>22:18:18</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -11175,11 +11175,11 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>13401</v>
+        <v>13438</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>22:20:6</t>
+          <t>22:23:48</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -11191,11 +11191,11 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>13407</v>
+        <v>13460</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>22:20:42</t>
+          <t>22:26:0</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -11207,11 +11207,11 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>13436</v>
+        <v>13472</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>22:23:36</t>
+          <t>22:27:12</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -11223,11 +11223,11 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>13438</v>
+        <v>13483</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>22:23:48</t>
+          <t>22:28:18</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -11255,11 +11255,11 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>13504</v>
+        <v>13509</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>22:30:24</t>
+          <t>22:30:54</t>
         </is>
       </c>
       <c r="D677" t="n">
@@ -11271,11 +11271,11 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>13545</v>
+        <v>13510</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>22:34:30</t>
+          <t>22:31:0</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -11287,11 +11287,11 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>13563</v>
+        <v>13527</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>22:36:18</t>
+          <t>22:32:42</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -11303,11 +11303,11 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>13568</v>
+        <v>13579</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>22:36:48</t>
+          <t>22:37:54</t>
         </is>
       </c>
       <c r="D680" t="n">
@@ -11335,11 +11335,11 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>13605</v>
+        <v>13630</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>22:40:30</t>
+          <t>22:43:0</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -11351,11 +11351,11 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>13683</v>
+        <v>13635</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>22:48:18</t>
+          <t>22:43:30</t>
         </is>
       </c>
       <c r="D683" t="n">
@@ -11367,11 +11367,11 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>13689</v>
+        <v>13662</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>22:48:54</t>
+          <t>22:46:12</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -11383,11 +11383,11 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>13692</v>
+        <v>13697</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>22:49:12</t>
+          <t>22:49:42</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -11415,11 +11415,11 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>13724</v>
+        <v>13740</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>22:52:24</t>
+          <t>22:54:0</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -11431,11 +11431,11 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>13752</v>
+        <v>13749</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>22:55:12</t>
+          <t>22:54:54</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -11447,11 +11447,11 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>13757</v>
+        <v>13763</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>22:55:42</t>
+          <t>22:56:18</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -11463,11 +11463,11 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>13759</v>
+        <v>13774</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>22:55:54</t>
+          <t>22:57:24</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -11495,11 +11495,11 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>13804</v>
+        <v>13841</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>23:0:24</t>
+          <t>23:4:6</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -11511,11 +11511,11 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>13834</v>
+        <v>13854</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>23:3:24</t>
+          <t>23:5:24</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -11527,11 +11527,11 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>13867</v>
+        <v>13893</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>23:6:42</t>
+          <t>23:9:18</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -11543,11 +11543,11 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>13881</v>
+        <v>13898</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>23:8:6</t>
+          <t>23:9:48</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -11575,11 +11575,11 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>13909</v>
+        <v>13914</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>23:10:54</t>
+          <t>23:11:24</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -11591,11 +11591,11 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>13912</v>
+        <v>13941</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>23:11:12</t>
+          <t>23:14:6</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -11607,11 +11607,11 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>13953</v>
+        <v>13944</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>23:15:18</t>
+          <t>23:14:24</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -11623,11 +11623,11 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>13965</v>
+        <v>13974</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>23:16:30</t>
+          <t>23:17:24</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -11655,11 +11655,11 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>14017</v>
+        <v>14042</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>23:21:42</t>
+          <t>23:24:12</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -11671,11 +11671,11 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>14023</v>
+        <v>14073</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>23:22:18</t>
+          <t>23:27:18</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -11687,11 +11687,11 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>14060</v>
+        <v>14074</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>23:26:0</t>
+          <t>23:27:24</t>
         </is>
       </c>
       <c r="D704" t="n">
@@ -11703,11 +11703,11 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>14073</v>
+        <v>14081</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>23:27:18</t>
+          <t>23:28:6</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -11735,11 +11735,11 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>14103</v>
+        <v>14129</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>23:30:18</t>
+          <t>23:32:54</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -11751,11 +11751,11 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>14110</v>
+        <v>14159</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>23:31:0</t>
+          <t>23:35:54</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -11767,11 +11767,11 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>14155</v>
+        <v>14185</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>23:35:30</t>
+          <t>23:38:30</t>
         </is>
       </c>
       <c r="D709" t="n">
@@ -11783,11 +11783,11 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>14168</v>
+        <v>14196</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>23:36:48</t>
+          <t>23:39:36</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -11815,11 +11815,11 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>14219</v>
+        <v>14206</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>23:41:54</t>
+          <t>23:40:36</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -11831,11 +11831,11 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>14222</v>
+        <v>14264</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>23:42:12</t>
+          <t>23:46:24</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -11847,11 +11847,11 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>14236</v>
+        <v>14289</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>23:43:36</t>
+          <t>23:48:54</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -11863,11 +11863,11 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>14266</v>
+        <v>14290</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>23:46:36</t>
+          <t>23:49:0</t>
         </is>
       </c>
       <c r="D715" t="n">
@@ -11895,11 +11895,11 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>14330</v>
+        <v>14300</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>23:53:0</t>
+          <t>23:50:0</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -11911,11 +11911,11 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>14338</v>
+        <v>14314</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>23:53:48</t>
+          <t>23:51:24</t>
         </is>
       </c>
       <c r="D718" t="n">
@@ -11927,11 +11927,11 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>14372</v>
+        <v>14368</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>23:57:12</t>
+          <t>23:56:48</t>
         </is>
       </c>
       <c r="D719" t="n">

--- a/Intermediate_data/random_list_interval.xlsx
+++ b/Intermediate_data/random_list_interval.xlsx
@@ -471,11 +471,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0:2:30</t>
+          <t>0:1:48</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -487,11 +487,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:6:6</t>
+          <t>0:2:54</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -503,11 +503,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:8:54</t>
+          <t>0:5:12</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -535,11 +535,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0:11:0</t>
+          <t>0:14:18</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -551,11 +551,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0:11:30</t>
+          <t>0:15:24</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -567,11 +567,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0:13:36</t>
+          <t>0:15:36</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -615,11 +615,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0:22:24</t>
+          <t>0:21:6</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -631,11 +631,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0:25:30</t>
+          <t>0:21:54</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -647,11 +647,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0:29:0</t>
+          <t>0:22:12</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -663,11 +663,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0:29:36</t>
+          <t>0:24:36</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -695,11 +695,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:31:24</t>
+          <t>0:35:18</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -711,11 +711,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0:36:36</t>
+          <t>0:35:24</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -727,11 +727,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0:37:36</t>
+          <t>0:37:54</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -743,11 +743,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0:38:48</t>
+          <t>0:39:0</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -775,11 +775,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0:40:24</t>
+          <t>0:41:48</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -791,11 +791,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0:42:12</t>
+          <t>0:42:18</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -807,11 +807,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0:48:18</t>
+          <t>0:46:0</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -855,11 +855,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0:52:36</t>
+          <t>0:53:12</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -871,11 +871,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0:54:30</t>
+          <t>0:56:48</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -887,11 +887,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0:56:0</t>
+          <t>0:57:24</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -903,11 +903,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0:58:42</t>
+          <t>0:57:36</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -935,11 +935,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1:1:18</t>
+          <t>1:0:6</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -951,11 +951,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1:1:48</t>
+          <t>1:2:42</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -967,11 +967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1:6:12</t>
+          <t>1:3:30</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -983,11 +983,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1:6:18</t>
+          <t>1:4:24</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1015,11 +1015,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1:10:48</t>
+          <t>1:14:12</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1031,11 +1031,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1:11:6</t>
+          <t>1:15:0</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1047,11 +1047,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1:13:48</t>
+          <t>1:15:54</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1063,11 +1063,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1:17:54</t>
+          <t>1:17:24</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1095,11 +1095,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1:20:54</t>
+          <t>1:21:18</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1111,11 +1111,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>858</v>
+        <v>822</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1:25:48</t>
+          <t>1:22:12</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1127,11 +1127,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1:26:48</t>
+          <t>1:25:54</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1143,11 +1143,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1:29:48</t>
+          <t>1:29:6</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1175,11 +1175,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1:30:0</t>
+          <t>1:31:42</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1191,11 +1191,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1:35:36</t>
+          <t>1:35:48</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1207,11 +1207,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1:36:36</t>
+          <t>1:35:54</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1223,11 +1223,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1:37:24</t>
+          <t>1:38:30</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1255,11 +1255,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1:41:24</t>
+          <t>1:41:30</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1271,11 +1271,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1:45:0</t>
+          <t>1:43:48</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1287,11 +1287,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1:46:18</t>
+          <t>1:47:48</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1303,11 +1303,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1:49:6</t>
+          <t>1:48:0</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1335,11 +1335,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1:51:6</t>
+          <t>1:52:12</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1351,11 +1351,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1:56:54</t>
+          <t>1:55:0</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1367,11 +1367,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1:58:48</t>
+          <t>1:58:54</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1383,11 +1383,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1:59:36</t>
+          <t>1:59:48</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1415,11 +1415,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1205</v>
+        <v>1231</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2:0:30</t>
+          <t>2:3:6</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1431,11 +1431,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2:2:6</t>
+          <t>2:3:54</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1447,11 +1447,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2:7:0</t>
+          <t>2:6:0</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1463,11 +1463,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2:9:18</t>
+          <t>2:8:36</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1495,11 +1495,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1309</v>
+        <v>1324</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2:10:54</t>
+          <t>2:12:24</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1511,11 +1511,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1321</v>
+        <v>1358</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2:12:6</t>
+          <t>2:15:48</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1527,11 +1527,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1349</v>
+        <v>1394</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2:14:54</t>
+          <t>2:19:24</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1543,11 +1543,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1358</v>
+        <v>1396</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2:15:48</t>
+          <t>2:19:36</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1575,11 +1575,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1408</v>
+        <v>1419</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2:20:48</t>
+          <t>2:21:54</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1591,11 +1591,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2:26:36</t>
+          <t>2:25:6</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1607,11 +1607,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2:27:18</t>
+          <t>2:26:18</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1623,11 +1623,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1493</v>
+        <v>1466</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2:29:18</t>
+          <t>2:26:36</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1655,11 +1655,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1540</v>
+        <v>1512</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2:34:0</t>
+          <t>2:31:12</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1671,11 +1671,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1543</v>
+        <v>1561</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2:34:18</t>
+          <t>2:36:6</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1687,11 +1687,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1595</v>
+        <v>1570</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2:39:30</t>
+          <t>2:37:0</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1703,11 +1703,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2:39:54</t>
+          <t>2:39:24</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1735,11 +1735,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2:42:12</t>
+          <t>2:43:18</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1751,11 +1751,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2:45:54</t>
+          <t>2:46:42</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1767,11 +1767,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2:48:6</t>
+          <t>2:47:18</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1783,11 +1783,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2:48:12</t>
+          <t>2:48:42</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1815,11 +1815,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1745</v>
+        <v>1702</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2:54:30</t>
+          <t>2:50:12</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1831,11 +1831,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1746</v>
+        <v>1710</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2:54:36</t>
+          <t>2:51:0</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1847,11 +1847,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1776</v>
+        <v>1732</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2:57:36</t>
+          <t>2:53:12</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1863,11 +1863,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1799</v>
+        <v>1734</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2:59:54</t>
+          <t>2:53:24</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1895,11 +1895,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3:1:12</t>
+          <t>3:0:54</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -1911,11 +1911,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3:1:48</t>
+          <t>3:1:42</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -1927,11 +1927,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1837</v>
+        <v>1822</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3:3:42</t>
+          <t>3:2:12</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -1943,11 +1943,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1882</v>
+        <v>1846</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3:8:12</t>
+          <t>3:4:36</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -1975,11 +1975,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1935</v>
+        <v>1904</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3:13:30</t>
+          <t>3:10:24</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -1991,11 +1991,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1947</v>
+        <v>1917</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3:14:42</t>
+          <t>3:11:42</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2007,11 +2007,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1995</v>
+        <v>1943</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3:19:30</t>
+          <t>3:14:18</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2023,11 +2023,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1997</v>
+        <v>1946</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3:19:42</t>
+          <t>3:14:36</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2055,11 +2055,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2057</v>
+        <v>2006</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3:25:42</t>
+          <t>3:20:36</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2071,11 +2071,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2060</v>
+        <v>2009</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3:26:0</t>
+          <t>3:20:54</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2087,11 +2087,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2083</v>
+        <v>2028</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3:28:18</t>
+          <t>3:22:48</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2103,11 +2103,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2094</v>
+        <v>2037</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3:29:24</t>
+          <t>3:23:42</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2135,11 +2135,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3:30:42</t>
+          <t>3:30:54</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2151,11 +2151,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3:31:42</t>
+          <t>3:31:12</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2167,11 +2167,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2146</v>
+        <v>2133</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3:34:36</t>
+          <t>3:33:18</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2183,11 +2183,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2170</v>
+        <v>2179</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3:37:0</t>
+          <t>3:37:54</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2215,11 +2215,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2249</v>
+        <v>2210</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3:44:54</t>
+          <t>3:41:0</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2231,11 +2231,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2251</v>
+        <v>2224</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3:45:6</t>
+          <t>3:42:24</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2247,11 +2247,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2271</v>
+        <v>2245</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3:47:6</t>
+          <t>3:44:30</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2263,11 +2263,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3:49:48</t>
+          <t>3:49:36</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2295,11 +2295,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3:50:54</t>
+          <t>3:50:30</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2311,11 +2311,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3:53:12</t>
+          <t>3:53:30</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2327,11 +2327,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2334</v>
+        <v>2352</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3:53:24</t>
+          <t>3:55:12</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2343,11 +2343,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2336</v>
+        <v>2382</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3:53:36</t>
+          <t>3:58:12</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2375,11 +2375,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4:1:12</t>
+          <t>4:0:36</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2391,11 +2391,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2419</v>
+        <v>2441</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4:1:54</t>
+          <t>4:4:6</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2407,11 +2407,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2452</v>
+        <v>2458</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4:5:12</t>
+          <t>4:5:48</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2423,11 +2423,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4:6:48</t>
+          <t>4:6:24</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2455,11 +2455,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4:12:30</t>
+          <t>4:11:42</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2471,11 +2471,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2534</v>
+        <v>2550</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4:13:24</t>
+          <t>4:15:0</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2503,11 +2503,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2599</v>
+        <v>2579</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4:19:54</t>
+          <t>4:17:54</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2535,11 +2535,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2604</v>
+        <v>2617</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4:20:24</t>
+          <t>4:21:42</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2551,11 +2551,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2611</v>
+        <v>2658</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4:21:6</t>
+          <t>4:25:48</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2567,11 +2567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2634</v>
+        <v>2677</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4:23:24</t>
+          <t>4:27:42</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2583,11 +2583,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4:29:24</t>
+          <t>4:28:48</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2615,11 +2615,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2708</v>
+        <v>2702</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4:30:48</t>
+          <t>4:30:12</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2631,11 +2631,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4:31:48</t>
+          <t>4:31:36</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2647,11 +2647,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4:32:24</t>
+          <t>4:32:6</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2663,11 +2663,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2777</v>
+        <v>2783</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4:37:42</t>
+          <t>4:38:18</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2695,11 +2695,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2866</v>
+        <v>2800</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4:46:36</t>
+          <t>4:40:0</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2711,11 +2711,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2873</v>
+        <v>2840</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4:47:18</t>
+          <t>4:44:0</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2727,11 +2727,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4:47:30</t>
+          <t>4:47:24</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2743,11 +2743,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2892</v>
+        <v>2880</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4:49:12</t>
+          <t>4:48:0</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -2775,11 +2775,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2924</v>
+        <v>2929</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4:52:24</t>
+          <t>4:52:54</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -2791,11 +2791,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2959</v>
+        <v>2938</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4:55:54</t>
+          <t>4:53:48</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -2807,11 +2807,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2978</v>
+        <v>2948</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4:57:48</t>
+          <t>4:54:48</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -2823,11 +2823,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2987</v>
+        <v>2964</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4:58:42</t>
+          <t>4:56:24</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -2855,11 +2855,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3000</v>
+        <v>3011</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5:0:0</t>
+          <t>5:1:6</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -2871,11 +2871,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3025</v>
+        <v>3041</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5:2:30</t>
+          <t>5:4:6</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -2887,11 +2887,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3081</v>
+        <v>3056</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5:8:6</t>
+          <t>5:5:36</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -2903,11 +2903,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3099</v>
+        <v>3066</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5:9:54</t>
+          <t>5:6:36</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -2935,11 +2935,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3107</v>
+        <v>3112</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5:10:42</t>
+          <t>5:11:12</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -2951,11 +2951,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3124</v>
+        <v>3136</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5:12:24</t>
+          <t>5:13:36</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -2967,11 +2967,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3135</v>
+        <v>3143</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5:13:30</t>
+          <t>5:14:18</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -2983,11 +2983,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3199</v>
+        <v>3171</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5:19:54</t>
+          <t>5:17:6</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3015,11 +3015,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5:20:18</t>
+          <t>5:20:12</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3031,11 +3031,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3232</v>
+        <v>3223</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5:23:12</t>
+          <t>5:22:18</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3047,11 +3047,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3255</v>
+        <v>3232</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5:25:30</t>
+          <t>5:23:12</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3063,11 +3063,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3258</v>
+        <v>3247</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5:25:48</t>
+          <t>5:24:42</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3095,11 +3095,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5:30:24</t>
+          <t>5:30:48</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3111,11 +3111,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3324</v>
+        <v>3314</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5:32:24</t>
+          <t>5:31:24</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3127,11 +3127,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3330</v>
+        <v>3345</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5:33:0</t>
+          <t>5:34:30</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3143,11 +3143,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3356</v>
+        <v>3396</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5:35:36</t>
+          <t>5:39:36</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3175,11 +3175,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5:40:18</t>
+          <t>5:40:36</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3191,11 +3191,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3443</v>
+        <v>3428</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5:44:18</t>
+          <t>5:42:48</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3207,11 +3207,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3467</v>
+        <v>3447</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5:46:42</t>
+          <t>5:44:42</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3223,11 +3223,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3478</v>
+        <v>3454</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>5:47:48</t>
+          <t>5:45:24</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3255,11 +3255,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3509</v>
+        <v>3530</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>5:50:54</t>
+          <t>5:53:0</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3271,11 +3271,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3512</v>
+        <v>3543</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5:51:12</t>
+          <t>5:54:18</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3287,11 +3287,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3528</v>
+        <v>3582</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>5:52:48</t>
+          <t>5:58:12</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3303,11 +3303,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3547</v>
+        <v>3597</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>5:54:42</t>
+          <t>5:59:42</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3335,11 +3335,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3645</v>
+        <v>3621</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6:4:30</t>
+          <t>6:2:6</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3351,11 +3351,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3647</v>
+        <v>3667</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6:4:42</t>
+          <t>6:6:42</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3367,11 +3367,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3653</v>
+        <v>3672</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6:5:18</t>
+          <t>6:7:12</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3383,11 +3383,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3671</v>
+        <v>3675</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6:7:6</t>
+          <t>6:7:30</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3415,11 +3415,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6:13:18</t>
+          <t>6:13:6</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3431,11 +3431,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3781</v>
+        <v>3734</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6:18:6</t>
+          <t>6:13:24</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3447,11 +3447,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3788</v>
+        <v>3737</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>6:18:48</t>
+          <t>6:13:42</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3463,11 +3463,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3793</v>
+        <v>3761</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>6:19:18</t>
+          <t>6:16:6</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3495,11 +3495,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3840</v>
+        <v>3824</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6:24:0</t>
+          <t>6:22:24</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3511,11 +3511,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3856</v>
+        <v>3825</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6:25:36</t>
+          <t>6:22:30</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3527,11 +3527,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3873</v>
+        <v>3867</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6:27:18</t>
+          <t>6:26:42</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3543,11 +3543,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>6:29:24</t>
+          <t>6:28:18</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3575,11 +3575,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3900</v>
+        <v>3908</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6:30:0</t>
+          <t>6:30:48</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3591,11 +3591,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3935</v>
+        <v>3955</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6:33:30</t>
+          <t>6:35:30</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3607,11 +3607,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3947</v>
+        <v>3966</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>6:34:42</t>
+          <t>6:36:36</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3623,11 +3623,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3999</v>
+        <v>3994</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>6:39:54</t>
+          <t>6:39:24</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -3655,11 +3655,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4003</v>
+        <v>4009</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>6:40:18</t>
+          <t>6:40:54</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -3671,11 +3671,11 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4018</v>
+        <v>4048</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6:41:48</t>
+          <t>6:44:48</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -3703,11 +3703,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4078</v>
+        <v>4089</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6:47:48</t>
+          <t>6:48:54</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -3735,11 +3735,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6:50:54</t>
+          <t>6:50:48</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -3751,11 +3751,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4116</v>
+        <v>4142</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6:51:36</t>
+          <t>6:54:12</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -3767,11 +3767,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4117</v>
+        <v>4184</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>6:51:42</t>
+          <t>6:58:24</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -3783,11 +3783,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4173</v>
+        <v>4185</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>6:57:18</t>
+          <t>6:58:30</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -3815,11 +3815,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4213</v>
+        <v>4206</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>7:1:18</t>
+          <t>7:0:36</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -3831,11 +3831,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4228</v>
+        <v>4230</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>7:2:48</t>
+          <t>7:3:0</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -3847,11 +3847,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4231</v>
+        <v>4291</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>7:3:6</t>
+          <t>7:9:6</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -3863,11 +3863,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4297</v>
+        <v>4299</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7:9:42</t>
+          <t>7:9:54</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -3895,11 +3895,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4326</v>
+        <v>4305</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7:12:36</t>
+          <t>7:10:30</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -3911,11 +3911,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4367</v>
+        <v>4342</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7:16:42</t>
+          <t>7:14:12</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -3927,11 +3927,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4380</v>
+        <v>4356</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>7:18:0</t>
+          <t>7:15:36</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -3943,11 +3943,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4388</v>
+        <v>4366</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>7:18:48</t>
+          <t>7:16:36</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -3975,11 +3975,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4403</v>
+        <v>4421</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>7:20:18</t>
+          <t>7:22:6</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -3991,11 +3991,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4420</v>
+        <v>4442</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7:22:0</t>
+          <t>7:24:12</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4007,11 +4007,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4444</v>
+        <v>4452</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>7:24:24</t>
+          <t>7:25:12</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4023,11 +4023,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4456</v>
+        <v>4453</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>7:25:36</t>
+          <t>7:25:18</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4055,11 +4055,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4516</v>
+        <v>4518</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>7:31:36</t>
+          <t>7:31:48</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4071,11 +4071,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4533</v>
+        <v>4536</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>7:33:18</t>
+          <t>7:33:36</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4087,11 +4087,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4561</v>
+        <v>4581</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>7:36:6</t>
+          <t>7:38:6</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4103,11 +4103,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4597</v>
+        <v>4593</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>7:39:42</t>
+          <t>7:39:18</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4135,11 +4135,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>7:40:12</t>
+          <t>7:40:0</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4151,11 +4151,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4640</v>
+        <v>4609</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7:44:0</t>
+          <t>7:40:54</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4167,11 +4167,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4683</v>
+        <v>4673</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>7:48:18</t>
+          <t>7:47:18</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4183,11 +4183,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4686</v>
+        <v>4696</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>7:48:36</t>
+          <t>7:49:36</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4215,11 +4215,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4703</v>
+        <v>4714</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7:50:18</t>
+          <t>7:51:24</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4231,11 +4231,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4748</v>
+        <v>4733</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>7:54:48</t>
+          <t>7:53:18</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4247,11 +4247,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4754</v>
+        <v>4741</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>7:55:24</t>
+          <t>7:54:6</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4263,11 +4263,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4777</v>
+        <v>4751</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>7:57:42</t>
+          <t>7:55:6</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4295,11 +4295,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4809</v>
+        <v>4827</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8:0:54</t>
+          <t>8:2:42</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4311,11 +4311,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4823</v>
+        <v>4839</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>8:2:18</t>
+          <t>8:3:54</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -4327,11 +4327,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4825</v>
+        <v>4849</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8:2:30</t>
+          <t>8:4:54</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4343,11 +4343,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4891</v>
+        <v>4873</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8:9:6</t>
+          <t>8:7:18</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -4375,11 +4375,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4930</v>
+        <v>4927</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8:13:0</t>
+          <t>8:12:42</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4391,11 +4391,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4932</v>
+        <v>4933</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8:13:12</t>
+          <t>8:13:18</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4407,11 +4407,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4961</v>
+        <v>4981</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8:16:6</t>
+          <t>8:18:6</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4423,11 +4423,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4971</v>
+        <v>4982</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8:17:6</t>
+          <t>8:18:12</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -4455,11 +4455,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5034</v>
+        <v>5023</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>8:23:24</t>
+          <t>8:22:18</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4471,11 +4471,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>5037</v>
+        <v>5040</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>8:23:42</t>
+          <t>8:24:0</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4487,11 +4487,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>8:24:24</t>
+          <t>8:24:18</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -4503,11 +4503,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>5073</v>
+        <v>5051</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8:27:18</t>
+          <t>8:25:6</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -4535,11 +4535,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>5130</v>
+        <v>5114</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>8:33:0</t>
+          <t>8:31:24</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -4551,11 +4551,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>5135</v>
+        <v>5177</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>8:33:30</t>
+          <t>8:37:42</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -4567,11 +4567,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5166</v>
+        <v>5178</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8:36:36</t>
+          <t>8:37:48</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -4583,11 +4583,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5178</v>
+        <v>5184</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>8:37:48</t>
+          <t>8:38:24</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -4615,11 +4615,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5238</v>
+        <v>5226</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8:43:48</t>
+          <t>8:42:36</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -4631,11 +4631,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>8:44:30</t>
+          <t>8:43:0</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -4647,11 +4647,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5287</v>
+        <v>5283</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>8:48:42</t>
+          <t>8:48:18</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -4663,11 +4663,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5291</v>
+        <v>5299</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8:49:6</t>
+          <t>8:49:54</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -4711,11 +4711,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5345</v>
+        <v>5329</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>8:54:30</t>
+          <t>8:52:54</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -4727,11 +4727,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5376</v>
+        <v>5341</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>8:57:36</t>
+          <t>8:54:6</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -4743,11 +4743,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5396</v>
+        <v>5371</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8:59:36</t>
+          <t>8:57:6</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -4775,11 +4775,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5406</v>
+        <v>5422</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>9:0:36</t>
+          <t>9:2:12</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -4791,11 +4791,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>5416</v>
+        <v>5432</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>9:1:36</t>
+          <t>9:3:12</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -4807,11 +4807,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>5473</v>
+        <v>5460</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>9:7:18</t>
+          <t>9:6:0</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -4823,11 +4823,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5480</v>
+        <v>5464</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>9:8:0</t>
+          <t>9:6:24</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -4855,11 +4855,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5517</v>
+        <v>5507</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>9:11:42</t>
+          <t>9:10:42</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -4871,11 +4871,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5518</v>
+        <v>5535</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>9:11:48</t>
+          <t>9:13:30</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -4887,11 +4887,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5523</v>
+        <v>5541</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9:12:18</t>
+          <t>9:14:6</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -4903,11 +4903,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5535</v>
+        <v>5553</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>9:13:30</t>
+          <t>9:15:18</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -4935,11 +4935,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5601</v>
+        <v>5608</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>9:20:6</t>
+          <t>9:20:48</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -4951,11 +4951,11 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>5641</v>
+        <v>5650</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>9:24:6</t>
+          <t>9:25:0</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -4967,11 +4967,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>5663</v>
+        <v>5664</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>9:26:18</t>
+          <t>9:26:24</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -4983,11 +4983,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5675</v>
+        <v>5683</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>9:27:30</t>
+          <t>9:28:18</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5015,11 +5015,11 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>5748</v>
+        <v>5706</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>9:34:48</t>
+          <t>9:30:36</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5031,11 +5031,11 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>5764</v>
+        <v>5715</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>9:36:24</t>
+          <t>9:31:30</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5047,11 +5047,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>5768</v>
+        <v>5717</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>9:36:48</t>
+          <t>9:31:42</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5063,11 +5063,11 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>5783</v>
+        <v>5742</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>9:38:18</t>
+          <t>9:34:12</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5095,11 +5095,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5817</v>
+        <v>5821</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>9:41:42</t>
+          <t>9:42:6</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5111,11 +5111,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5827</v>
+        <v>5861</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>9:42:42</t>
+          <t>9:46:6</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5127,11 +5127,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5838</v>
+        <v>5863</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>9:43:48</t>
+          <t>9:46:18</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5143,11 +5143,11 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5854</v>
+        <v>5888</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>9:45:24</t>
+          <t>9:48:48</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5175,11 +5175,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5902</v>
+        <v>5928</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>9:50:12</t>
+          <t>9:52:48</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5191,11 +5191,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5909</v>
+        <v>5931</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>9:50:54</t>
+          <t>9:53:6</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5207,11 +5207,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5952</v>
+        <v>5956</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>9:55:12</t>
+          <t>9:55:36</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5223,11 +5223,11 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>5972</v>
+        <v>5975</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>9:57:12</t>
+          <t>9:57:30</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -5255,11 +5255,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6029</v>
+        <v>6016</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>10:2:54</t>
+          <t>10:1:36</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -5271,11 +5271,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6051</v>
+        <v>6031</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>10:5:6</t>
+          <t>10:3:6</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -5287,11 +5287,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6059</v>
+        <v>6062</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>10:5:54</t>
+          <t>10:6:12</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -5303,11 +5303,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6078</v>
+        <v>6087</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>10:7:48</t>
+          <t>10:8:42</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -5351,11 +5351,11 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>6131</v>
+        <v>6162</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>10:13:6</t>
+          <t>10:16:12</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -5367,11 +5367,11 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>6138</v>
+        <v>6171</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10:13:48</t>
+          <t>10:17:6</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -5383,11 +5383,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>6156</v>
+        <v>6195</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>10:15:36</t>
+          <t>10:19:30</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -5415,11 +5415,11 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>6240</v>
+        <v>6214</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>10:24:0</t>
+          <t>10:21:24</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -5431,11 +5431,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>6249</v>
+        <v>6220</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>10:24:54</t>
+          <t>10:22:0</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -5447,11 +5447,11 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>6256</v>
+        <v>6253</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>10:25:36</t>
+          <t>10:25:18</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -5463,11 +5463,11 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>6299</v>
+        <v>6288</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>10:29:54</t>
+          <t>10:28:48</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -5495,11 +5495,11 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>6325</v>
+        <v>6341</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>10:32:30</t>
+          <t>10:34:6</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -5511,11 +5511,11 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>6369</v>
+        <v>6349</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>10:36:54</t>
+          <t>10:34:54</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -5527,11 +5527,11 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>6381</v>
+        <v>6357</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>10:38:6</t>
+          <t>10:35:42</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -5543,11 +5543,11 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>6389</v>
+        <v>6364</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>10:38:54</t>
+          <t>10:36:24</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -5575,11 +5575,11 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>6444</v>
+        <v>6403</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>10:44:24</t>
+          <t>10:40:18</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -5591,11 +5591,11 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>6463</v>
+        <v>6423</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10:46:18</t>
+          <t>10:42:18</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -5607,11 +5607,11 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>6470</v>
+        <v>6445</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10:47:0</t>
+          <t>10:44:30</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -5623,11 +5623,11 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>6499</v>
+        <v>6446</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>10:49:54</t>
+          <t>10:44:36</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -5655,11 +5655,11 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>6508</v>
+        <v>6540</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>10:50:48</t>
+          <t>10:54:0</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -5671,11 +5671,11 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>6543</v>
+        <v>6546</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>10:54:18</t>
+          <t>10:54:36</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -5687,11 +5687,11 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>6558</v>
+        <v>6586</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>10:55:48</t>
+          <t>10:58:36</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -5703,11 +5703,11 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>6598</v>
+        <v>6590</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10:59:48</t>
+          <t>10:59:0</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -5735,11 +5735,11 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>6600</v>
+        <v>6601</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>11:0:0</t>
+          <t>11:0:6</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -5751,11 +5751,11 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>6605</v>
+        <v>6627</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>11:0:30</t>
+          <t>11:2:42</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -5767,11 +5767,11 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>6613</v>
+        <v>6646</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>11:1:18</t>
+          <t>11:4:36</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -5783,11 +5783,11 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>6688</v>
+        <v>6657</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>11:8:48</t>
+          <t>11:5:42</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -5815,11 +5815,11 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>6710</v>
+        <v>6721</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>11:11:0</t>
+          <t>11:12:6</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -5831,11 +5831,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>6761</v>
+        <v>6728</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>11:16:6</t>
+          <t>11:12:48</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -5847,11 +5847,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>6778</v>
+        <v>6748</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>11:17:48</t>
+          <t>11:14:48</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -5863,11 +5863,11 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>6794</v>
+        <v>6758</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>11:19:24</t>
+          <t>11:15:48</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -5895,11 +5895,11 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>6828</v>
+        <v>6833</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>11:22:48</t>
+          <t>11:23:18</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -5911,11 +5911,11 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>6849</v>
+        <v>6857</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>11:24:54</t>
+          <t>11:25:42</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -5927,11 +5927,11 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>6857</v>
+        <v>6879</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>11:25:42</t>
+          <t>11:27:54</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -5943,11 +5943,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>6869</v>
+        <v>6883</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>11:26:54</t>
+          <t>11:28:18</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -5975,11 +5975,11 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>6904</v>
+        <v>6960</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>11:30:24</t>
+          <t>11:36:0</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -5991,11 +5991,11 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>6922</v>
+        <v>6966</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>11:32:12</t>
+          <t>11:36:36</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -6007,11 +6007,11 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>6926</v>
+        <v>6987</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>11:32:36</t>
+          <t>11:38:42</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -6023,11 +6023,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>6974</v>
+        <v>6993</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>11:37:24</t>
+          <t>11:39:18</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -6055,11 +6055,11 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>7027</v>
+        <v>7010</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>11:42:42</t>
+          <t>11:41:0</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -6071,11 +6071,11 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>7054</v>
+        <v>7024</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11:45:24</t>
+          <t>11:42:24</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -6087,11 +6087,11 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>7087</v>
+        <v>7064</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>11:48:42</t>
+          <t>11:46:24</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -6103,11 +6103,11 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>7096</v>
+        <v>7066</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>11:49:36</t>
+          <t>11:46:36</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -6135,11 +6135,11 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>7103</v>
+        <v>7131</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>11:50:18</t>
+          <t>11:53:6</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -6151,11 +6151,11 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>7107</v>
+        <v>7152</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>11:50:42</t>
+          <t>11:55:12</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -6167,11 +6167,11 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>7144</v>
+        <v>7188</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>11:54:24</t>
+          <t>11:58:48</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -6183,11 +6183,11 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>7158</v>
+        <v>7190</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>11:55:48</t>
+          <t>11:59:0</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -6215,11 +6215,11 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>7213</v>
+        <v>7200</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>12:1:18</t>
+          <t>12:0:0</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -6231,11 +6231,11 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>7252</v>
+        <v>7257</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>12:5:12</t>
+          <t>12:5:42</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -6247,11 +6247,11 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>7274</v>
+        <v>7263</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>12:7:24</t>
+          <t>12:6:18</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -6263,11 +6263,11 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>7279</v>
+        <v>7289</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>12:7:54</t>
+          <t>12:8:54</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -6295,11 +6295,11 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>7310</v>
+        <v>7306</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>12:11:0</t>
+          <t>12:10:36</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -6311,11 +6311,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>7314</v>
+        <v>7371</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>12:11:24</t>
+          <t>12:17:6</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -6327,11 +6327,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>7369</v>
+        <v>7374</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>12:16:54</t>
+          <t>12:17:24</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -6343,11 +6343,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>7391</v>
+        <v>7396</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>12:19:6</t>
+          <t>12:19:36</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -6375,11 +6375,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>7424</v>
+        <v>7420</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>12:22:24</t>
+          <t>12:22:0</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -6391,11 +6391,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>7453</v>
+        <v>7447</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>12:25:18</t>
+          <t>12:24:42</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -6407,11 +6407,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>7455</v>
+        <v>7471</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>12:25:30</t>
+          <t>12:27:6</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -6423,11 +6423,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>7475</v>
+        <v>7495</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>12:27:30</t>
+          <t>12:29:30</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -6455,11 +6455,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>7519</v>
+        <v>7505</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>12:31:54</t>
+          <t>12:30:30</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -6471,11 +6471,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>7551</v>
+        <v>7528</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>12:35:6</t>
+          <t>12:32:48</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -6487,11 +6487,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>7569</v>
+        <v>7531</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>12:36:54</t>
+          <t>12:33:6</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -6503,11 +6503,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>7596</v>
+        <v>7547</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>12:39:36</t>
+          <t>12:34:42</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -6535,11 +6535,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>7633</v>
+        <v>7632</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>12:43:18</t>
+          <t>12:43:12</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -6551,11 +6551,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>7648</v>
+        <v>7656</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>12:44:48</t>
+          <t>12:45:36</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -6567,11 +6567,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>7669</v>
+        <v>7658</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>12:46:54</t>
+          <t>12:45:48</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -6583,11 +6583,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>7684</v>
+        <v>7698</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>12:48:24</t>
+          <t>12:49:48</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -6615,11 +6615,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>7720</v>
+        <v>7740</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>12:52:0</t>
+          <t>12:54:0</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -6631,11 +6631,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>7745</v>
+        <v>7764</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>12:54:30</t>
+          <t>12:56:24</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -6647,11 +6647,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>7763</v>
+        <v>7785</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>12:56:18</t>
+          <t>12:58:30</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -6663,11 +6663,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>7769</v>
+        <v>7797</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>12:56:54</t>
+          <t>12:59:42</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -6695,11 +6695,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>7801</v>
+        <v>7842</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>13:0:6</t>
+          <t>13:4:12</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -6711,11 +6711,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>7832</v>
+        <v>7883</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>13:3:12</t>
+          <t>13:8:18</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -6727,11 +6727,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>7864</v>
+        <v>7885</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>13:6:24</t>
+          <t>13:8:30</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -6743,11 +6743,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>7894</v>
+        <v>7891</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>13:9:24</t>
+          <t>13:9:6</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -6775,11 +6775,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>7904</v>
+        <v>7902</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>13:10:24</t>
+          <t>13:10:12</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -6791,11 +6791,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>7957</v>
+        <v>7918</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>13:15:42</t>
+          <t>13:11:48</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -6807,11 +6807,11 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7967</v>
+        <v>7980</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13:16:42</t>
+          <t>13:18:0</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -6823,11 +6823,11 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7974</v>
+        <v>7986</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>13:17:24</t>
+          <t>13:18:36</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -6855,11 +6855,11 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>8004</v>
+        <v>8050</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>13:20:24</t>
+          <t>13:25:0</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -6871,11 +6871,11 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>8015</v>
+        <v>8057</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>13:21:30</t>
+          <t>13:25:42</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -6903,11 +6903,11 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>8077</v>
+        <v>8061</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>13:27:42</t>
+          <t>13:26:6</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -6935,11 +6935,11 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>8120</v>
+        <v>8154</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>13:32:0</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -6951,11 +6951,11 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>8135</v>
+        <v>8164</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>13:33:30</t>
+          <t>13:36:24</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -6967,11 +6967,11 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>8155</v>
+        <v>8172</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>13:35:30</t>
+          <t>13:37:12</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -6983,11 +6983,11 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>8171</v>
+        <v>8174</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>13:37:6</t>
+          <t>13:37:24</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -7015,11 +7015,11 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>8206</v>
+        <v>8202</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>13:40:36</t>
+          <t>13:40:12</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -7031,11 +7031,11 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>8260</v>
+        <v>8245</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>13:46:0</t>
+          <t>13:44:30</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -7047,11 +7047,11 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>8291</v>
+        <v>8270</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>13:49:6</t>
+          <t>13:47:0</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -7063,11 +7063,11 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>8295</v>
+        <v>8293</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>13:49:30</t>
+          <t>13:49:18</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -7095,11 +7095,11 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>8314</v>
+        <v>8302</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>13:51:24</t>
+          <t>13:50:12</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -7111,11 +7111,11 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>8370</v>
+        <v>8304</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>13:57:0</t>
+          <t>13:50:24</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -7127,11 +7127,11 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>8375</v>
+        <v>8365</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>13:57:30</t>
+          <t>13:56:30</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -7143,11 +7143,11 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>8384</v>
+        <v>8383</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>13:58:24</t>
+          <t>13:58:18</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -7175,11 +7175,11 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>8402</v>
+        <v>8400</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>14:0:12</t>
+          <t>14:0:0</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -7191,11 +7191,11 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>8416</v>
+        <v>8440</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>14:1:36</t>
+          <t>14:4:0</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -7207,11 +7207,11 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>8428</v>
+        <v>8456</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>14:2:48</t>
+          <t>14:5:36</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -7223,11 +7223,11 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>8483</v>
+        <v>8494</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>14:8:18</t>
+          <t>14:9:24</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -7255,11 +7255,11 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>8505</v>
+        <v>8509</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>14:10:30</t>
+          <t>14:10:54</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -7271,11 +7271,11 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>8508</v>
+        <v>8513</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>14:10:48</t>
+          <t>14:11:18</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -7287,11 +7287,11 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>8521</v>
+        <v>8515</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>14:12:6</t>
+          <t>14:11:30</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -7303,11 +7303,11 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>8558</v>
+        <v>8587</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>14:15:48</t>
+          <t>14:18:42</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -7335,11 +7335,11 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>8650</v>
+        <v>8607</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>14:25:0</t>
+          <t>14:20:42</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -7351,11 +7351,11 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8674</v>
+        <v>8617</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>14:27:24</t>
+          <t>14:21:42</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -7367,11 +7367,11 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>8680</v>
+        <v>8628</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>14:28:0</t>
+          <t>14:22:48</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -7383,11 +7383,11 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>8690</v>
+        <v>8664</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>14:29:0</t>
+          <t>14:26:24</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -7415,11 +7415,11 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>8701</v>
+        <v>8705</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>14:30:6</t>
+          <t>14:30:30</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -7431,11 +7431,11 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>8748</v>
+        <v>8756</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>14:34:48</t>
+          <t>14:35:36</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -7447,11 +7447,11 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>8751</v>
+        <v>8789</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>14:35:6</t>
+          <t>14:38:54</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -7463,11 +7463,11 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>8787</v>
+        <v>8794</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>14:38:42</t>
+          <t>14:39:24</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -7495,11 +7495,11 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>8835</v>
+        <v>8809</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>14:43:30</t>
+          <t>14:40:54</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -7511,11 +7511,11 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>8868</v>
+        <v>8863</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>14:46:48</t>
+          <t>14:46:18</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -7527,11 +7527,11 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>8873</v>
+        <v>8866</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>14:47:18</t>
+          <t>14:46:36</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -7543,11 +7543,11 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>8885</v>
+        <v>8886</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>14:48:30</t>
+          <t>14:48:36</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -7575,11 +7575,11 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>8924</v>
+        <v>8930</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>14:52:24</t>
+          <t>14:53:0</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -7591,11 +7591,11 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>8932</v>
+        <v>8948</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>14:53:12</t>
+          <t>14:54:48</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -7607,11 +7607,11 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>8942</v>
+        <v>8964</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>14:54:12</t>
+          <t>14:56:24</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -7623,11 +7623,11 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>8943</v>
+        <v>8996</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>14:54:18</t>
+          <t>14:59:36</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -7671,11 +7671,11 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>9030</v>
+        <v>9037</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>15:3:0</t>
+          <t>15:3:42</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -7687,11 +7687,11 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>9041</v>
+        <v>9042</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>15:4:6</t>
+          <t>15:4:12</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -7703,11 +7703,11 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>9078</v>
+        <v>9070</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>15:7:48</t>
+          <t>15:7:0</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -7751,11 +7751,11 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>9136</v>
+        <v>9149</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>15:13:36</t>
+          <t>15:14:54</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -7767,11 +7767,11 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>9138</v>
+        <v>9162</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>15:13:48</t>
+          <t>15:16:12</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -7783,11 +7783,11 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>9164</v>
+        <v>9191</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>15:16:24</t>
+          <t>15:19:6</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -7815,11 +7815,11 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>9201</v>
+        <v>9206</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>15:20:6</t>
+          <t>15:20:36</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -7831,11 +7831,11 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>9205</v>
+        <v>9208</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>15:20:30</t>
+          <t>15:20:48</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -7847,11 +7847,11 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>9219</v>
+        <v>9229</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>15:21:54</t>
+          <t>15:22:54</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -7863,11 +7863,11 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>9290</v>
+        <v>9292</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>15:29:0</t>
+          <t>15:29:12</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -7895,11 +7895,11 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>9303</v>
+        <v>9320</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>15:30:18</t>
+          <t>15:32:0</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -7911,11 +7911,11 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>9357</v>
+        <v>9338</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>15:35:42</t>
+          <t>15:33:48</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -7943,11 +7943,11 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>9382</v>
+        <v>9386</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>15:38:12</t>
+          <t>15:38:36</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -7975,11 +7975,11 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>9412</v>
+        <v>9410</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>15:41:12</t>
+          <t>15:41:0</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -7991,11 +7991,11 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>9443</v>
+        <v>9434</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>15:44:18</t>
+          <t>15:43:24</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -8007,11 +8007,11 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>9455</v>
+        <v>9447</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>15:45:30</t>
+          <t>15:44:42</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -8023,11 +8023,11 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>9458</v>
+        <v>9461</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>15:45:48</t>
+          <t>15:46:6</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -8055,11 +8055,11 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>9525</v>
+        <v>9503</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>15:52:30</t>
+          <t>15:50:18</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -8071,11 +8071,11 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>9539</v>
+        <v>9516</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>15:53:54</t>
+          <t>15:51:36</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -8087,11 +8087,11 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>9553</v>
+        <v>9574</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>15:55:18</t>
+          <t>15:57:24</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -8103,11 +8103,11 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>9564</v>
+        <v>9577</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>15:56:24</t>
+          <t>15:57:42</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -8135,11 +8135,11 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>9600</v>
+        <v>9608</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>16:0:0</t>
+          <t>16:0:48</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -8151,11 +8151,11 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>9605</v>
+        <v>9609</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>16:0:30</t>
+          <t>16:0:54</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -8167,11 +8167,11 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>9621</v>
+        <v>9616</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>16:2:6</t>
+          <t>16:1:36</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -8183,11 +8183,11 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>9625</v>
+        <v>9617</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>16:2:30</t>
+          <t>16:1:42</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -8231,11 +8231,11 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>9755</v>
+        <v>9750</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>16:15:30</t>
+          <t>16:15:0</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -8247,11 +8247,11 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>9770</v>
+        <v>9781</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>16:17:0</t>
+          <t>16:18:6</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -8263,11 +8263,11 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>9799</v>
+        <v>9785</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>16:19:54</t>
+          <t>16:18:30</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -8295,11 +8295,11 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>9832</v>
+        <v>9804</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>16:23:12</t>
+          <t>16:20:24</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -8311,11 +8311,11 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>9849</v>
+        <v>9809</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>16:24:54</t>
+          <t>16:20:54</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -8327,11 +8327,11 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>9866</v>
+        <v>9817</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>16:26:36</t>
+          <t>16:21:42</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -8343,11 +8343,11 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>9877</v>
+        <v>9885</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>16:27:42</t>
+          <t>16:28:30</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -8375,11 +8375,11 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>9918</v>
+        <v>9942</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>16:31:48</t>
+          <t>16:34:12</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -8391,11 +8391,11 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>9955</v>
+        <v>9960</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>16:35:30</t>
+          <t>16:36:0</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -8407,11 +8407,11 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>9995</v>
+        <v>9970</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>16:39:30</t>
+          <t>16:37:0</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -8455,11 +8455,11 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>10037</v>
+        <v>10060</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>16:43:42</t>
+          <t>16:46:0</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -8471,11 +8471,11 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>10072</v>
+        <v>10064</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>16:47:12</t>
+          <t>16:46:24</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -8487,11 +8487,11 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>10080</v>
+        <v>10075</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>16:48:0</t>
+          <t>16:47:30</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -8503,11 +8503,11 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>10099</v>
+        <v>10087</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>16:49:54</t>
+          <t>16:48:42</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -8535,11 +8535,11 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>10109</v>
+        <v>10119</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>16:50:54</t>
+          <t>16:51:54</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -8551,11 +8551,11 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>10132</v>
+        <v>10120</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>16:53:12</t>
+          <t>16:52:0</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -8567,11 +8567,11 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>10180</v>
+        <v>10157</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>16:58:0</t>
+          <t>16:55:42</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -8583,11 +8583,11 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>10195</v>
+        <v>10169</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>16:59:30</t>
+          <t>16:56:54</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -8615,11 +8615,11 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>10226</v>
+        <v>10210</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>17:2:36</t>
+          <t>17:1:0</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -8631,11 +8631,11 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>10229</v>
+        <v>10241</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>17:2:54</t>
+          <t>17:4:6</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -8647,11 +8647,11 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>10249</v>
+        <v>10260</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>17:4:54</t>
+          <t>17:6:0</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -8663,11 +8663,11 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>10295</v>
+        <v>10285</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>17:9:30</t>
+          <t>17:8:30</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -8695,11 +8695,11 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>10359</v>
+        <v>10324</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>17:15:54</t>
+          <t>17:12:24</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -8711,11 +8711,11 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>10365</v>
+        <v>10347</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>17:16:30</t>
+          <t>17:14:42</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -8727,11 +8727,11 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>10372</v>
+        <v>10385</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>17:17:12</t>
+          <t>17:18:30</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -8743,11 +8743,11 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>10385</v>
+        <v>10398</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>17:18:30</t>
+          <t>17:19:48</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -8775,11 +8775,11 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>10413</v>
+        <v>10404</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>17:21:18</t>
+          <t>17:20:24</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -8791,11 +8791,11 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>10484</v>
+        <v>10405</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>17:28:24</t>
+          <t>17:20:30</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -8807,11 +8807,11 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>10487</v>
+        <v>10452</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>17:28:42</t>
+          <t>17:25:12</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -8823,11 +8823,11 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>10491</v>
+        <v>10466</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>17:29:6</t>
+          <t>17:26:36</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -8855,11 +8855,11 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>10519</v>
+        <v>10501</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>17:31:54</t>
+          <t>17:30:6</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -8871,11 +8871,11 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>10548</v>
+        <v>10505</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>17:34:48</t>
+          <t>17:30:30</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -8887,11 +8887,11 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>10581</v>
+        <v>10542</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>17:38:6</t>
+          <t>17:34:12</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -8903,11 +8903,11 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>10594</v>
+        <v>10571</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>17:39:24</t>
+          <t>17:37:6</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -8935,11 +8935,11 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>10603</v>
+        <v>10617</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>17:40:18</t>
+          <t>17:41:42</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -8951,11 +8951,11 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>10618</v>
+        <v>10623</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>17:41:48</t>
+          <t>17:42:18</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -8967,11 +8967,11 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>10641</v>
+        <v>10663</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>17:44:6</t>
+          <t>17:46:18</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -8983,11 +8983,11 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>10669</v>
+        <v>10696</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>17:46:54</t>
+          <t>17:49:36</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -9015,11 +9015,11 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>10722</v>
+        <v>10726</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>17:52:12</t>
+          <t>17:52:36</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -9031,11 +9031,11 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>10729</v>
+        <v>10754</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>17:52:54</t>
+          <t>17:55:24</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -9047,11 +9047,11 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>10773</v>
+        <v>10761</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>17:57:18</t>
+          <t>17:56:6</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -9063,11 +9063,11 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>10781</v>
+        <v>10770</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>17:58:6</t>
+          <t>17:57:0</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -9095,11 +9095,11 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>10846</v>
+        <v>10808</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>18:4:36</t>
+          <t>18:0:48</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -9111,11 +9111,11 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>10853</v>
+        <v>10814</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>18:5:18</t>
+          <t>18:1:24</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -9127,11 +9127,11 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>10862</v>
+        <v>10856</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>18:6:12</t>
+          <t>18:5:36</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -9143,11 +9143,11 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>10866</v>
+        <v>10892</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>18:6:36</t>
+          <t>18:9:12</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -9175,11 +9175,11 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>10918</v>
+        <v>10913</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>18:11:48</t>
+          <t>18:11:18</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -9191,11 +9191,11 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>10974</v>
+        <v>10940</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>18:17:24</t>
+          <t>18:14:0</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -9207,11 +9207,11 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>10976</v>
+        <v>10953</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>18:17:36</t>
+          <t>18:15:18</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -9223,11 +9223,11 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>10984</v>
+        <v>10987</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>18:18:24</t>
+          <t>18:18:42</t>
         </is>
       </c>
       <c r="D550" t="n">
@@ -9255,11 +9255,11 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>18:22:0</t>
+          <t>18:21:0</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -9271,11 +9271,11 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>11085</v>
+        <v>11049</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>18:28:30</t>
+          <t>18:24:54</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -9287,11 +9287,11 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>11089</v>
+        <v>11055</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>18:28:54</t>
+          <t>18:25:30</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -9303,11 +9303,11 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>11097</v>
+        <v>11087</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>18:29:42</t>
+          <t>18:28:42</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -9335,11 +9335,11 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>11128</v>
+        <v>11127</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>18:32:48</t>
+          <t>18:32:42</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -9351,11 +9351,11 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>11154</v>
+        <v>11158</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>18:35:24</t>
+          <t>18:35:48</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -9367,11 +9367,11 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>11156</v>
+        <v>11184</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>18:35:36</t>
+          <t>18:38:24</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -9383,11 +9383,11 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>11174</v>
+        <v>11185</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>18:37:24</t>
+          <t>18:38:30</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -9415,11 +9415,11 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>11231</v>
+        <v>11245</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>18:43:6</t>
+          <t>18:44:30</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -9431,11 +9431,11 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>11239</v>
+        <v>11250</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>18:43:54</t>
+          <t>18:45:0</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -9447,11 +9447,11 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>11288</v>
+        <v>11253</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>18:48:48</t>
+          <t>18:45:18</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -9463,11 +9463,11 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>11298</v>
+        <v>11282</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>18:49:48</t>
+          <t>18:48:12</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -9495,11 +9495,11 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>11358</v>
+        <v>11304</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>18:55:48</t>
+          <t>18:50:24</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -9511,11 +9511,11 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>11384</v>
+        <v>11321</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>18:58:24</t>
+          <t>18:52:6</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -9527,11 +9527,11 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>11392</v>
+        <v>11322</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>18:59:12</t>
+          <t>18:52:12</t>
         </is>
       </c>
       <c r="D569" t="n">
@@ -9543,11 +9543,11 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>11398</v>
+        <v>11335</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>18:59:48</t>
+          <t>18:53:30</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -9575,11 +9575,11 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>11400</v>
+        <v>11438</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>19:0:0</t>
+          <t>19:3:48</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -9591,11 +9591,11 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>11404</v>
+        <v>11447</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>19:0:24</t>
+          <t>19:4:42</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -9607,11 +9607,11 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>11485</v>
+        <v>11452</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>19:8:30</t>
+          <t>19:5:12</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -9623,11 +9623,11 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>11488</v>
+        <v>11472</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>19:8:48</t>
+          <t>19:7:12</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -9655,11 +9655,11 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>11508</v>
+        <v>11542</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>19:10:48</t>
+          <t>19:14:12</t>
         </is>
       </c>
       <c r="D577" t="n">
@@ -9671,11 +9671,11 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>11511</v>
+        <v>11544</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>19:11:6</t>
+          <t>19:14:24</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -9687,11 +9687,11 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>11530</v>
+        <v>11556</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>19:13:0</t>
+          <t>19:15:36</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -9703,11 +9703,11 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>11593</v>
+        <v>11567</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>19:19:18</t>
+          <t>19:16:42</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -9735,11 +9735,11 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>11625</v>
+        <v>11615</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>19:22:30</t>
+          <t>19:21:30</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -9751,11 +9751,11 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>11657</v>
+        <v>11621</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>19:25:42</t>
+          <t>19:22:6</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -9767,11 +9767,11 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>11661</v>
+        <v>11623</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>19:26:6</t>
+          <t>19:22:18</t>
         </is>
       </c>
       <c r="D584" t="n">
@@ -9783,11 +9783,11 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>11667</v>
+        <v>11625</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>19:26:42</t>
+          <t>19:22:30</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -9815,11 +9815,11 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>11703</v>
+        <v>11708</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>19:30:18</t>
+          <t>19:30:48</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -9831,11 +9831,11 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>11746</v>
+        <v>11753</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>19:34:36</t>
+          <t>19:35:18</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -9847,11 +9847,11 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>11747</v>
+        <v>11787</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>19:34:42</t>
+          <t>19:38:42</t>
         </is>
       </c>
       <c r="D589" t="n">
@@ -9863,11 +9863,11 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>11766</v>
+        <v>11792</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>19:36:36</t>
+          <t>19:39:12</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -9895,11 +9895,11 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>11837</v>
+        <v>11805</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>19:43:42</t>
+          <t>19:40:30</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -9911,11 +9911,11 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>11838</v>
+        <v>11806</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>19:43:48</t>
+          <t>19:40:36</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -9927,11 +9927,11 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>11852</v>
+        <v>11836</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>19:45:12</t>
+          <t>19:43:36</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -9943,11 +9943,11 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>11898</v>
+        <v>11857</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>19:49:48</t>
+          <t>19:45:42</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -9975,11 +9975,11 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>11913</v>
+        <v>11908</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>19:51:18</t>
+          <t>19:50:48</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -9991,11 +9991,11 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>11935</v>
+        <v>11930</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>19:53:30</t>
+          <t>19:53:0</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -10007,11 +10007,11 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>11961</v>
+        <v>11982</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>19:56:6</t>
+          <t>19:58:12</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -10055,11 +10055,11 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>12019</v>
+        <v>12014</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>20:1:54</t>
+          <t>20:1:24</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -10071,11 +10071,11 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>12035</v>
+        <v>12019</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>20:3:30</t>
+          <t>20:1:54</t>
         </is>
       </c>
       <c r="D603" t="n">
@@ -10087,11 +10087,11 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>12052</v>
+        <v>12024</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>20:5:12</t>
+          <t>20:2:24</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -10103,11 +10103,11 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>12056</v>
+        <v>12068</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>20:5:36</t>
+          <t>20:6:48</t>
         </is>
       </c>
       <c r="D605" t="n">
@@ -10135,11 +10135,11 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>12118</v>
+        <v>12145</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>20:11:48</t>
+          <t>20:14:30</t>
         </is>
       </c>
       <c r="D607" t="n">
@@ -10151,11 +10151,11 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>12166</v>
+        <v>12153</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>20:16:36</t>
+          <t>20:15:18</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -10167,11 +10167,11 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>12168</v>
+        <v>12159</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>20:16:48</t>
+          <t>20:15:54</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -10183,11 +10183,11 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>12184</v>
+        <v>12166</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>20:18:24</t>
+          <t>20:16:36</t>
         </is>
       </c>
       <c r="D610" t="n">
@@ -10215,11 +10215,11 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>12204</v>
+        <v>12230</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>20:20:24</t>
+          <t>20:23:0</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -10231,11 +10231,11 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>12265</v>
+        <v>12242</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>20:26:30</t>
+          <t>20:24:12</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -10247,11 +10247,11 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>12274</v>
+        <v>12247</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>20:27:24</t>
+          <t>20:24:42</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -10263,11 +10263,11 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>12275</v>
+        <v>12277</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>20:27:30</t>
+          <t>20:27:42</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -10295,11 +10295,11 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>12350</v>
+        <v>12336</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>20:35:0</t>
+          <t>20:33:36</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -10311,11 +10311,11 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>12354</v>
+        <v>12359</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>20:35:24</t>
+          <t>20:35:54</t>
         </is>
       </c>
       <c r="D618" t="n">
@@ -10327,11 +10327,11 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>12364</v>
+        <v>12381</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>20:36:24</t>
+          <t>20:38:6</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -10343,11 +10343,11 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>12374</v>
+        <v>12399</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>20:37:24</t>
+          <t>20:39:54</t>
         </is>
       </c>
       <c r="D620" t="n">
@@ -10375,11 +10375,11 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>12403</v>
+        <v>12417</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>20:40:18</t>
+          <t>20:41:42</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -10391,11 +10391,11 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>12415</v>
+        <v>12480</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>20:41:30</t>
+          <t>20:48:0</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -10407,11 +10407,11 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>12421</v>
+        <v>12482</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>20:42:6</t>
+          <t>20:48:12</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -10423,11 +10423,11 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>12450</v>
+        <v>12496</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>20:45:0</t>
+          <t>20:49:36</t>
         </is>
       </c>
       <c r="D625" t="n">
@@ -10455,11 +10455,11 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>12502</v>
+        <v>12534</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>20:50:12</t>
+          <t>20:53:24</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -10471,11 +10471,11 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>12533</v>
+        <v>12572</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>20:53:18</t>
+          <t>20:57:12</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -10487,11 +10487,11 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>12547</v>
+        <v>12588</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>20:54:42</t>
+          <t>20:58:48</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -10503,11 +10503,11 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>12568</v>
+        <v>12591</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>20:56:48</t>
+          <t>20:59:6</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -10535,11 +10535,11 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>12615</v>
+        <v>12606</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>21:1:30</t>
+          <t>21:0:36</t>
         </is>
       </c>
       <c r="D632" t="n">
@@ -10551,11 +10551,11 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>12631</v>
+        <v>12608</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>21:3:6</t>
+          <t>21:0:48</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -10567,11 +10567,11 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>12633</v>
+        <v>12644</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>21:3:18</t>
+          <t>21:4:24</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -10583,11 +10583,11 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>12681</v>
+        <v>12666</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>21:8:6</t>
+          <t>21:6:36</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -10615,11 +10615,11 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>12749</v>
+        <v>12733</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>21:14:54</t>
+          <t>21:13:18</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -10631,11 +10631,11 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>12768</v>
+        <v>12735</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>21:16:48</t>
+          <t>21:13:30</t>
         </is>
       </c>
       <c r="D638" t="n">
@@ -10647,11 +10647,11 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>12772</v>
+        <v>12742</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>21:17:12</t>
+          <t>21:14:12</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -10663,11 +10663,11 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>12791</v>
+        <v>12758</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>21:19:6</t>
+          <t>21:15:48</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -10695,11 +10695,11 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>12812</v>
+        <v>12815</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>21:21:12</t>
+          <t>21:21:30</t>
         </is>
       </c>
       <c r="D642" t="n">
@@ -10711,11 +10711,11 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>12827</v>
+        <v>12833</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>21:22:42</t>
+          <t>21:23:18</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -10727,11 +10727,11 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>12848</v>
+        <v>12874</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>21:24:48</t>
+          <t>21:27:24</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -10743,11 +10743,11 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>12883</v>
+        <v>12894</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>21:28:18</t>
+          <t>21:29:24</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -10775,11 +10775,11 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>12912</v>
+        <v>12913</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>21:31:12</t>
+          <t>21:31:18</t>
         </is>
       </c>
       <c r="D647" t="n">
@@ -10791,11 +10791,11 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>12915</v>
+        <v>12940</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>21:31:30</t>
+          <t>21:34:0</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -10807,11 +10807,11 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>12930</v>
+        <v>12951</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>21:33:0</t>
+          <t>21:35:6</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -10823,11 +10823,11 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>12981</v>
+        <v>12983</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>21:38:6</t>
+          <t>21:38:18</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -10855,11 +10855,11 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>13006</v>
+        <v>13004</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>21:40:36</t>
+          <t>21:40:24</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -10871,11 +10871,11 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>13015</v>
+        <v>13041</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>21:41:30</t>
+          <t>21:44:6</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -10887,11 +10887,11 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>13016</v>
+        <v>13097</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>21:41:36</t>
+          <t>21:49:42</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -10903,11 +10903,11 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>13089</v>
+        <v>13098</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>21:48:54</t>
+          <t>21:49:48</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -10935,11 +10935,11 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>13109</v>
+        <v>13123</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>21:50:54</t>
+          <t>21:52:18</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -10951,11 +10951,11 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>13154</v>
+        <v>13171</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>21:55:24</t>
+          <t>21:57:6</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -10967,11 +10967,11 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>13173</v>
+        <v>13188</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>21:57:18</t>
+          <t>21:58:48</t>
         </is>
       </c>
       <c r="D659" t="n">
@@ -10983,11 +10983,11 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>13175</v>
+        <v>13197</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>21:57:30</t>
+          <t>21:59:42</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -11015,11 +11015,11 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>13209</v>
+        <v>13201</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>22:0:54</t>
+          <t>22:0:6</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -11031,11 +11031,11 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>13239</v>
+        <v>13250</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>22:3:54</t>
+          <t>22:5:0</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -11047,11 +11047,11 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>13274</v>
+        <v>13269</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>22:7:24</t>
+          <t>22:6:54</t>
         </is>
       </c>
       <c r="D664" t="n">
@@ -11063,11 +11063,11 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>13278</v>
+        <v>13287</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>22:7:48</t>
+          <t>22:8:42</t>
         </is>
       </c>
       <c r="D665" t="n">
@@ -11095,11 +11095,11 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>13301</v>
+        <v>13313</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>22:10:6</t>
+          <t>22:11:18</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -11111,11 +11111,11 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>13336</v>
+        <v>13325</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>22:13:36</t>
+          <t>22:12:30</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -11127,11 +11127,11 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>13375</v>
+        <v>13329</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>22:17:30</t>
+          <t>22:12:54</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -11143,11 +11143,11 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>13383</v>
+        <v>13389</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>22:18:18</t>
+          <t>22:18:54</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -11175,11 +11175,11 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>13438</v>
+        <v>13401</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>22:23:48</t>
+          <t>22:20:6</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -11191,11 +11191,11 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>13460</v>
+        <v>13470</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>22:26:0</t>
+          <t>22:27:0</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -11207,11 +11207,11 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>13472</v>
+        <v>13483</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>22:27:12</t>
+          <t>22:28:18</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -11223,11 +11223,11 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>13483</v>
+        <v>13484</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>22:28:18</t>
+          <t>22:28:24</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -11255,11 +11255,11 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>13509</v>
+        <v>13507</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>22:30:54</t>
+          <t>22:30:42</t>
         </is>
       </c>
       <c r="D677" t="n">
@@ -11271,11 +11271,11 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>13510</v>
+        <v>13518</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>22:31:0</t>
+          <t>22:31:48</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -11287,11 +11287,11 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>13527</v>
+        <v>13545</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>22:32:42</t>
+          <t>22:34:30</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -11303,11 +11303,11 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>13579</v>
+        <v>13561</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>22:37:54</t>
+          <t>22:36:6</t>
         </is>
       </c>
       <c r="D680" t="n">
@@ -11335,11 +11335,11 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>13630</v>
+        <v>13624</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>22:43:0</t>
+          <t>22:42:24</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -11351,11 +11351,11 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>13635</v>
+        <v>13627</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>22:43:30</t>
+          <t>22:42:42</t>
         </is>
       </c>
       <c r="D683" t="n">
@@ -11367,11 +11367,11 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>13662</v>
+        <v>13667</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>22:46:12</t>
+          <t>22:46:42</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -11383,11 +11383,11 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>13697</v>
+        <v>13684</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>22:49:42</t>
+          <t>22:48:24</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -11415,11 +11415,11 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>13740</v>
+        <v>13715</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>22:54:0</t>
+          <t>22:51:30</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -11431,11 +11431,11 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>13749</v>
+        <v>13775</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>22:54:54</t>
+          <t>22:57:30</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -11447,11 +11447,11 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>13763</v>
+        <v>13776</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>22:56:18</t>
+          <t>22:57:36</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -11463,11 +11463,11 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>13774</v>
+        <v>13791</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>22:57:24</t>
+          <t>22:59:6</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -11495,11 +11495,11 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>13841</v>
+        <v>13807</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>23:4:6</t>
+          <t>23:0:42</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -11511,11 +11511,11 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>13854</v>
+        <v>13845</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>23:5:24</t>
+          <t>23:4:30</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -11527,11 +11527,11 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>13893</v>
+        <v>13852</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>23:9:18</t>
+          <t>23:5:12</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -11543,11 +11543,11 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>13898</v>
+        <v>13855</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>23:9:48</t>
+          <t>23:5:30</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -11575,11 +11575,11 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>13914</v>
+        <v>13933</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>23:11:24</t>
+          <t>23:13:18</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -11591,11 +11591,11 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>13941</v>
+        <v>13938</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>23:14:6</t>
+          <t>23:13:48</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -11607,11 +11607,11 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>13944</v>
+        <v>13940</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>23:14:24</t>
+          <t>23:14:0</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -11623,11 +11623,11 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>13974</v>
+        <v>13943</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>23:17:24</t>
+          <t>23:14:18</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -11655,11 +11655,11 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>14042</v>
+        <v>14016</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>23:24:12</t>
+          <t>23:21:36</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -11671,11 +11671,11 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>14073</v>
+        <v>14061</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>23:27:18</t>
+          <t>23:26:6</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -11687,11 +11687,11 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>14074</v>
+        <v>14075</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>23:27:24</t>
+          <t>23:27:30</t>
         </is>
       </c>
       <c r="D704" t="n">
@@ -11703,11 +11703,11 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>14081</v>
+        <v>14077</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>23:28:6</t>
+          <t>23:27:42</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -11735,11 +11735,11 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>14129</v>
+        <v>14119</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>23:32:54</t>
+          <t>23:31:54</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -11751,11 +11751,11 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>14159</v>
+        <v>14144</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>23:35:54</t>
+          <t>23:34:24</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -11767,11 +11767,11 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>14185</v>
+        <v>14152</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>23:38:30</t>
+          <t>23:35:12</t>
         </is>
       </c>
       <c r="D709" t="n">
@@ -11783,11 +11783,11 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>14196</v>
+        <v>14155</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>23:39:36</t>
+          <t>23:35:30</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -11815,11 +11815,11 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>14206</v>
+        <v>14229</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>23:40:36</t>
+          <t>23:42:54</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -11831,11 +11831,11 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>14264</v>
+        <v>14262</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>23:46:24</t>
+          <t>23:46:12</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -11847,11 +11847,11 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>14289</v>
+        <v>14278</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>23:48:54</t>
+          <t>23:47:48</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -11863,11 +11863,11 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>14290</v>
+        <v>14283</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>23:49:0</t>
+          <t>23:48:18</t>
         </is>
       </c>
       <c r="D715" t="n">
@@ -11895,11 +11895,11 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>14300</v>
+        <v>14313</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>23:50:0</t>
+          <t>23:51:18</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -11911,11 +11911,11 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>14314</v>
+        <v>14344</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>23:51:24</t>
+          <t>23:54:24</t>
         </is>
       </c>
       <c r="D718" t="n">
@@ -11927,11 +11927,11 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>14368</v>
+        <v>14378</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>23:56:48</t>
+          <t>23:57:48</t>
         </is>
       </c>
       <c r="D719" t="n">
@@ -11943,11 +11943,11 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>14393</v>
+        <v>14388</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>23:59:18</t>
+          <t>23:58:48</t>
         </is>
       </c>
       <c r="D720" t="n">
